--- a/Data4.xlsx
+++ b/Data4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Electronics\PLX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\# Bioelectronics\4th year\Indoor-Localiztion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6043812C-C983-424A-A136-337F190AB6D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4AF786-B393-4B8D-B864-6855B4679191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="870" windowWidth="21600" windowHeight="14880" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Previous Port:</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>STEP</t>
+  </si>
+  <si>
+    <t>class</t>
   </si>
 </sst>
 </file>
@@ -248,6 +251,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -265,15 +277,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -302,14 +305,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>324196</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>58189</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>548640</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -350,7 +353,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -743,63 +746,67 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K320"/>
+  <dimension ref="A1:L320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:K78"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="256" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="11" style="12" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="257" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="15" customFormat="1" ht="13.1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="L1" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -807,69 +814,75 @@
         <v>5</v>
       </c>
       <c r="C2" s="6">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6">
         <v>-56</v>
       </c>
-      <c r="D2" s="6">
-        <v>-99</v>
-      </c>
       <c r="E2" s="6">
+        <v>-99</v>
+      </c>
+      <c r="F2" s="6">
         <v>-91</v>
       </c>
-      <c r="F2" s="6">
-        <v>-99</v>
-      </c>
       <c r="G2" s="6">
         <v>-99</v>
       </c>
-      <c r="H2" s="10">
-        <v>-99</v>
-      </c>
-      <c r="I2" s="4">
-        <v>-99</v>
-      </c>
-      <c r="J2" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K2" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H2" s="6">
+        <v>-99</v>
+      </c>
+      <c r="I2" s="10">
+        <v>-99</v>
+      </c>
+      <c r="J2" s="4">
+        <v>-99</v>
+      </c>
+      <c r="K2" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L2" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>1</v>
       </c>
       <c r="B3" s="10">
         <v>5</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="6">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10">
         <v>-55</v>
       </c>
-      <c r="D3" s="10">
-        <v>-99</v>
-      </c>
       <c r="E3" s="10">
+        <v>-99</v>
+      </c>
+      <c r="F3" s="10">
         <v>-82</v>
       </c>
-      <c r="F3" s="10">
-        <v>-99</v>
-      </c>
       <c r="G3" s="10">
         <v>-99</v>
       </c>
       <c r="H3" s="10">
+        <v>-99</v>
+      </c>
+      <c r="I3" s="10">
         <v>-73</v>
       </c>
-      <c r="I3" s="5">
-        <v>-99</v>
-      </c>
-      <c r="J3" s="23">
+      <c r="J3" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K3" s="17">
         <v>-72</v>
       </c>
-      <c r="K3" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -877,34 +890,37 @@
         <v>5</v>
       </c>
       <c r="C4" s="6">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6">
         <v>-57</v>
       </c>
-      <c r="D4" s="6">
-        <v>-99</v>
-      </c>
       <c r="E4" s="6">
         <v>-99</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="6">
         <v>-99</v>
       </c>
       <c r="G4" s="10">
         <v>-99</v>
       </c>
       <c r="H4" s="10">
+        <v>-99</v>
+      </c>
+      <c r="I4" s="10">
         <v>-76</v>
       </c>
-      <c r="I4" s="5">
-        <v>-99</v>
-      </c>
-      <c r="J4" s="23">
+      <c r="J4" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K4" s="17">
         <v>-75</v>
       </c>
-      <c r="K4" s="23">
+      <c r="L4" s="17">
         <v>-74</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -912,15 +928,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="6">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6">
         <v>-63</v>
       </c>
-      <c r="D5" s="6">
-        <v>-99</v>
-      </c>
       <c r="E5" s="6">
         <v>-99</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="6">
         <v>-99</v>
       </c>
       <c r="G5" s="10">
@@ -929,17 +945,20 @@
       <c r="H5" s="10">
         <v>-99</v>
       </c>
-      <c r="I5" s="5">
-        <v>-99</v>
-      </c>
-      <c r="J5" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K5" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I5" s="10">
+        <v>-99</v>
+      </c>
+      <c r="J5" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K5" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L5" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>1</v>
       </c>
@@ -947,15 +966,15 @@
         <v>5</v>
       </c>
       <c r="C6" s="6">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6">
         <v>-59</v>
       </c>
-      <c r="D6" s="6">
-        <v>-99</v>
-      </c>
       <c r="E6" s="6">
         <v>-99</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="6">
         <v>-99</v>
       </c>
       <c r="G6" s="10">
@@ -964,17 +983,20 @@
       <c r="H6" s="10">
         <v>-99</v>
       </c>
-      <c r="I6" s="5">
-        <v>-99</v>
-      </c>
-      <c r="J6" s="23">
+      <c r="I6" s="10">
+        <v>-99</v>
+      </c>
+      <c r="J6" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K6" s="17">
         <v>-79</v>
       </c>
-      <c r="K6" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>1</v>
       </c>
@@ -982,34 +1004,37 @@
         <v>5</v>
       </c>
       <c r="C7" s="6">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6">
         <v>-53</v>
       </c>
-      <c r="D7" s="6">
-        <v>-99</v>
-      </c>
       <c r="E7" s="6">
         <v>-99</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="6">
         <v>-99</v>
       </c>
       <c r="G7" s="10">
         <v>-99</v>
       </c>
       <c r="H7" s="10">
+        <v>-99</v>
+      </c>
+      <c r="I7" s="10">
         <v>-72</v>
       </c>
-      <c r="I7" s="5">
-        <v>-99</v>
-      </c>
-      <c r="J7" s="23">
+      <c r="J7" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K7" s="17">
         <v>-71</v>
       </c>
-      <c r="K7" s="23">
+      <c r="L7" s="17">
         <v>-75</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>1</v>
       </c>
@@ -1017,69 +1042,75 @@
         <v>5</v>
       </c>
       <c r="C8" s="6">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6">
         <v>-58</v>
       </c>
-      <c r="D8" s="6">
-        <v>-99</v>
-      </c>
       <c r="E8" s="6">
         <v>-99</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="6">
         <v>-99</v>
       </c>
       <c r="G8" s="10">
         <v>-99</v>
       </c>
       <c r="H8" s="10">
+        <v>-99</v>
+      </c>
+      <c r="I8" s="10">
         <v>-73</v>
       </c>
-      <c r="I8" s="5">
-        <v>-99</v>
-      </c>
-      <c r="J8" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K8" s="23">
+      <c r="J8" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K8" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L8" s="17">
         <v>-74</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>1</v>
       </c>
       <c r="B9" s="11">
         <v>5</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7">
         <v>-60</v>
       </c>
-      <c r="D9" s="11">
-        <v>-99</v>
-      </c>
-      <c r="E9" s="7">
-        <v>-99</v>
-      </c>
-      <c r="F9" s="11">
+      <c r="E9" s="11">
+        <v>-99</v>
+      </c>
+      <c r="F9" s="7">
         <v>-99</v>
       </c>
       <c r="G9" s="11">
         <v>-99</v>
       </c>
-      <c r="H9" s="10">
-        <v>-99</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="H9" s="11">
+        <v>-99</v>
+      </c>
+      <c r="I9" s="10">
+        <v>-99</v>
+      </c>
+      <c r="J9" s="5">
         <v>-84</v>
       </c>
-      <c r="J9" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K9" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L9" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>1</v>
       </c>
@@ -1087,262 +1118,283 @@
         <v>5</v>
       </c>
       <c r="C10" s="6">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6">
         <v>-65</v>
       </c>
-      <c r="D10" s="6">
-        <v>-99</v>
-      </c>
       <c r="E10" s="6">
         <v>-99</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>-99</v>
       </c>
       <c r="G10" s="7">
         <v>-99</v>
       </c>
-      <c r="H10" s="10">
-        <v>-99</v>
-      </c>
-      <c r="I10" s="5">
-        <v>-99</v>
-      </c>
-      <c r="J10" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K10" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H10" s="7">
+        <v>-99</v>
+      </c>
+      <c r="I10" s="10">
+        <v>-99</v>
+      </c>
+      <c r="J10" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K10" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L10" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>1</v>
       </c>
       <c r="B11" s="10">
         <v>5</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="6">
+        <v>10</v>
+      </c>
+      <c r="D11" s="10">
         <v>-61</v>
       </c>
-      <c r="D11" s="10">
-        <v>-99</v>
-      </c>
-      <c r="E11" s="6">
-        <v>-99</v>
-      </c>
-      <c r="F11" s="10">
+      <c r="E11" s="10">
+        <v>-99</v>
+      </c>
+      <c r="F11" s="6">
         <v>-99</v>
       </c>
       <c r="G11" s="10">
         <v>-99</v>
       </c>
       <c r="H11" s="10">
+        <v>-99</v>
+      </c>
+      <c r="I11" s="10">
         <v>-73</v>
       </c>
-      <c r="I11" s="5">
-        <v>-99</v>
-      </c>
-      <c r="J11" s="23">
+      <c r="J11" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K11" s="17">
         <v>-74</v>
       </c>
-      <c r="K11" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>1</v>
       </c>
       <c r="B12" s="10">
         <v>5</v>
       </c>
-      <c r="C12" s="10">
-        <v>-99</v>
+      <c r="C12" s="6">
+        <v>10</v>
       </c>
       <c r="D12" s="10">
         <v>-99</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="10">
+        <v>-99</v>
+      </c>
+      <c r="F12" s="6">
         <v>-84</v>
       </c>
-      <c r="F12" s="10">
-        <v>-99</v>
-      </c>
       <c r="G12" s="10">
         <v>-99</v>
       </c>
       <c r="H12" s="10">
         <v>-99</v>
       </c>
-      <c r="I12" s="5">
-        <v>-99</v>
-      </c>
-      <c r="J12" s="23">
+      <c r="I12" s="10">
+        <v>-99</v>
+      </c>
+      <c r="J12" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K12" s="17">
         <v>-76</v>
       </c>
-      <c r="K12" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>1</v>
       </c>
       <c r="B13" s="6">
         <v>5</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="6">
+        <v>10</v>
+      </c>
+      <c r="D13" s="10">
         <v>-54</v>
       </c>
-      <c r="D13" s="10">
+      <c r="E13" s="10">
         <v>-78</v>
       </c>
-      <c r="E13" s="6">
+      <c r="F13" s="6">
         <v>-85</v>
       </c>
-      <c r="F13" s="10">
-        <v>-99</v>
-      </c>
       <c r="G13" s="10">
+        <v>-99</v>
+      </c>
+      <c r="H13" s="10">
         <v>-79</v>
       </c>
-      <c r="H13" s="10">
-        <v>-99</v>
-      </c>
-      <c r="I13" s="5">
+      <c r="I13" s="10">
+        <v>-99</v>
+      </c>
+      <c r="J13" s="5">
         <v>-84</v>
       </c>
-      <c r="J13" s="23">
+      <c r="K13" s="17">
         <v>-76</v>
       </c>
-      <c r="K13" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>1</v>
       </c>
       <c r="B14" s="10">
         <v>5</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="6">
+        <v>10</v>
+      </c>
+      <c r="D14" s="10">
         <v>-52</v>
       </c>
-      <c r="D14" s="6">
-        <v>-99</v>
-      </c>
       <c r="E14" s="6">
         <v>-99</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="6">
         <v>-99</v>
       </c>
       <c r="G14" s="10">
         <v>-99</v>
       </c>
       <c r="H14" s="10">
+        <v>-99</v>
+      </c>
+      <c r="I14" s="10">
         <v>-75</v>
       </c>
-      <c r="I14" s="5">
-        <v>-99</v>
-      </c>
-      <c r="J14" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K14" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J14" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K14" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L14" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>1</v>
       </c>
       <c r="B15" s="10">
         <v>5</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="6">
+        <v>10</v>
+      </c>
+      <c r="D15" s="10">
         <v>-59</v>
       </c>
-      <c r="D15" s="10">
-        <v>-99</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="E15" s="10">
+        <v>-99</v>
+      </c>
+      <c r="F15" s="6">
         <v>-82</v>
       </c>
-      <c r="F15" s="10">
-        <v>-99</v>
-      </c>
       <c r="G15" s="10">
         <v>-99</v>
       </c>
       <c r="H15" s="10">
         <v>-99</v>
       </c>
-      <c r="I15" s="5">
-        <v>-99</v>
-      </c>
-      <c r="J15" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K15" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I15" s="10">
+        <v>-99</v>
+      </c>
+      <c r="J15" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K15" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L15" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>1</v>
       </c>
       <c r="B16" s="10">
         <v>5</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="6">
+        <v>10</v>
+      </c>
+      <c r="D16" s="10">
         <v>-54</v>
       </c>
-      <c r="D16" s="10">
+      <c r="E16" s="10">
         <v>-78</v>
       </c>
-      <c r="E16" s="6">
+      <c r="F16" s="6">
         <v>-80</v>
       </c>
-      <c r="F16" s="10">
-        <v>-99</v>
-      </c>
       <c r="G16" s="10">
         <v>-99</v>
       </c>
       <c r="H16" s="10">
+        <v>-99</v>
+      </c>
+      <c r="I16" s="10">
         <v>-67</v>
       </c>
-      <c r="I16" s="5">
+      <c r="J16" s="5">
         <v>-82</v>
       </c>
-      <c r="J16" s="23">
+      <c r="K16" s="17">
         <v>-66</v>
       </c>
-      <c r="K16" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>1</v>
       </c>
       <c r="B17" s="5">
         <v>5</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="6">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5">
         <v>-48</v>
       </c>
-      <c r="D17" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F17" s="4">
         <v>-83</v>
       </c>
-      <c r="F17" s="5">
-        <v>-99</v>
-      </c>
       <c r="G17" s="5">
         <v>-99</v>
       </c>
@@ -1350,34 +1402,37 @@
         <v>-99</v>
       </c>
       <c r="I17" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J17" s="5">
         <v>-80</v>
       </c>
-      <c r="J17" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K17" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L17" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>1</v>
       </c>
       <c r="B18" s="5">
         <v>5</v>
       </c>
-      <c r="C18" s="5">
-        <v>-99</v>
+      <c r="C18" s="6">
+        <v>10</v>
       </c>
       <c r="D18" s="5">
         <v>-99</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F18" s="4">
         <v>-82</v>
       </c>
-      <c r="F18" s="5">
-        <v>-99</v>
-      </c>
       <c r="G18" s="5">
         <v>-99</v>
       </c>
@@ -1387,67 +1442,73 @@
       <c r="I18" s="5">
         <v>-99</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K18" s="17">
         <v>-79</v>
       </c>
-      <c r="K18" s="23">
+      <c r="L18" s="17">
         <v>-78</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>1</v>
       </c>
       <c r="B19" s="5">
         <v>5</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="6">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5">
         <v>-54</v>
       </c>
-      <c r="D19" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E19" s="4">
-        <v>-99</v>
-      </c>
-      <c r="F19" s="5">
+      <c r="E19" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F19" s="4">
         <v>-99</v>
       </c>
       <c r="G19" s="5">
         <v>-99</v>
       </c>
       <c r="H19" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I19" s="5">
         <v>-71</v>
       </c>
-      <c r="I19" s="5">
-        <v>-99</v>
-      </c>
-      <c r="J19" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K19" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J19" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K19" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L19" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>1</v>
       </c>
       <c r="B20" s="5">
         <v>5</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="6">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4">
         <v>-53</v>
       </c>
-      <c r="D20" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="E20" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F20" s="4">
         <v>-81</v>
       </c>
-      <c r="F20" s="5">
-        <v>-99</v>
-      </c>
       <c r="G20" s="5">
         <v>-99</v>
       </c>
@@ -1457,32 +1518,35 @@
       <c r="I20" s="5">
         <v>-99</v>
       </c>
-      <c r="J20" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K20" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J20" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K20" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L20" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>1</v>
       </c>
       <c r="B21" s="5">
         <v>5</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="6">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5">
         <v>-56</v>
       </c>
-      <c r="D21" s="5">
+      <c r="E21" s="5">
         <v>-86</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>-82</v>
       </c>
-      <c r="F21" s="5">
-        <v>-99</v>
-      </c>
       <c r="G21" s="5">
         <v>-99</v>
       </c>
@@ -1492,30 +1556,33 @@
       <c r="I21" s="5">
         <v>-99</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K21" s="17">
         <v>-76</v>
       </c>
-      <c r="K21" s="23">
+      <c r="L21" s="17">
         <v>-73</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>1</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="6">
+        <v>10</v>
+      </c>
+      <c r="D22" s="5">
         <v>-59</v>
       </c>
-      <c r="D22" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E22" s="4">
-        <v>-99</v>
-      </c>
-      <c r="F22" s="5">
+      <c r="E22" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F22" s="4">
         <v>-99</v>
       </c>
       <c r="G22" s="5">
@@ -1527,32 +1594,35 @@
       <c r="I22" s="5">
         <v>-99</v>
       </c>
-      <c r="J22" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K22" s="23">
+      <c r="J22" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K22" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L22" s="17">
         <v>-79</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>1</v>
       </c>
       <c r="B23" s="5">
         <v>5</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="6">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5">
         <v>-56</v>
       </c>
-      <c r="D23" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="E23" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F23" s="4">
         <v>-82</v>
       </c>
-      <c r="F23" s="5">
-        <v>-99</v>
-      </c>
       <c r="G23" s="5">
         <v>-99</v>
       </c>
@@ -1562,65 +1632,71 @@
       <c r="I23" s="5">
         <v>-99</v>
       </c>
-      <c r="J23" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K23" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J23" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K23" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L23" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>1</v>
       </c>
       <c r="B24" s="5">
         <v>5</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="6">
+        <v>10</v>
+      </c>
+      <c r="D24" s="5">
         <v>-67</v>
       </c>
-      <c r="D24" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="E24" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F24" s="4">
         <v>-88</v>
       </c>
-      <c r="F24" s="5">
-        <v>-99</v>
-      </c>
       <c r="G24" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H24" s="5">
         <v>-83</v>
       </c>
-      <c r="H24" s="5">
-        <v>-99</v>
-      </c>
       <c r="I24" s="5">
         <v>-99</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K24" s="17">
         <v>-82</v>
       </c>
-      <c r="K24" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>1</v>
       </c>
       <c r="B25" s="5">
         <v>5</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="6">
+        <v>10</v>
+      </c>
+      <c r="D25" s="5">
         <v>-56</v>
       </c>
-      <c r="D25" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E25" s="4">
-        <v>-99</v>
-      </c>
-      <c r="F25" s="5">
+      <c r="E25" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F25" s="4">
         <v>-99</v>
       </c>
       <c r="G25" s="5">
@@ -1632,30 +1708,33 @@
       <c r="I25" s="5">
         <v>-99</v>
       </c>
-      <c r="J25" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K25" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J25" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K25" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L25" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>1</v>
       </c>
       <c r="B26" s="5">
         <v>5</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="6">
+        <v>10</v>
+      </c>
+      <c r="D26" s="5">
         <v>-55</v>
       </c>
-      <c r="D26" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E26" s="4">
-        <v>-99</v>
-      </c>
-      <c r="F26" s="5">
+      <c r="E26" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F26" s="4">
         <v>-99</v>
       </c>
       <c r="G26" s="5">
@@ -1665,32 +1744,35 @@
         <v>-99</v>
       </c>
       <c r="I26" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J26" s="5">
         <v>-87</v>
       </c>
-      <c r="J26" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K26" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L26" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>1</v>
       </c>
       <c r="B27" s="5">
         <v>5</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="6">
+        <v>10</v>
+      </c>
+      <c r="D27" s="4">
         <v>-61</v>
       </c>
-      <c r="D27" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E27" s="4">
-        <v>-99</v>
-      </c>
-      <c r="F27" s="5">
+      <c r="E27" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F27" s="4">
         <v>-99</v>
       </c>
       <c r="G27" s="5">
@@ -1702,30 +1784,33 @@
       <c r="I27" s="5">
         <v>-99</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K27" s="17">
         <v>-80</v>
       </c>
-      <c r="K27" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>1</v>
       </c>
       <c r="B28" s="5">
         <v>5</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="6">
+        <v>10</v>
+      </c>
+      <c r="D28" s="5">
         <v>-62</v>
       </c>
-      <c r="D28" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E28" s="4">
-        <v>-99</v>
-      </c>
-      <c r="F28" s="5">
+      <c r="E28" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F28" s="4">
         <v>-99</v>
       </c>
       <c r="G28" s="5">
@@ -1737,30 +1822,33 @@
       <c r="I28" s="5">
         <v>-99</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K28" s="17">
         <v>-77</v>
       </c>
-      <c r="K28" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>1</v>
       </c>
       <c r="B29" s="5">
         <v>5</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="6">
+        <v>10</v>
+      </c>
+      <c r="D29" s="5">
         <v>-52</v>
       </c>
-      <c r="D29" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E29" s="4">
-        <v>-99</v>
-      </c>
-      <c r="F29" s="5">
+      <c r="E29" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F29" s="4">
         <v>-99</v>
       </c>
       <c r="G29" s="5">
@@ -1770,32 +1858,35 @@
         <v>-99</v>
       </c>
       <c r="I29" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J29" s="5">
         <v>-88</v>
       </c>
-      <c r="J29" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K29" s="23">
+      <c r="K29" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L29" s="17">
         <v>-78</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>1</v>
       </c>
       <c r="B30" s="5">
         <v>5</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="6">
+        <v>10</v>
+      </c>
+      <c r="D30" s="5">
         <v>-57</v>
       </c>
-      <c r="D30" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E30" s="4">
-        <v>-99</v>
-      </c>
-      <c r="F30" s="5">
+      <c r="E30" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F30" s="4">
         <v>-99</v>
       </c>
       <c r="G30" s="5">
@@ -1807,32 +1898,35 @@
       <c r="I30" s="5">
         <v>-99</v>
       </c>
-      <c r="J30" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K30" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J30" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K30" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L30" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>1</v>
       </c>
       <c r="B31" s="5">
         <v>5</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="6">
+        <v>10</v>
+      </c>
+      <c r="D31" s="5">
         <v>-51</v>
       </c>
-      <c r="D31" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E31" s="4">
+      <c r="E31" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F31" s="4">
         <v>-81</v>
       </c>
-      <c r="F31" s="5">
-        <v>-99</v>
-      </c>
       <c r="G31" s="5">
         <v>-99</v>
       </c>
@@ -1842,30 +1936,33 @@
       <c r="I31" s="5">
         <v>-99</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K31" s="17">
         <v>-77</v>
       </c>
-      <c r="K31" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>1</v>
       </c>
       <c r="B32" s="5">
         <v>5</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="6">
+        <v>10</v>
+      </c>
+      <c r="D32" s="5">
         <v>-57</v>
       </c>
-      <c r="D32" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E32" s="4">
-        <v>-99</v>
-      </c>
-      <c r="F32" s="5">
+      <c r="E32" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F32" s="4">
         <v>-99</v>
       </c>
       <c r="G32" s="5">
@@ -1877,32 +1974,35 @@
       <c r="I32" s="5">
         <v>-99</v>
       </c>
-      <c r="J32" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K32" s="23">
+      <c r="J32" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K32" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L32" s="17">
         <v>-74</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>1</v>
       </c>
       <c r="B33" s="5">
         <v>5</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="6">
+        <v>10</v>
+      </c>
+      <c r="D33" s="5">
         <v>-59</v>
       </c>
-      <c r="D33" s="5">
-        <v>-99</v>
-      </c>
       <c r="E33" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F33" s="5">
         <v>-83</v>
       </c>
-      <c r="F33" s="5">
-        <v>-99</v>
-      </c>
       <c r="G33" s="5">
         <v>-99</v>
       </c>
@@ -1912,32 +2012,35 @@
       <c r="I33" s="5">
         <v>-99</v>
       </c>
-      <c r="J33" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K33" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J33" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K33" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L33" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>1</v>
       </c>
       <c r="B34" s="5">
         <v>5</v>
       </c>
-      <c r="C34" s="5">
-        <v>-99</v>
+      <c r="C34" s="6">
+        <v>10</v>
       </c>
       <c r="D34" s="5">
         <v>-99</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F34" s="4">
         <v>-85</v>
       </c>
-      <c r="F34" s="5">
-        <v>-99</v>
-      </c>
       <c r="G34" s="5">
         <v>-99</v>
       </c>
@@ -1947,32 +2050,35 @@
       <c r="I34" s="5">
         <v>-99</v>
       </c>
-      <c r="J34" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K34" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J34" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K34" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L34" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>1</v>
       </c>
       <c r="B35" s="5">
         <v>5</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="6">
+        <v>10</v>
+      </c>
+      <c r="D35" s="5">
         <v>-57</v>
       </c>
-      <c r="D35" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E35" s="4">
+      <c r="E35" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F35" s="4">
         <v>-80</v>
       </c>
-      <c r="F35" s="5">
-        <v>-99</v>
-      </c>
       <c r="G35" s="5">
         <v>-99</v>
       </c>
@@ -1982,30 +2088,33 @@
       <c r="I35" s="5">
         <v>-99</v>
       </c>
-      <c r="J35" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K35" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J35" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K35" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L35" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>1</v>
       </c>
       <c r="B36" s="5">
         <v>5</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="6">
+        <v>10</v>
+      </c>
+      <c r="D36" s="5">
         <v>-54</v>
       </c>
-      <c r="D36" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E36" s="4">
-        <v>-99</v>
-      </c>
-      <c r="F36" s="5">
+      <c r="E36" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F36" s="4">
         <v>-99</v>
       </c>
       <c r="G36" s="5">
@@ -2017,30 +2126,33 @@
       <c r="I36" s="5">
         <v>-99</v>
       </c>
-      <c r="J36" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K36" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J36" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K36" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L36" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>1</v>
       </c>
       <c r="B37" s="5">
         <v>5</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="6">
+        <v>10</v>
+      </c>
+      <c r="D37" s="5">
         <v>-59</v>
       </c>
-      <c r="D37" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E37" s="4">
-        <v>-99</v>
-      </c>
-      <c r="F37" s="5">
+      <c r="E37" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F37" s="4">
         <v>-99</v>
       </c>
       <c r="G37" s="5">
@@ -2052,30 +2164,33 @@
       <c r="I37" s="5">
         <v>-99</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K37" s="17">
         <v>-73</v>
       </c>
-      <c r="K37" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>1</v>
       </c>
       <c r="B38" s="5">
         <v>5</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="6">
+        <v>10</v>
+      </c>
+      <c r="D38" s="5">
         <v>-58</v>
       </c>
-      <c r="D38" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E38" s="4">
-        <v>-99</v>
-      </c>
-      <c r="F38" s="5">
+      <c r="E38" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F38" s="4">
         <v>-99</v>
       </c>
       <c r="G38" s="5">
@@ -2085,32 +2200,35 @@
         <v>-99</v>
       </c>
       <c r="I38" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J38" s="5">
         <v>-80</v>
       </c>
-      <c r="J38" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K38" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L38" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>1</v>
       </c>
       <c r="B39" s="5">
         <v>5</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="6">
+        <v>10</v>
+      </c>
+      <c r="D39" s="5">
         <v>-56</v>
       </c>
-      <c r="D39" s="5">
+      <c r="E39" s="5">
         <v>-85</v>
       </c>
-      <c r="E39" s="4">
-        <v>-99</v>
-      </c>
-      <c r="F39" s="5">
+      <c r="F39" s="4">
         <v>-99</v>
       </c>
       <c r="G39" s="5">
@@ -2120,34 +2238,37 @@
         <v>-99</v>
       </c>
       <c r="I39" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J39" s="5">
         <v>-85</v>
       </c>
-      <c r="J39" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K39" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K39" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L39" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>1</v>
       </c>
       <c r="B40" s="5">
         <v>5</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="6">
+        <v>10</v>
+      </c>
+      <c r="D40" s="5">
         <v>-58</v>
       </c>
-      <c r="D40" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E40" s="4">
+      <c r="E40" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F40" s="4">
         <v>-82</v>
       </c>
-      <c r="F40" s="5">
-        <v>-99</v>
-      </c>
       <c r="G40" s="5">
         <v>-99</v>
       </c>
@@ -2155,32 +2276,35 @@
         <v>-99</v>
       </c>
       <c r="I40" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J40" s="5">
         <v>-80</v>
       </c>
-      <c r="J40" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K40" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K40" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L40" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>1</v>
       </c>
       <c r="B41" s="5">
         <v>5</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="6">
+        <v>10</v>
+      </c>
+      <c r="D41" s="5">
         <v>-55</v>
       </c>
-      <c r="D41" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E41" s="4">
-        <v>-99</v>
-      </c>
-      <c r="F41" s="5">
+      <c r="E41" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F41" s="4">
         <v>-99</v>
       </c>
       <c r="G41" s="5">
@@ -2192,32 +2316,35 @@
       <c r="I41" s="5">
         <v>-99</v>
       </c>
-      <c r="J41" s="23">
+      <c r="J41" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K41" s="17">
         <v>-76</v>
       </c>
-      <c r="K41" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>1</v>
       </c>
       <c r="B42" s="5">
         <v>5</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="6">
+        <v>10</v>
+      </c>
+      <c r="D42" s="5">
         <v>-56</v>
       </c>
-      <c r="D42" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E42" s="4">
+      <c r="E42" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F42" s="4">
         <v>-89</v>
       </c>
-      <c r="F42" s="5">
-        <v>-99</v>
-      </c>
       <c r="G42" s="5">
         <v>-99</v>
       </c>
@@ -2227,30 +2354,33 @@
       <c r="I42" s="5">
         <v>-99</v>
       </c>
-      <c r="J42" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K42" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J42" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K42" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L42" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>1</v>
       </c>
       <c r="B43" s="5">
         <v>5</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="6">
+        <v>10</v>
+      </c>
+      <c r="D43" s="5">
         <v>-57</v>
       </c>
-      <c r="D43" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E43" s="4">
-        <v>-99</v>
-      </c>
-      <c r="F43" s="5">
+      <c r="E43" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F43" s="4">
         <v>-99</v>
       </c>
       <c r="G43" s="5">
@@ -2262,30 +2392,33 @@
       <c r="I43" s="5">
         <v>-99</v>
       </c>
-      <c r="J43" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K43" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J43" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K43" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L43" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>1</v>
       </c>
       <c r="B44" s="5">
         <v>5</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="6">
+        <v>10</v>
+      </c>
+      <c r="D44" s="5">
         <v>-58</v>
       </c>
-      <c r="D44" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E44" s="4">
-        <v>-99</v>
-      </c>
-      <c r="F44" s="5">
+      <c r="E44" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F44" s="4">
         <v>-99</v>
       </c>
       <c r="G44" s="5">
@@ -2297,30 +2430,33 @@
       <c r="I44" s="5">
         <v>-99</v>
       </c>
-      <c r="J44" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K44" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J44" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K44" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L44" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>1</v>
       </c>
       <c r="B45" s="5">
         <v>5</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="6">
+        <v>10</v>
+      </c>
+      <c r="D45" s="5">
         <v>-55</v>
       </c>
-      <c r="D45" s="5">
+      <c r="E45" s="5">
         <v>-79</v>
       </c>
-      <c r="E45" s="4">
-        <v>-99</v>
-      </c>
-      <c r="F45" s="5">
+      <c r="F45" s="4">
         <v>-99</v>
       </c>
       <c r="G45" s="5">
@@ -2332,30 +2468,33 @@
       <c r="I45" s="5">
         <v>-99</v>
       </c>
-      <c r="J45" s="23">
+      <c r="J45" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K45" s="17">
         <v>-73</v>
       </c>
-      <c r="K45" s="23">
+      <c r="L45" s="17">
         <v>-76</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>1</v>
       </c>
       <c r="B46" s="5">
         <v>5</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="6">
+        <v>10</v>
+      </c>
+      <c r="D46" s="5">
         <v>-57</v>
       </c>
-      <c r="D46" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E46" s="4">
-        <v>-99</v>
-      </c>
-      <c r="F46" s="5">
+      <c r="E46" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F46" s="4">
         <v>-99</v>
       </c>
       <c r="G46" s="5">
@@ -2367,32 +2506,35 @@
       <c r="I46" s="5">
         <v>-99</v>
       </c>
-      <c r="J46" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K46" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J46" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K46" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L46" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>1</v>
       </c>
       <c r="B47" s="5">
         <v>5</v>
       </c>
-      <c r="C47" s="5">
-        <v>-99</v>
+      <c r="C47" s="6">
+        <v>10</v>
       </c>
       <c r="D47" s="5">
+        <v>-99</v>
+      </c>
+      <c r="E47" s="5">
         <v>-84</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="4">
         <v>-84</v>
       </c>
-      <c r="F47" s="5">
-        <v>-99</v>
-      </c>
       <c r="G47" s="5">
         <v>-99</v>
       </c>
@@ -2402,26 +2544,29 @@
       <c r="I47" s="5">
         <v>-99</v>
       </c>
-      <c r="J47" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K47" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J47" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K47" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L47" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>1</v>
       </c>
       <c r="B48" s="5">
         <v>5</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="6">
+        <v>10</v>
+      </c>
+      <c r="D48" s="5">
         <v>-52</v>
       </c>
-      <c r="D48" s="5">
-        <v>-99</v>
-      </c>
       <c r="E48" s="5">
         <v>-99</v>
       </c>
@@ -2437,26 +2582,29 @@
       <c r="I48" s="5">
         <v>-99</v>
       </c>
-      <c r="J48" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K48" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J48" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K48" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L48" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>1</v>
       </c>
       <c r="B49" s="5">
         <v>5</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="6">
+        <v>10</v>
+      </c>
+      <c r="D49" s="5">
         <v>-63</v>
       </c>
-      <c r="D49" s="5">
-        <v>-99</v>
-      </c>
       <c r="E49" s="5">
         <v>-99</v>
       </c>
@@ -2470,104 +2618,113 @@
         <v>-99</v>
       </c>
       <c r="I49" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J49" s="5">
         <v>-83</v>
       </c>
-      <c r="J49" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K49" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L49" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>1</v>
       </c>
       <c r="B50" s="5">
         <v>5</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="6">
+        <v>10</v>
+      </c>
+      <c r="D50" s="5">
         <v>-65</v>
       </c>
-      <c r="D50" s="5">
-        <v>-99</v>
-      </c>
       <c r="E50" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F50" s="5">
         <v>-78</v>
       </c>
-      <c r="F50" s="5">
-        <v>-99</v>
-      </c>
       <c r="G50" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H50" s="5">
         <v>-88</v>
       </c>
-      <c r="H50" s="5">
+      <c r="I50" s="5">
         <v>-81</v>
       </c>
-      <c r="I50" s="5">
+      <c r="J50" s="5">
         <v>-84</v>
       </c>
-      <c r="J50" s="23">
+      <c r="K50" s="17">
         <v>-82</v>
       </c>
-      <c r="K50" s="23">
+      <c r="L50" s="17">
         <v>-82</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>1</v>
       </c>
       <c r="B51" s="5">
         <v>5</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="6">
+        <v>10</v>
+      </c>
+      <c r="D51" s="5">
         <v>-56</v>
       </c>
-      <c r="D51" s="5">
-        <v>-99</v>
-      </c>
       <c r="E51" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F51" s="5">
         <v>-81</v>
       </c>
-      <c r="F51" s="5">
-        <v>-99</v>
-      </c>
       <c r="G51" s="5">
         <v>-99</v>
       </c>
       <c r="H51" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I51" s="5">
         <v>-72</v>
       </c>
-      <c r="I51" s="5">
-        <v>-99</v>
-      </c>
-      <c r="J51" s="23">
+      <c r="J51" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K51" s="17">
         <v>-71</v>
       </c>
-      <c r="K51" s="23">
+      <c r="L51" s="17">
         <v>-71</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>1</v>
       </c>
       <c r="B52" s="5">
         <v>5</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="6">
+        <v>10</v>
+      </c>
+      <c r="D52" s="5">
         <v>-64</v>
       </c>
-      <c r="D52" s="5">
-        <v>-99</v>
-      </c>
       <c r="E52" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F52" s="5">
         <v>-85</v>
       </c>
-      <c r="F52" s="5">
-        <v>-99</v>
-      </c>
       <c r="G52" s="5">
         <v>-99</v>
       </c>
@@ -2577,32 +2734,35 @@
       <c r="I52" s="5">
         <v>-99</v>
       </c>
-      <c r="J52" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K52" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J52" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K52" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L52" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>1</v>
       </c>
       <c r="B53" s="5">
         <v>5</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="6">
+        <v>10</v>
+      </c>
+      <c r="D53" s="5">
         <v>-65</v>
       </c>
-      <c r="D53" s="5">
-        <v>-99</v>
-      </c>
       <c r="E53" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F53" s="5">
         <v>-84</v>
       </c>
-      <c r="F53" s="5">
-        <v>-99</v>
-      </c>
       <c r="G53" s="5">
         <v>-99</v>
       </c>
@@ -2612,61 +2772,67 @@
       <c r="I53" s="5">
         <v>-99</v>
       </c>
-      <c r="J53" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K53" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J53" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K53" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L53" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>1</v>
       </c>
       <c r="B54" s="5">
         <v>5</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="6">
+        <v>10</v>
+      </c>
+      <c r="D54" s="5">
         <v>-61</v>
-      </c>
-      <c r="D54" s="5">
-        <v>-84</v>
       </c>
       <c r="E54" s="5">
         <v>-84</v>
       </c>
       <c r="F54" s="5">
-        <v>-99</v>
+        <v>-84</v>
       </c>
       <c r="G54" s="5">
         <v>-99</v>
       </c>
       <c r="H54" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I54" s="5">
         <v>-79</v>
       </c>
-      <c r="I54" s="5">
+      <c r="J54" s="5">
         <v>-86</v>
       </c>
-      <c r="J54" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K54" s="23">
+      <c r="K54" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L54" s="17">
         <v>-82</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>1</v>
       </c>
       <c r="B55" s="5">
         <v>5</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="6">
+        <v>10</v>
+      </c>
+      <c r="D55" s="5">
         <v>-63</v>
       </c>
-      <c r="D55" s="5">
-        <v>-99</v>
-      </c>
       <c r="E55" s="5">
         <v>-99</v>
       </c>
@@ -2682,26 +2848,29 @@
       <c r="I55" s="5">
         <v>-99</v>
       </c>
-      <c r="J55" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K55" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J55" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K55" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L55" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>1</v>
       </c>
       <c r="B56" s="5">
         <v>5</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="6">
+        <v>10</v>
+      </c>
+      <c r="D56" s="5">
         <v>-61</v>
       </c>
-      <c r="D56" s="5">
-        <v>-99</v>
-      </c>
       <c r="E56" s="5">
         <v>-99</v>
       </c>
@@ -2717,32 +2886,35 @@
       <c r="I56" s="5">
         <v>-99</v>
       </c>
-      <c r="J56" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K56" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J56" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K56" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L56" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>1</v>
       </c>
       <c r="B57" s="5">
         <v>5</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="6">
+        <v>10</v>
+      </c>
+      <c r="D57" s="5">
         <v>-65</v>
       </c>
-      <c r="D57" s="5">
-        <v>-99</v>
-      </c>
       <c r="E57" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F57" s="5">
         <v>-83</v>
       </c>
-      <c r="F57" s="5">
-        <v>-99</v>
-      </c>
       <c r="G57" s="5">
         <v>-99</v>
       </c>
@@ -2752,26 +2924,29 @@
       <c r="I57" s="5">
         <v>-99</v>
       </c>
-      <c r="J57" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K57" s="23">
+      <c r="J57" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K57" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L57" s="17">
         <v>-80</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>1</v>
       </c>
       <c r="B58" s="5">
         <v>5</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="6">
+        <v>10</v>
+      </c>
+      <c r="D58" s="5">
         <v>-63</v>
       </c>
-      <c r="D58" s="5">
-        <v>-99</v>
-      </c>
       <c r="E58" s="5">
         <v>-99</v>
       </c>
@@ -2785,28 +2960,31 @@
         <v>-99</v>
       </c>
       <c r="I58" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J58" s="5">
         <v>-89</v>
       </c>
-      <c r="J58" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K58" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L58" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>1</v>
       </c>
       <c r="B59" s="5">
         <v>5</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="6">
+        <v>10</v>
+      </c>
+      <c r="D59" s="5">
         <v>-63</v>
       </c>
-      <c r="D59" s="5">
-        <v>-99</v>
-      </c>
       <c r="E59" s="5">
         <v>-99</v>
       </c>
@@ -2822,32 +3000,35 @@
       <c r="I59" s="5">
         <v>-99</v>
       </c>
-      <c r="J59" s="23">
+      <c r="J59" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K59" s="17">
         <v>-74</v>
       </c>
-      <c r="K59" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>1</v>
       </c>
       <c r="B60" s="5">
         <v>5</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="6">
+        <v>10</v>
+      </c>
+      <c r="D60" s="5">
         <v>-57</v>
       </c>
-      <c r="D60" s="5">
-        <v>-99</v>
-      </c>
       <c r="E60" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F60" s="5">
         <v>-84</v>
       </c>
-      <c r="F60" s="5">
-        <v>-99</v>
-      </c>
       <c r="G60" s="5">
         <v>-99</v>
       </c>
@@ -2857,67 +3038,73 @@
       <c r="I60" s="5">
         <v>-99</v>
       </c>
-      <c r="J60" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K60" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J60" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K60" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L60" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>1</v>
       </c>
       <c r="B61" s="5">
         <v>5</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="6">
+        <v>10</v>
+      </c>
+      <c r="D61" s="5">
         <v>-56</v>
       </c>
-      <c r="D61" s="5">
-        <v>-99</v>
-      </c>
       <c r="E61" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F61" s="5">
         <v>-81</v>
       </c>
-      <c r="F61" s="5">
-        <v>-99</v>
-      </c>
       <c r="G61" s="5">
         <v>-99</v>
       </c>
       <c r="H61" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I61" s="5">
         <v>-74</v>
       </c>
-      <c r="I61" s="5">
-        <v>-99</v>
-      </c>
-      <c r="J61" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K61" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J61" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K61" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L61" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>1</v>
       </c>
       <c r="B62" s="5">
         <v>5</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="6">
+        <v>10</v>
+      </c>
+      <c r="D62" s="5">
         <v>-57</v>
       </c>
-      <c r="D62" s="5">
-        <v>-99</v>
-      </c>
       <c r="E62" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F62" s="5">
         <v>-84</v>
       </c>
-      <c r="F62" s="5">
-        <v>-99</v>
-      </c>
       <c r="G62" s="5">
         <v>-99</v>
       </c>
@@ -2925,25 +3112,26 @@
         <v>-99</v>
       </c>
       <c r="I62" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J62" s="5">
         <v>-79</v>
       </c>
-      <c r="J62" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K62" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L62" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
         <v>20</v>
       </c>
@@ -2962,14 +3150,17 @@
       <c r="I63" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J63" s="23" t="s">
+      <c r="J63" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K63" s="23" t="s">
+      <c r="K63" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2979,10 +3170,11 @@
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="23"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J64" s="5"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2992,10 +3184,11 @@
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="23"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J65" s="5"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -3005,10 +3198,11 @@
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J66" s="5"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -3018,10 +3212,11 @@
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J67" s="5"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -3031,10 +3226,11 @@
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
-      <c r="J68" s="23"/>
-      <c r="K68" s="23"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J68" s="5"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -3044,10 +3240,11 @@
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="23"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J69" s="5"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -3057,10 +3254,11 @@
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
-      <c r="J70" s="23"/>
-      <c r="K70" s="23"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J70" s="5"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -3070,10 +3268,11 @@
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="23"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J71" s="5"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -3083,10 +3282,11 @@
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
-      <c r="J72" s="23"/>
-      <c r="K72" s="23"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J72" s="5"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -3096,10 +3296,11 @@
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
-      <c r="J73" s="23"/>
-      <c r="K73" s="23"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J73" s="5"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -3109,10 +3310,11 @@
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
-      <c r="J74" s="23"/>
-      <c r="K74" s="23"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J74" s="5"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -3122,10 +3324,11 @@
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="23"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J75" s="5"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -3135,10 +3338,11 @@
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
-      <c r="J76" s="23"/>
-      <c r="K76" s="23"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J76" s="5"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -3148,10 +3352,11 @@
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
-      <c r="J77" s="23"/>
-      <c r="K77" s="23"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J77" s="5"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -3161,10 +3366,11 @@
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
-      <c r="J78" s="23"/>
-      <c r="K78" s="23"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J78" s="5"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -3174,10 +3380,11 @@
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
-      <c r="J79" s="23"/>
-      <c r="K79" s="23"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J79" s="5"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -3187,10 +3394,11 @@
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
-      <c r="J80" s="23"/>
-      <c r="K80" s="23"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J80" s="5"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -3200,10 +3408,11 @@
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
-      <c r="J81" s="23"/>
-      <c r="K81" s="23"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J81" s="5"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -3213,10 +3422,11 @@
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
-      <c r="J82" s="23"/>
-      <c r="K82" s="23"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J82" s="5"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -3226,10 +3436,11 @@
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
-      <c r="J83" s="23"/>
-      <c r="K83" s="23"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J83" s="5"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -3239,10 +3450,11 @@
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
-      <c r="J84" s="23"/>
-      <c r="K84" s="23"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J84" s="5"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -3252,10 +3464,11 @@
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
-      <c r="J85" s="23"/>
-      <c r="K85" s="23"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J85" s="5"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="17"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -3265,10 +3478,11 @@
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
-      <c r="J86" s="23"/>
-      <c r="K86" s="23"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J86" s="5"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -3278,10 +3492,11 @@
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="23"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J87" s="5"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -3291,10 +3506,11 @@
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
-      <c r="J88" s="23"/>
-      <c r="K88" s="23"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J88" s="5"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -3304,10 +3520,11 @@
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="23"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J89" s="5"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -3317,10 +3534,11 @@
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
-      <c r="J90" s="23"/>
-      <c r="K90" s="23"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J90" s="5"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -3330,10 +3548,11 @@
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
-      <c r="J91" s="23"/>
-      <c r="K91" s="23"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J91" s="5"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="17"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -3343,10 +3562,11 @@
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
-      <c r="J92" s="23"/>
-      <c r="K92" s="23"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J92" s="5"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3356,10 +3576,11 @@
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
-      <c r="J93" s="23"/>
-      <c r="K93" s="23"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J93" s="5"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3369,10 +3590,11 @@
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
-      <c r="J94" s="23"/>
-      <c r="K94" s="23"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J94" s="5"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -3382,10 +3604,11 @@
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
-      <c r="J95" s="23"/>
-      <c r="K95" s="23"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J95" s="5"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="17"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -3395,10 +3618,11 @@
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
-      <c r="J96" s="23"/>
-      <c r="K96" s="23"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J96" s="5"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -3408,10 +3632,11 @@
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
-      <c r="J97" s="23"/>
-      <c r="K97" s="23"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J97" s="5"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -3421,10 +3646,11 @@
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
-      <c r="J98" s="23"/>
-      <c r="K98" s="23"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J98" s="5"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -3434,10 +3660,11 @@
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
-      <c r="J99" s="23"/>
-      <c r="K99" s="23"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J99" s="5"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -3447,10 +3674,11 @@
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
-      <c r="J100" s="23"/>
-      <c r="K100" s="23"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J100" s="5"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -3460,10 +3688,11 @@
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
-      <c r="J101" s="23"/>
-      <c r="K101" s="23"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J101" s="5"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="17"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -3473,10 +3702,11 @@
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
-      <c r="J102" s="23"/>
-      <c r="K102" s="23"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J102" s="5"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="17"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -3486,10 +3716,11 @@
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
-      <c r="J103" s="23"/>
-      <c r="K103" s="23"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J103" s="5"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="17"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -3499,10 +3730,11 @@
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
-      <c r="J104" s="23"/>
-      <c r="K104" s="23"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J104" s="5"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="17"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -3512,10 +3744,11 @@
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
-      <c r="J105" s="23"/>
-      <c r="K105" s="23"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J105" s="5"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -3525,10 +3758,11 @@
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
-      <c r="J106" s="23"/>
-      <c r="K106" s="23"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J106" s="5"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="17"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -3538,10 +3772,11 @@
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
-      <c r="J107" s="23"/>
-      <c r="K107" s="23"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J107" s="5"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="17"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -3551,10 +3786,11 @@
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
-      <c r="J108" s="23"/>
-      <c r="K108" s="23"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J108" s="5"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -3564,10 +3800,11 @@
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
-      <c r="J109" s="23"/>
-      <c r="K109" s="23"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J109" s="5"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="17"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -3577,10 +3814,11 @@
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
-      <c r="J110" s="23"/>
-      <c r="K110" s="23"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J110" s="5"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="17"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -3590,10 +3828,11 @@
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
-      <c r="J111" s="23"/>
-      <c r="K111" s="23"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J111" s="5"/>
+      <c r="K111" s="17"/>
+      <c r="L111" s="17"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -3603,10 +3842,11 @@
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
-      <c r="J112" s="23"/>
-      <c r="K112" s="23"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J112" s="5"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="17"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -3616,10 +3856,11 @@
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
-      <c r="J113" s="23"/>
-      <c r="K113" s="23"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J113" s="5"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="17"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -3629,10 +3870,11 @@
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
-      <c r="J114" s="23"/>
-      <c r="K114" s="23"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J114" s="5"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="17"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -3642,10 +3884,11 @@
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
-      <c r="J115" s="23"/>
-      <c r="K115" s="23"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J115" s="5"/>
+      <c r="K115" s="17"/>
+      <c r="L115" s="17"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -3655,10 +3898,11 @@
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
-      <c r="J116" s="23"/>
-      <c r="K116" s="23"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J116" s="5"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="17"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -3668,10 +3912,11 @@
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
-      <c r="J117" s="23"/>
-      <c r="K117" s="23"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J117" s="5"/>
+      <c r="K117" s="17"/>
+      <c r="L117" s="17"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -3681,10 +3926,11 @@
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
-      <c r="J118" s="23"/>
-      <c r="K118" s="23"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J118" s="5"/>
+      <c r="K118" s="17"/>
+      <c r="L118" s="17"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -3694,10 +3940,11 @@
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
-      <c r="J119" s="23"/>
-      <c r="K119" s="23"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J119" s="5"/>
+      <c r="K119" s="17"/>
+      <c r="L119" s="17"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -3707,10 +3954,11 @@
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
-      <c r="J120" s="23"/>
-      <c r="K120" s="23"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J120" s="5"/>
+      <c r="K120" s="17"/>
+      <c r="L120" s="17"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -3720,10 +3968,11 @@
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
-      <c r="J121" s="23"/>
-      <c r="K121" s="23"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J121" s="5"/>
+      <c r="K121" s="17"/>
+      <c r="L121" s="17"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -3733,10 +3982,11 @@
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
-      <c r="J122" s="23"/>
-      <c r="K122" s="23"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J122" s="5"/>
+      <c r="K122" s="17"/>
+      <c r="L122" s="17"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -3746,10 +3996,11 @@
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
-      <c r="J123" s="23"/>
-      <c r="K123" s="23"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J123" s="5"/>
+      <c r="K123" s="17"/>
+      <c r="L123" s="17"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -3759,10 +4010,11 @@
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
-      <c r="J124" s="23"/>
-      <c r="K124" s="23"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J124" s="5"/>
+      <c r="K124" s="17"/>
+      <c r="L124" s="17"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -3772,10 +4024,11 @@
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
-      <c r="J125" s="23"/>
-      <c r="K125" s="23"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J125" s="5"/>
+      <c r="K125" s="17"/>
+      <c r="L125" s="17"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -3785,10 +4038,11 @@
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
-      <c r="J126" s="23"/>
-      <c r="K126" s="23"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J126" s="5"/>
+      <c r="K126" s="17"/>
+      <c r="L126" s="17"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -3798,10 +4052,11 @@
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
-      <c r="J127" s="23"/>
-      <c r="K127" s="23"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J127" s="5"/>
+      <c r="K127" s="17"/>
+      <c r="L127" s="17"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -3811,10 +4066,11 @@
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
-      <c r="J128" s="23"/>
-      <c r="K128" s="23"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J128" s="5"/>
+      <c r="K128" s="17"/>
+      <c r="L128" s="17"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -3824,10 +4080,11 @@
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
-      <c r="J129" s="23"/>
-      <c r="K129" s="23"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J129" s="5"/>
+      <c r="K129" s="17"/>
+      <c r="L129" s="17"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -3837,10 +4094,11 @@
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
-      <c r="J130" s="23"/>
-      <c r="K130" s="23"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J130" s="5"/>
+      <c r="K130" s="17"/>
+      <c r="L130" s="17"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -3850,10 +4108,11 @@
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
-      <c r="J131" s="23"/>
-      <c r="K131" s="23"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J131" s="5"/>
+      <c r="K131" s="17"/>
+      <c r="L131" s="17"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -3863,10 +4122,11 @@
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
-      <c r="J132" s="23"/>
-      <c r="K132" s="23"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J132" s="5"/>
+      <c r="K132" s="17"/>
+      <c r="L132" s="17"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -3876,10 +4136,11 @@
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
-      <c r="J133" s="23"/>
-      <c r="K133" s="23"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J133" s="5"/>
+      <c r="K133" s="17"/>
+      <c r="L133" s="17"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -3889,10 +4150,11 @@
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
-      <c r="J134" s="23"/>
-      <c r="K134" s="23"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J134" s="5"/>
+      <c r="K134" s="17"/>
+      <c r="L134" s="17"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -3902,10 +4164,11 @@
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
-      <c r="J135" s="23"/>
-      <c r="K135" s="23"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J135" s="5"/>
+      <c r="K135" s="17"/>
+      <c r="L135" s="17"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -3915,10 +4178,11 @@
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
-      <c r="J136" s="23"/>
-      <c r="K136" s="23"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J136" s="5"/>
+      <c r="K136" s="17"/>
+      <c r="L136" s="17"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -3928,10 +4192,11 @@
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
-      <c r="J137" s="23"/>
-      <c r="K137" s="23"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J137" s="5"/>
+      <c r="K137" s="17"/>
+      <c r="L137" s="17"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -3941,10 +4206,11 @@
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
-      <c r="J138" s="23"/>
-      <c r="K138" s="23"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J138" s="5"/>
+      <c r="K138" s="17"/>
+      <c r="L138" s="17"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -3954,10 +4220,11 @@
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
-      <c r="J139" s="23"/>
-      <c r="K139" s="23"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J139" s="5"/>
+      <c r="K139" s="17"/>
+      <c r="L139" s="17"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -3967,10 +4234,11 @@
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
-      <c r="J140" s="23"/>
-      <c r="K140" s="23"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J140" s="5"/>
+      <c r="K140" s="17"/>
+      <c r="L140" s="17"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -3980,10 +4248,11 @@
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
-      <c r="J141" s="23"/>
-      <c r="K141" s="23"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J141" s="5"/>
+      <c r="K141" s="17"/>
+      <c r="L141" s="17"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -3993,10 +4262,11 @@
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
-      <c r="J142" s="23"/>
-      <c r="K142" s="23"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J142" s="5"/>
+      <c r="K142" s="17"/>
+      <c r="L142" s="17"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -4006,10 +4276,11 @@
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
-      <c r="J143" s="23"/>
-      <c r="K143" s="23"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J143" s="5"/>
+      <c r="K143" s="17"/>
+      <c r="L143" s="17"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -4019,10 +4290,11 @@
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
-      <c r="J144" s="23"/>
-      <c r="K144" s="23"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J144" s="5"/>
+      <c r="K144" s="17"/>
+      <c r="L144" s="17"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -4032,10 +4304,11 @@
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
-      <c r="J145" s="23"/>
-      <c r="K145" s="23"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J145" s="5"/>
+      <c r="K145" s="17"/>
+      <c r="L145" s="17"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -4045,10 +4318,11 @@
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
-      <c r="J146" s="23"/>
-      <c r="K146" s="23"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J146" s="5"/>
+      <c r="K146" s="17"/>
+      <c r="L146" s="17"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -4058,10 +4332,11 @@
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
-      <c r="J147" s="23"/>
-      <c r="K147" s="23"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J147" s="5"/>
+      <c r="K147" s="17"/>
+      <c r="L147" s="17"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -4071,10 +4346,11 @@
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
-      <c r="J148" s="23"/>
-      <c r="K148" s="23"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J148" s="5"/>
+      <c r="K148" s="17"/>
+      <c r="L148" s="17"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -4084,10 +4360,11 @@
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
-      <c r="J149" s="23"/>
-      <c r="K149" s="23"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J149" s="5"/>
+      <c r="K149" s="17"/>
+      <c r="L149" s="17"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -4097,10 +4374,11 @@
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
-      <c r="J150" s="23"/>
-      <c r="K150" s="23"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J150" s="5"/>
+      <c r="K150" s="17"/>
+      <c r="L150" s="17"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -4110,10 +4388,11 @@
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
-      <c r="J151" s="23"/>
-      <c r="K151" s="23"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J151" s="5"/>
+      <c r="K151" s="17"/>
+      <c r="L151" s="17"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -4123,10 +4402,11 @@
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
-      <c r="J152" s="23"/>
-      <c r="K152" s="23"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J152" s="5"/>
+      <c r="K152" s="17"/>
+      <c r="L152" s="17"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -4136,10 +4416,11 @@
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
-      <c r="J153" s="23"/>
-      <c r="K153" s="23"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J153" s="5"/>
+      <c r="K153" s="17"/>
+      <c r="L153" s="17"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -4149,10 +4430,11 @@
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
-      <c r="J154" s="23"/>
-      <c r="K154" s="23"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J154" s="5"/>
+      <c r="K154" s="17"/>
+      <c r="L154" s="17"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -4162,10 +4444,11 @@
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
-      <c r="J155" s="23"/>
-      <c r="K155" s="23"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J155" s="5"/>
+      <c r="K155" s="17"/>
+      <c r="L155" s="17"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -4175,10 +4458,11 @@
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
-      <c r="J156" s="23"/>
-      <c r="K156" s="23"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J156" s="5"/>
+      <c r="K156" s="17"/>
+      <c r="L156" s="17"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -4188,10 +4472,11 @@
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
-      <c r="J157" s="23"/>
-      <c r="K157" s="23"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J157" s="5"/>
+      <c r="K157" s="17"/>
+      <c r="L157" s="17"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -4201,10 +4486,11 @@
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
-      <c r="J158" s="23"/>
-      <c r="K158" s="23"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J158" s="5"/>
+      <c r="K158" s="17"/>
+      <c r="L158" s="17"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -4214,10 +4500,11 @@
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
-      <c r="J159" s="23"/>
-      <c r="K159" s="23"/>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J159" s="5"/>
+      <c r="K159" s="17"/>
+      <c r="L159" s="17"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -4227,10 +4514,11 @@
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
-      <c r="J160" s="23"/>
-      <c r="K160" s="23"/>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J160" s="5"/>
+      <c r="K160" s="17"/>
+      <c r="L160" s="17"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -4240,10 +4528,11 @@
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
-      <c r="J161" s="23"/>
-      <c r="K161" s="23"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J161" s="5"/>
+      <c r="K161" s="17"/>
+      <c r="L161" s="17"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -4253,10 +4542,11 @@
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
-      <c r="J162" s="23"/>
-      <c r="K162" s="23"/>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J162" s="5"/>
+      <c r="K162" s="17"/>
+      <c r="L162" s="17"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -4266,10 +4556,11 @@
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
-      <c r="J163" s="23"/>
-      <c r="K163" s="23"/>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J163" s="5"/>
+      <c r="K163" s="17"/>
+      <c r="L163" s="17"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -4279,10 +4570,11 @@
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
-      <c r="J164" s="23"/>
-      <c r="K164" s="23"/>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J164" s="5"/>
+      <c r="K164" s="17"/>
+      <c r="L164" s="17"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -4292,10 +4584,11 @@
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
-      <c r="J165" s="23"/>
-      <c r="K165" s="23"/>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J165" s="5"/>
+      <c r="K165" s="17"/>
+      <c r="L165" s="17"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -4305,10 +4598,11 @@
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
-      <c r="J166" s="23"/>
-      <c r="K166" s="23"/>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J166" s="5"/>
+      <c r="K166" s="17"/>
+      <c r="L166" s="17"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -4318,10 +4612,11 @@
       <c r="G167" s="5"/>
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
-      <c r="J167" s="23"/>
-      <c r="K167" s="23"/>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J167" s="5"/>
+      <c r="K167" s="17"/>
+      <c r="L167" s="17"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -4331,10 +4626,11 @@
       <c r="G168" s="5"/>
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
-      <c r="J168" s="23"/>
-      <c r="K168" s="23"/>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J168" s="5"/>
+      <c r="K168" s="17"/>
+      <c r="L168" s="17"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -4344,10 +4640,11 @@
       <c r="G169" s="5"/>
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
-      <c r="J169" s="23"/>
-      <c r="K169" s="23"/>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J169" s="5"/>
+      <c r="K169" s="17"/>
+      <c r="L169" s="17"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -4357,10 +4654,11 @@
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
-      <c r="J170" s="23"/>
-      <c r="K170" s="23"/>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J170" s="5"/>
+      <c r="K170" s="17"/>
+      <c r="L170" s="17"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -4370,10 +4668,11 @@
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
-      <c r="J171" s="23"/>
-      <c r="K171" s="23"/>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J171" s="5"/>
+      <c r="K171" s="17"/>
+      <c r="L171" s="17"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -4383,10 +4682,11 @@
       <c r="G172" s="5"/>
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
-      <c r="J172" s="23"/>
-      <c r="K172" s="23"/>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J172" s="5"/>
+      <c r="K172" s="17"/>
+      <c r="L172" s="17"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -4396,10 +4696,11 @@
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
-      <c r="J173" s="23"/>
-      <c r="K173" s="23"/>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J173" s="5"/>
+      <c r="K173" s="17"/>
+      <c r="L173" s="17"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -4409,10 +4710,11 @@
       <c r="G174" s="5"/>
       <c r="H174" s="5"/>
       <c r="I174" s="5"/>
-      <c r="J174" s="23"/>
-      <c r="K174" s="23"/>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J174" s="5"/>
+      <c r="K174" s="17"/>
+      <c r="L174" s="17"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -4422,10 +4724,11 @@
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
-      <c r="J175" s="23"/>
-      <c r="K175" s="23"/>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J175" s="5"/>
+      <c r="K175" s="17"/>
+      <c r="L175" s="17"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -4435,10 +4738,11 @@
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
-      <c r="J176" s="23"/>
-      <c r="K176" s="23"/>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J176" s="5"/>
+      <c r="K176" s="17"/>
+      <c r="L176" s="17"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -4448,10 +4752,11 @@
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
-      <c r="J177" s="23"/>
-      <c r="K177" s="23"/>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J177" s="5"/>
+      <c r="K177" s="17"/>
+      <c r="L177" s="17"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -4461,10 +4766,11 @@
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
       <c r="I178" s="5"/>
-      <c r="J178" s="23"/>
-      <c r="K178" s="23"/>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J178" s="5"/>
+      <c r="K178" s="17"/>
+      <c r="L178" s="17"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -4474,10 +4780,11 @@
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
-      <c r="J179" s="23"/>
-      <c r="K179" s="23"/>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J179" s="5"/>
+      <c r="K179" s="17"/>
+      <c r="L179" s="17"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -4487,10 +4794,11 @@
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
       <c r="I180" s="5"/>
-      <c r="J180" s="23"/>
-      <c r="K180" s="23"/>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J180" s="5"/>
+      <c r="K180" s="17"/>
+      <c r="L180" s="17"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -4500,10 +4808,11 @@
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
       <c r="I181" s="5"/>
-      <c r="J181" s="23"/>
-      <c r="K181" s="23"/>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J181" s="5"/>
+      <c r="K181" s="17"/>
+      <c r="L181" s="17"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -4513,10 +4822,11 @@
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
       <c r="I182" s="5"/>
-      <c r="J182" s="23"/>
-      <c r="K182" s="23"/>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J182" s="5"/>
+      <c r="K182" s="17"/>
+      <c r="L182" s="17"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -4526,10 +4836,11 @@
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
-      <c r="J183" s="23"/>
-      <c r="K183" s="23"/>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J183" s="5"/>
+      <c r="K183" s="17"/>
+      <c r="L183" s="17"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -4539,10 +4850,11 @@
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
       <c r="I184" s="5"/>
-      <c r="J184" s="23"/>
-      <c r="K184" s="23"/>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J184" s="5"/>
+      <c r="K184" s="17"/>
+      <c r="L184" s="17"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -4552,10 +4864,11 @@
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
       <c r="I185" s="5"/>
-      <c r="J185" s="23"/>
-      <c r="K185" s="23"/>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J185" s="5"/>
+      <c r="K185" s="17"/>
+      <c r="L185" s="17"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -4565,10 +4878,11 @@
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
       <c r="I186" s="5"/>
-      <c r="J186" s="23"/>
-      <c r="K186" s="23"/>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J186" s="5"/>
+      <c r="K186" s="17"/>
+      <c r="L186" s="17"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -4578,10 +4892,11 @@
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
-      <c r="J187" s="23"/>
-      <c r="K187" s="23"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J187" s="5"/>
+      <c r="K187" s="17"/>
+      <c r="L187" s="17"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -4591,10 +4906,11 @@
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
       <c r="I188" s="5"/>
-      <c r="J188" s="23"/>
-      <c r="K188" s="23"/>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J188" s="5"/>
+      <c r="K188" s="17"/>
+      <c r="L188" s="17"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -4604,10 +4920,11 @@
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
-      <c r="J189" s="23"/>
-      <c r="K189" s="23"/>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J189" s="5"/>
+      <c r="K189" s="17"/>
+      <c r="L189" s="17"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -4617,10 +4934,11 @@
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
       <c r="I190" s="5"/>
-      <c r="J190" s="23"/>
-      <c r="K190" s="23"/>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J190" s="5"/>
+      <c r="K190" s="17"/>
+      <c r="L190" s="17"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -4630,10 +4948,11 @@
       <c r="G191" s="5"/>
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
-      <c r="J191" s="23"/>
-      <c r="K191" s="23"/>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J191" s="5"/>
+      <c r="K191" s="17"/>
+      <c r="L191" s="17"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -4643,10 +4962,11 @@
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
       <c r="I192" s="5"/>
-      <c r="J192" s="23"/>
-      <c r="K192" s="23"/>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J192" s="5"/>
+      <c r="K192" s="17"/>
+      <c r="L192" s="17"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -4656,10 +4976,11 @@
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
-      <c r="J193" s="23"/>
-      <c r="K193" s="23"/>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J193" s="5"/>
+      <c r="K193" s="17"/>
+      <c r="L193" s="17"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -4669,10 +4990,11 @@
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
-      <c r="J194" s="23"/>
-      <c r="K194" s="23"/>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J194" s="5"/>
+      <c r="K194" s="17"/>
+      <c r="L194" s="17"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -4682,10 +5004,11 @@
       <c r="G195" s="5"/>
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
-      <c r="J195" s="23"/>
-      <c r="K195" s="23"/>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J195" s="5"/>
+      <c r="K195" s="17"/>
+      <c r="L195" s="17"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -4695,10 +5018,11 @@
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
       <c r="I196" s="5"/>
-      <c r="J196" s="23"/>
-      <c r="K196" s="23"/>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J196" s="5"/>
+      <c r="K196" s="17"/>
+      <c r="L196" s="17"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -4708,10 +5032,11 @@
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
-      <c r="J197" s="23"/>
-      <c r="K197" s="23"/>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J197" s="5"/>
+      <c r="K197" s="17"/>
+      <c r="L197" s="17"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -4721,10 +5046,11 @@
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
       <c r="I198" s="5"/>
-      <c r="J198" s="23"/>
-      <c r="K198" s="23"/>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J198" s="5"/>
+      <c r="K198" s="17"/>
+      <c r="L198" s="17"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -4734,10 +5060,11 @@
       <c r="G199" s="5"/>
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
-      <c r="J199" s="23"/>
-      <c r="K199" s="23"/>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J199" s="5"/>
+      <c r="K199" s="17"/>
+      <c r="L199" s="17"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -4747,10 +5074,11 @@
       <c r="G200" s="5"/>
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
-      <c r="J200" s="23"/>
-      <c r="K200" s="23"/>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J200" s="5"/>
+      <c r="K200" s="17"/>
+      <c r="L200" s="17"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -4760,10 +5088,11 @@
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
-      <c r="J201" s="23"/>
-      <c r="K201" s="23"/>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J201" s="5"/>
+      <c r="K201" s="17"/>
+      <c r="L201" s="17"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -4773,10 +5102,11 @@
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
       <c r="I202" s="5"/>
-      <c r="J202" s="23"/>
-      <c r="K202" s="23"/>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J202" s="5"/>
+      <c r="K202" s="17"/>
+      <c r="L202" s="17"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -4786,10 +5116,11 @@
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
-      <c r="J203" s="23"/>
-      <c r="K203" s="23"/>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J203" s="5"/>
+      <c r="K203" s="17"/>
+      <c r="L203" s="17"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -4799,10 +5130,11 @@
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
       <c r="I204" s="5"/>
-      <c r="J204" s="23"/>
-      <c r="K204" s="23"/>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J204" s="5"/>
+      <c r="K204" s="17"/>
+      <c r="L204" s="17"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -4812,10 +5144,11 @@
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
       <c r="I205" s="5"/>
-      <c r="J205" s="23"/>
-      <c r="K205" s="23"/>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J205" s="5"/>
+      <c r="K205" s="17"/>
+      <c r="L205" s="17"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -4825,10 +5158,11 @@
       <c r="G206" s="5"/>
       <c r="H206" s="5"/>
       <c r="I206" s="5"/>
-      <c r="J206" s="23"/>
-      <c r="K206" s="23"/>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J206" s="5"/>
+      <c r="K206" s="17"/>
+      <c r="L206" s="17"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -4838,10 +5172,11 @@
       <c r="G207" s="5"/>
       <c r="H207" s="5"/>
       <c r="I207" s="5"/>
-      <c r="J207" s="23"/>
-      <c r="K207" s="23"/>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J207" s="5"/>
+      <c r="K207" s="17"/>
+      <c r="L207" s="17"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -4851,10 +5186,11 @@
       <c r="G208" s="5"/>
       <c r="H208" s="5"/>
       <c r="I208" s="5"/>
-      <c r="J208" s="23"/>
-      <c r="K208" s="23"/>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J208" s="5"/>
+      <c r="K208" s="17"/>
+      <c r="L208" s="17"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -4864,10 +5200,11 @@
       <c r="G209" s="5"/>
       <c r="H209" s="5"/>
       <c r="I209" s="5"/>
-      <c r="J209" s="23"/>
-      <c r="K209" s="23"/>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J209" s="5"/>
+      <c r="K209" s="17"/>
+      <c r="L209" s="17"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -4877,10 +5214,11 @@
       <c r="G210" s="5"/>
       <c r="H210" s="5"/>
       <c r="I210" s="5"/>
-      <c r="J210" s="23"/>
-      <c r="K210" s="23"/>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J210" s="5"/>
+      <c r="K210" s="17"/>
+      <c r="L210" s="17"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -4890,10 +5228,11 @@
       <c r="G211" s="5"/>
       <c r="H211" s="5"/>
       <c r="I211" s="5"/>
-      <c r="J211" s="23"/>
-      <c r="K211" s="23"/>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J211" s="5"/>
+      <c r="K211" s="17"/>
+      <c r="L211" s="17"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -4903,10 +5242,11 @@
       <c r="G212" s="5"/>
       <c r="H212" s="5"/>
       <c r="I212" s="5"/>
-      <c r="J212" s="23"/>
-      <c r="K212" s="23"/>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J212" s="5"/>
+      <c r="K212" s="17"/>
+      <c r="L212" s="17"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -4916,10 +5256,11 @@
       <c r="G213" s="5"/>
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
-      <c r="J213" s="23"/>
-      <c r="K213" s="23"/>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J213" s="5"/>
+      <c r="K213" s="17"/>
+      <c r="L213" s="17"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -4929,10 +5270,11 @@
       <c r="G214" s="5"/>
       <c r="H214" s="5"/>
       <c r="I214" s="5"/>
-      <c r="J214" s="23"/>
-      <c r="K214" s="23"/>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J214" s="5"/>
+      <c r="K214" s="17"/>
+      <c r="L214" s="17"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -4942,10 +5284,11 @@
       <c r="G215" s="5"/>
       <c r="H215" s="5"/>
       <c r="I215" s="5"/>
-      <c r="J215" s="23"/>
-      <c r="K215" s="23"/>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J215" s="5"/>
+      <c r="K215" s="17"/>
+      <c r="L215" s="17"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -4955,10 +5298,11 @@
       <c r="G216" s="5"/>
       <c r="H216" s="5"/>
       <c r="I216" s="5"/>
-      <c r="J216" s="23"/>
-      <c r="K216" s="23"/>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J216" s="5"/>
+      <c r="K216" s="17"/>
+      <c r="L216" s="17"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -4968,10 +5312,11 @@
       <c r="G217" s="5"/>
       <c r="H217" s="5"/>
       <c r="I217" s="5"/>
-      <c r="J217" s="23"/>
-      <c r="K217" s="23"/>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J217" s="5"/>
+      <c r="K217" s="17"/>
+      <c r="L217" s="17"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -4981,10 +5326,11 @@
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
       <c r="I218" s="5"/>
-      <c r="J218" s="23"/>
-      <c r="K218" s="23"/>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J218" s="5"/>
+      <c r="K218" s="17"/>
+      <c r="L218" s="17"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -4994,10 +5340,11 @@
       <c r="G219" s="5"/>
       <c r="H219" s="5"/>
       <c r="I219" s="5"/>
-      <c r="J219" s="23"/>
-      <c r="K219" s="23"/>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J219" s="5"/>
+      <c r="K219" s="17"/>
+      <c r="L219" s="17"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -5007,10 +5354,11 @@
       <c r="G220" s="5"/>
       <c r="H220" s="5"/>
       <c r="I220" s="5"/>
-      <c r="J220" s="23"/>
-      <c r="K220" s="23"/>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J220" s="5"/>
+      <c r="K220" s="17"/>
+      <c r="L220" s="17"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -5020,10 +5368,11 @@
       <c r="G221" s="5"/>
       <c r="H221" s="5"/>
       <c r="I221" s="5"/>
-      <c r="J221" s="23"/>
-      <c r="K221" s="23"/>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J221" s="5"/>
+      <c r="K221" s="17"/>
+      <c r="L221" s="17"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -5033,10 +5382,11 @@
       <c r="G222" s="5"/>
       <c r="H222" s="5"/>
       <c r="I222" s="5"/>
-      <c r="J222" s="23"/>
-      <c r="K222" s="23"/>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J222" s="5"/>
+      <c r="K222" s="17"/>
+      <c r="L222" s="17"/>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -5046,10 +5396,11 @@
       <c r="G223" s="5"/>
       <c r="H223" s="5"/>
       <c r="I223" s="5"/>
-      <c r="J223" s="23"/>
-      <c r="K223" s="23"/>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J223" s="5"/>
+      <c r="K223" s="17"/>
+      <c r="L223" s="17"/>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -5059,10 +5410,11 @@
       <c r="G224" s="5"/>
       <c r="H224" s="5"/>
       <c r="I224" s="5"/>
-      <c r="J224" s="23"/>
-      <c r="K224" s="23"/>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J224" s="5"/>
+      <c r="K224" s="17"/>
+      <c r="L224" s="17"/>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -5072,10 +5424,11 @@
       <c r="G225" s="5"/>
       <c r="H225" s="5"/>
       <c r="I225" s="5"/>
-      <c r="J225" s="23"/>
-      <c r="K225" s="23"/>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J225" s="5"/>
+      <c r="K225" s="17"/>
+      <c r="L225" s="17"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -5085,10 +5438,11 @@
       <c r="G226" s="5"/>
       <c r="H226" s="5"/>
       <c r="I226" s="5"/>
-      <c r="J226" s="23"/>
-      <c r="K226" s="23"/>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J226" s="5"/>
+      <c r="K226" s="17"/>
+      <c r="L226" s="17"/>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -5098,10 +5452,11 @@
       <c r="G227" s="5"/>
       <c r="H227" s="5"/>
       <c r="I227" s="5"/>
-      <c r="J227" s="23"/>
-      <c r="K227" s="23"/>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J227" s="5"/>
+      <c r="K227" s="17"/>
+      <c r="L227" s="17"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -5111,10 +5466,11 @@
       <c r="G228" s="5"/>
       <c r="H228" s="5"/>
       <c r="I228" s="5"/>
-      <c r="J228" s="23"/>
-      <c r="K228" s="23"/>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J228" s="5"/>
+      <c r="K228" s="17"/>
+      <c r="L228" s="17"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -5124,10 +5480,11 @@
       <c r="G229" s="5"/>
       <c r="H229" s="5"/>
       <c r="I229" s="5"/>
-      <c r="J229" s="23"/>
-      <c r="K229" s="23"/>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J229" s="5"/>
+      <c r="K229" s="17"/>
+      <c r="L229" s="17"/>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -5137,10 +5494,11 @@
       <c r="G230" s="5"/>
       <c r="H230" s="5"/>
       <c r="I230" s="5"/>
-      <c r="J230" s="23"/>
-      <c r="K230" s="23"/>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J230" s="5"/>
+      <c r="K230" s="17"/>
+      <c r="L230" s="17"/>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -5150,10 +5508,11 @@
       <c r="G231" s="5"/>
       <c r="H231" s="5"/>
       <c r="I231" s="5"/>
-      <c r="J231" s="23"/>
-      <c r="K231" s="23"/>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J231" s="5"/>
+      <c r="K231" s="17"/>
+      <c r="L231" s="17"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -5163,10 +5522,11 @@
       <c r="G232" s="5"/>
       <c r="H232" s="5"/>
       <c r="I232" s="5"/>
-      <c r="J232" s="23"/>
-      <c r="K232" s="23"/>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J232" s="5"/>
+      <c r="K232" s="17"/>
+      <c r="L232" s="17"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -5176,10 +5536,11 @@
       <c r="G233" s="5"/>
       <c r="H233" s="5"/>
       <c r="I233" s="5"/>
-      <c r="J233" s="23"/>
-      <c r="K233" s="23"/>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J233" s="5"/>
+      <c r="K233" s="17"/>
+      <c r="L233" s="17"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -5189,10 +5550,11 @@
       <c r="G234" s="5"/>
       <c r="H234" s="5"/>
       <c r="I234" s="5"/>
-      <c r="J234" s="23"/>
-      <c r="K234" s="23"/>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J234" s="5"/>
+      <c r="K234" s="17"/>
+      <c r="L234" s="17"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -5202,10 +5564,11 @@
       <c r="G235" s="5"/>
       <c r="H235" s="5"/>
       <c r="I235" s="5"/>
-      <c r="J235" s="23"/>
-      <c r="K235" s="23"/>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J235" s="5"/>
+      <c r="K235" s="17"/>
+      <c r="L235" s="17"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -5215,10 +5578,11 @@
       <c r="G236" s="5"/>
       <c r="H236" s="5"/>
       <c r="I236" s="5"/>
-      <c r="J236" s="23"/>
-      <c r="K236" s="23"/>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J236" s="5"/>
+      <c r="K236" s="17"/>
+      <c r="L236" s="17"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -5228,10 +5592,11 @@
       <c r="G237" s="5"/>
       <c r="H237" s="5"/>
       <c r="I237" s="5"/>
-      <c r="J237" s="23"/>
-      <c r="K237" s="23"/>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J237" s="5"/>
+      <c r="K237" s="17"/>
+      <c r="L237" s="17"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -5241,10 +5606,11 @@
       <c r="G238" s="5"/>
       <c r="H238" s="5"/>
       <c r="I238" s="5"/>
-      <c r="J238" s="23"/>
-      <c r="K238" s="23"/>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J238" s="5"/>
+      <c r="K238" s="17"/>
+      <c r="L238" s="17"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -5254,10 +5620,11 @@
       <c r="G239" s="5"/>
       <c r="H239" s="5"/>
       <c r="I239" s="5"/>
-      <c r="J239" s="23"/>
-      <c r="K239" s="23"/>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J239" s="5"/>
+      <c r="K239" s="17"/>
+      <c r="L239" s="17"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -5267,10 +5634,11 @@
       <c r="G240" s="5"/>
       <c r="H240" s="5"/>
       <c r="I240" s="5"/>
-      <c r="J240" s="23"/>
-      <c r="K240" s="23"/>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J240" s="5"/>
+      <c r="K240" s="17"/>
+      <c r="L240" s="17"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -5280,10 +5648,11 @@
       <c r="G241" s="5"/>
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
-      <c r="J241" s="23"/>
-      <c r="K241" s="23"/>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J241" s="5"/>
+      <c r="K241" s="17"/>
+      <c r="L241" s="17"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -5293,10 +5662,11 @@
       <c r="G242" s="5"/>
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
-      <c r="J242" s="23"/>
-      <c r="K242" s="23"/>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J242" s="5"/>
+      <c r="K242" s="17"/>
+      <c r="L242" s="17"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -5306,10 +5676,11 @@
       <c r="G243" s="5"/>
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
-      <c r="J243" s="23"/>
-      <c r="K243" s="23"/>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J243" s="5"/>
+      <c r="K243" s="17"/>
+      <c r="L243" s="17"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -5319,10 +5690,11 @@
       <c r="G244" s="5"/>
       <c r="H244" s="5"/>
       <c r="I244" s="5"/>
-      <c r="J244" s="23"/>
-      <c r="K244" s="23"/>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J244" s="5"/>
+      <c r="K244" s="17"/>
+      <c r="L244" s="17"/>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -5332,10 +5704,11 @@
       <c r="G245" s="5"/>
       <c r="H245" s="5"/>
       <c r="I245" s="5"/>
-      <c r="J245" s="23"/>
-      <c r="K245" s="23"/>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J245" s="5"/>
+      <c r="K245" s="17"/>
+      <c r="L245" s="17"/>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -5345,10 +5718,11 @@
       <c r="G246" s="5"/>
       <c r="H246" s="5"/>
       <c r="I246" s="5"/>
-      <c r="J246" s="23"/>
-      <c r="K246" s="23"/>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J246" s="5"/>
+      <c r="K246" s="17"/>
+      <c r="L246" s="17"/>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -5358,10 +5732,11 @@
       <c r="G247" s="5"/>
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
-      <c r="J247" s="23"/>
-      <c r="K247" s="23"/>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J247" s="5"/>
+      <c r="K247" s="17"/>
+      <c r="L247" s="17"/>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -5371,10 +5746,11 @@
       <c r="G248" s="5"/>
       <c r="H248" s="5"/>
       <c r="I248" s="5"/>
-      <c r="J248" s="23"/>
-      <c r="K248" s="23"/>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J248" s="5"/>
+      <c r="K248" s="17"/>
+      <c r="L248" s="17"/>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -5384,10 +5760,11 @@
       <c r="G249" s="5"/>
       <c r="H249" s="5"/>
       <c r="I249" s="5"/>
-      <c r="J249" s="23"/>
-      <c r="K249" s="23"/>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J249" s="5"/>
+      <c r="K249" s="17"/>
+      <c r="L249" s="17"/>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -5397,10 +5774,11 @@
       <c r="G250" s="5"/>
       <c r="H250" s="5"/>
       <c r="I250" s="5"/>
-      <c r="J250" s="23"/>
-      <c r="K250" s="23"/>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J250" s="5"/>
+      <c r="K250" s="17"/>
+      <c r="L250" s="17"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -5410,10 +5788,11 @@
       <c r="G251" s="5"/>
       <c r="H251" s="5"/>
       <c r="I251" s="5"/>
-      <c r="J251" s="23"/>
-      <c r="K251" s="23"/>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J251" s="5"/>
+      <c r="K251" s="17"/>
+      <c r="L251" s="17"/>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -5423,10 +5802,11 @@
       <c r="G252" s="5"/>
       <c r="H252" s="5"/>
       <c r="I252" s="5"/>
-      <c r="J252" s="23"/>
-      <c r="K252" s="23"/>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J252" s="5"/>
+      <c r="K252" s="17"/>
+      <c r="L252" s="17"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -5436,10 +5816,11 @@
       <c r="G253" s="5"/>
       <c r="H253" s="5"/>
       <c r="I253" s="5"/>
-      <c r="J253" s="23"/>
-      <c r="K253" s="23"/>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J253" s="5"/>
+      <c r="K253" s="17"/>
+      <c r="L253" s="17"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -5449,10 +5830,11 @@
       <c r="G254" s="5"/>
       <c r="H254" s="5"/>
       <c r="I254" s="5"/>
-      <c r="J254" s="23"/>
-      <c r="K254" s="23"/>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J254" s="5"/>
+      <c r="K254" s="17"/>
+      <c r="L254" s="17"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -5462,10 +5844,11 @@
       <c r="G255" s="5"/>
       <c r="H255" s="5"/>
       <c r="I255" s="5"/>
-      <c r="J255" s="23"/>
-      <c r="K255" s="23"/>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J255" s="5"/>
+      <c r="K255" s="17"/>
+      <c r="L255" s="17"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -5475,10 +5858,11 @@
       <c r="G256" s="5"/>
       <c r="H256" s="5"/>
       <c r="I256" s="5"/>
-      <c r="J256" s="23"/>
-      <c r="K256" s="23"/>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J256" s="5"/>
+      <c r="K256" s="17"/>
+      <c r="L256" s="17"/>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -5488,10 +5872,11 @@
       <c r="G257" s="5"/>
       <c r="H257" s="5"/>
       <c r="I257" s="5"/>
-      <c r="J257" s="23"/>
-      <c r="K257" s="23"/>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J257" s="5"/>
+      <c r="K257" s="17"/>
+      <c r="L257" s="17"/>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -5501,10 +5886,11 @@
       <c r="G258" s="5"/>
       <c r="H258" s="5"/>
       <c r="I258" s="5"/>
-      <c r="J258" s="23"/>
-      <c r="K258" s="23"/>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J258" s="5"/>
+      <c r="K258" s="17"/>
+      <c r="L258" s="17"/>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -5514,10 +5900,11 @@
       <c r="G259" s="5"/>
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
-      <c r="J259" s="23"/>
-      <c r="K259" s="23"/>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J259" s="5"/>
+      <c r="K259" s="17"/>
+      <c r="L259" s="17"/>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -5527,10 +5914,11 @@
       <c r="G260" s="5"/>
       <c r="H260" s="5"/>
       <c r="I260" s="5"/>
-      <c r="J260" s="23"/>
-      <c r="K260" s="23"/>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J260" s="5"/>
+      <c r="K260" s="17"/>
+      <c r="L260" s="17"/>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -5540,10 +5928,11 @@
       <c r="G261" s="5"/>
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
-      <c r="J261" s="23"/>
-      <c r="K261" s="23"/>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J261" s="5"/>
+      <c r="K261" s="17"/>
+      <c r="L261" s="17"/>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -5553,10 +5942,11 @@
       <c r="G262" s="5"/>
       <c r="H262" s="5"/>
       <c r="I262" s="5"/>
-      <c r="J262" s="23"/>
-      <c r="K262" s="23"/>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J262" s="5"/>
+      <c r="K262" s="17"/>
+      <c r="L262" s="17"/>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -5566,10 +5956,11 @@
       <c r="G263" s="5"/>
       <c r="H263" s="5"/>
       <c r="I263" s="5"/>
-      <c r="J263" s="23"/>
-      <c r="K263" s="23"/>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J263" s="5"/>
+      <c r="K263" s="17"/>
+      <c r="L263" s="17"/>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -5579,10 +5970,11 @@
       <c r="G264" s="5"/>
       <c r="H264" s="5"/>
       <c r="I264" s="5"/>
-      <c r="J264" s="23"/>
-      <c r="K264" s="23"/>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J264" s="5"/>
+      <c r="K264" s="17"/>
+      <c r="L264" s="17"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -5592,10 +5984,11 @@
       <c r="G265" s="5"/>
       <c r="H265" s="5"/>
       <c r="I265" s="5"/>
-      <c r="J265" s="23"/>
-      <c r="K265" s="23"/>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J265" s="5"/>
+      <c r="K265" s="17"/>
+      <c r="L265" s="17"/>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -5605,10 +5998,11 @@
       <c r="G266" s="5"/>
       <c r="H266" s="5"/>
       <c r="I266" s="5"/>
-      <c r="J266" s="23"/>
-      <c r="K266" s="23"/>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J266" s="5"/>
+      <c r="K266" s="17"/>
+      <c r="L266" s="17"/>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -5618,10 +6012,11 @@
       <c r="G267" s="5"/>
       <c r="H267" s="5"/>
       <c r="I267" s="5"/>
-      <c r="J267" s="23"/>
-      <c r="K267" s="23"/>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J267" s="5"/>
+      <c r="K267" s="17"/>
+      <c r="L267" s="17"/>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -5631,10 +6026,11 @@
       <c r="G268" s="5"/>
       <c r="H268" s="5"/>
       <c r="I268" s="5"/>
-      <c r="J268" s="23"/>
-      <c r="K268" s="23"/>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J268" s="5"/>
+      <c r="K268" s="17"/>
+      <c r="L268" s="17"/>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -5644,10 +6040,11 @@
       <c r="G269" s="5"/>
       <c r="H269" s="5"/>
       <c r="I269" s="5"/>
-      <c r="J269" s="23"/>
-      <c r="K269" s="23"/>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J269" s="5"/>
+      <c r="K269" s="17"/>
+      <c r="L269" s="17"/>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -5657,10 +6054,11 @@
       <c r="G270" s="5"/>
       <c r="H270" s="5"/>
       <c r="I270" s="5"/>
-      <c r="J270" s="23"/>
-      <c r="K270" s="23"/>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J270" s="5"/>
+      <c r="K270" s="17"/>
+      <c r="L270" s="17"/>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -5670,10 +6068,11 @@
       <c r="G271" s="5"/>
       <c r="H271" s="5"/>
       <c r="I271" s="5"/>
-      <c r="J271" s="23"/>
-      <c r="K271" s="23"/>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J271" s="5"/>
+      <c r="K271" s="17"/>
+      <c r="L271" s="17"/>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -5683,10 +6082,11 @@
       <c r="G272" s="5"/>
       <c r="H272" s="5"/>
       <c r="I272" s="5"/>
-      <c r="J272" s="23"/>
-      <c r="K272" s="23"/>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J272" s="5"/>
+      <c r="K272" s="17"/>
+      <c r="L272" s="17"/>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -5696,10 +6096,11 @@
       <c r="G273" s="5"/>
       <c r="H273" s="5"/>
       <c r="I273" s="5"/>
-      <c r="J273" s="23"/>
-      <c r="K273" s="23"/>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J273" s="5"/>
+      <c r="K273" s="17"/>
+      <c r="L273" s="17"/>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -5709,10 +6110,11 @@
       <c r="G274" s="5"/>
       <c r="H274" s="5"/>
       <c r="I274" s="5"/>
-      <c r="J274" s="23"/>
-      <c r="K274" s="23"/>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J274" s="5"/>
+      <c r="K274" s="17"/>
+      <c r="L274" s="17"/>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -5722,10 +6124,11 @@
       <c r="G275" s="5"/>
       <c r="H275" s="5"/>
       <c r="I275" s="5"/>
-      <c r="J275" s="23"/>
-      <c r="K275" s="23"/>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J275" s="5"/>
+      <c r="K275" s="17"/>
+      <c r="L275" s="17"/>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -5735,10 +6138,11 @@
       <c r="G276" s="5"/>
       <c r="H276" s="5"/>
       <c r="I276" s="5"/>
-      <c r="J276" s="23"/>
-      <c r="K276" s="23"/>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J276" s="5"/>
+      <c r="K276" s="17"/>
+      <c r="L276" s="17"/>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -5748,10 +6152,11 @@
       <c r="G277" s="5"/>
       <c r="H277" s="5"/>
       <c r="I277" s="5"/>
-      <c r="J277" s="23"/>
-      <c r="K277" s="23"/>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J277" s="5"/>
+      <c r="K277" s="17"/>
+      <c r="L277" s="17"/>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -5761,10 +6166,11 @@
       <c r="G278" s="5"/>
       <c r="H278" s="5"/>
       <c r="I278" s="5"/>
-      <c r="J278" s="23"/>
-      <c r="K278" s="23"/>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J278" s="5"/>
+      <c r="K278" s="17"/>
+      <c r="L278" s="17"/>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -5774,10 +6180,11 @@
       <c r="G279" s="5"/>
       <c r="H279" s="5"/>
       <c r="I279" s="5"/>
-      <c r="J279" s="23"/>
-      <c r="K279" s="23"/>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J279" s="5"/>
+      <c r="K279" s="17"/>
+      <c r="L279" s="17"/>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -5787,10 +6194,11 @@
       <c r="G280" s="5"/>
       <c r="H280" s="5"/>
       <c r="I280" s="5"/>
-      <c r="J280" s="23"/>
-      <c r="K280" s="23"/>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J280" s="5"/>
+      <c r="K280" s="17"/>
+      <c r="L280" s="17"/>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -5800,10 +6208,11 @@
       <c r="G281" s="5"/>
       <c r="H281" s="5"/>
       <c r="I281" s="5"/>
-      <c r="J281" s="23"/>
-      <c r="K281" s="23"/>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J281" s="5"/>
+      <c r="K281" s="17"/>
+      <c r="L281" s="17"/>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -5813,10 +6222,11 @@
       <c r="G282" s="5"/>
       <c r="H282" s="5"/>
       <c r="I282" s="5"/>
-      <c r="J282" s="23"/>
-      <c r="K282" s="23"/>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J282" s="5"/>
+      <c r="K282" s="17"/>
+      <c r="L282" s="17"/>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -5826,10 +6236,11 @@
       <c r="G283" s="5"/>
       <c r="H283" s="5"/>
       <c r="I283" s="5"/>
-      <c r="J283" s="23"/>
-      <c r="K283" s="23"/>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J283" s="5"/>
+      <c r="K283" s="17"/>
+      <c r="L283" s="17"/>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -5839,10 +6250,11 @@
       <c r="G284" s="5"/>
       <c r="H284" s="5"/>
       <c r="I284" s="5"/>
-      <c r="J284" s="23"/>
-      <c r="K284" s="23"/>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J284" s="5"/>
+      <c r="K284" s="17"/>
+      <c r="L284" s="17"/>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -5852,10 +6264,11 @@
       <c r="G285" s="5"/>
       <c r="H285" s="5"/>
       <c r="I285" s="5"/>
-      <c r="J285" s="23"/>
-      <c r="K285" s="23"/>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J285" s="5"/>
+      <c r="K285" s="17"/>
+      <c r="L285" s="17"/>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -5865,10 +6278,11 @@
       <c r="G286" s="5"/>
       <c r="H286" s="5"/>
       <c r="I286" s="5"/>
-      <c r="J286" s="23"/>
-      <c r="K286" s="23"/>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J286" s="5"/>
+      <c r="K286" s="17"/>
+      <c r="L286" s="17"/>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -5878,10 +6292,11 @@
       <c r="G287" s="5"/>
       <c r="H287" s="5"/>
       <c r="I287" s="5"/>
-      <c r="J287" s="23"/>
-      <c r="K287" s="23"/>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J287" s="5"/>
+      <c r="K287" s="17"/>
+      <c r="L287" s="17"/>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -5891,10 +6306,11 @@
       <c r="G288" s="5"/>
       <c r="H288" s="5"/>
       <c r="I288" s="5"/>
-      <c r="J288" s="23"/>
-      <c r="K288" s="23"/>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J288" s="5"/>
+      <c r="K288" s="17"/>
+      <c r="L288" s="17"/>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -5904,10 +6320,11 @@
       <c r="G289" s="5"/>
       <c r="H289" s="5"/>
       <c r="I289" s="5"/>
-      <c r="J289" s="23"/>
-      <c r="K289" s="23"/>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J289" s="5"/>
+      <c r="K289" s="17"/>
+      <c r="L289" s="17"/>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -5917,10 +6334,11 @@
       <c r="G290" s="5"/>
       <c r="H290" s="5"/>
       <c r="I290" s="5"/>
-      <c r="J290" s="23"/>
-      <c r="K290" s="23"/>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J290" s="5"/>
+      <c r="K290" s="17"/>
+      <c r="L290" s="17"/>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -5930,10 +6348,11 @@
       <c r="G291" s="5"/>
       <c r="H291" s="5"/>
       <c r="I291" s="5"/>
-      <c r="J291" s="23"/>
-      <c r="K291" s="23"/>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J291" s="5"/>
+      <c r="K291" s="17"/>
+      <c r="L291" s="17"/>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -5943,10 +6362,11 @@
       <c r="G292" s="5"/>
       <c r="H292" s="5"/>
       <c r="I292" s="5"/>
-      <c r="J292" s="23"/>
-      <c r="K292" s="23"/>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J292" s="5"/>
+      <c r="K292" s="17"/>
+      <c r="L292" s="17"/>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -5956,10 +6376,11 @@
       <c r="G293" s="5"/>
       <c r="H293" s="5"/>
       <c r="I293" s="5"/>
-      <c r="J293" s="23"/>
-      <c r="K293" s="23"/>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J293" s="5"/>
+      <c r="K293" s="17"/>
+      <c r="L293" s="17"/>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -5969,10 +6390,11 @@
       <c r="G294" s="5"/>
       <c r="H294" s="5"/>
       <c r="I294" s="5"/>
-      <c r="J294" s="23"/>
-      <c r="K294" s="23"/>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J294" s="5"/>
+      <c r="K294" s="17"/>
+      <c r="L294" s="17"/>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -5982,10 +6404,11 @@
       <c r="G295" s="5"/>
       <c r="H295" s="5"/>
       <c r="I295" s="5"/>
-      <c r="J295" s="23"/>
-      <c r="K295" s="23"/>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J295" s="5"/>
+      <c r="K295" s="17"/>
+      <c r="L295" s="17"/>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -5995,10 +6418,11 @@
       <c r="G296" s="5"/>
       <c r="H296" s="5"/>
       <c r="I296" s="5"/>
-      <c r="J296" s="23"/>
-      <c r="K296" s="23"/>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J296" s="5"/>
+      <c r="K296" s="17"/>
+      <c r="L296" s="17"/>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -6008,10 +6432,11 @@
       <c r="G297" s="5"/>
       <c r="H297" s="5"/>
       <c r="I297" s="5"/>
-      <c r="J297" s="23"/>
-      <c r="K297" s="23"/>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J297" s="5"/>
+      <c r="K297" s="17"/>
+      <c r="L297" s="17"/>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -6021,10 +6446,11 @@
       <c r="G298" s="5"/>
       <c r="H298" s="5"/>
       <c r="I298" s="5"/>
-      <c r="J298" s="23"/>
-      <c r="K298" s="23"/>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J298" s="5"/>
+      <c r="K298" s="17"/>
+      <c r="L298" s="17"/>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -6034,10 +6460,11 @@
       <c r="G299" s="5"/>
       <c r="H299" s="5"/>
       <c r="I299" s="5"/>
-      <c r="J299" s="23"/>
-      <c r="K299" s="23"/>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J299" s="5"/>
+      <c r="K299" s="17"/>
+      <c r="L299" s="17"/>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -6047,10 +6474,11 @@
       <c r="G300" s="5"/>
       <c r="H300" s="5"/>
       <c r="I300" s="5"/>
-      <c r="J300" s="23"/>
-      <c r="K300" s="23"/>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J300" s="5"/>
+      <c r="K300" s="17"/>
+      <c r="L300" s="17"/>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -6060,10 +6488,11 @@
       <c r="G301" s="5"/>
       <c r="H301" s="5"/>
       <c r="I301" s="5"/>
-      <c r="J301" s="23"/>
-      <c r="K301" s="23"/>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J301" s="5"/>
+      <c r="K301" s="17"/>
+      <c r="L301" s="17"/>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -6073,10 +6502,11 @@
       <c r="G302" s="5"/>
       <c r="H302" s="5"/>
       <c r="I302" s="5"/>
-      <c r="J302" s="23"/>
-      <c r="K302" s="23"/>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J302" s="5"/>
+      <c r="K302" s="17"/>
+      <c r="L302" s="17"/>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -6086,10 +6516,11 @@
       <c r="G303" s="5"/>
       <c r="H303" s="5"/>
       <c r="I303" s="5"/>
-      <c r="J303" s="23"/>
-      <c r="K303" s="23"/>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J303" s="5"/>
+      <c r="K303" s="17"/>
+      <c r="L303" s="17"/>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -6099,10 +6530,11 @@
       <c r="G304" s="5"/>
       <c r="H304" s="5"/>
       <c r="I304" s="5"/>
-      <c r="J304" s="23"/>
-      <c r="K304" s="23"/>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J304" s="5"/>
+      <c r="K304" s="17"/>
+      <c r="L304" s="17"/>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -6112,10 +6544,11 @@
       <c r="G305" s="5"/>
       <c r="H305" s="5"/>
       <c r="I305" s="5"/>
-      <c r="J305" s="23"/>
-      <c r="K305" s="23"/>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J305" s="5"/>
+      <c r="K305" s="17"/>
+      <c r="L305" s="17"/>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -6125,10 +6558,11 @@
       <c r="G306" s="5"/>
       <c r="H306" s="5"/>
       <c r="I306" s="5"/>
-      <c r="J306" s="23"/>
-      <c r="K306" s="23"/>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J306" s="5"/>
+      <c r="K306" s="17"/>
+      <c r="L306" s="17"/>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -6138,10 +6572,11 @@
       <c r="G307" s="5"/>
       <c r="H307" s="5"/>
       <c r="I307" s="5"/>
-      <c r="J307" s="23"/>
-      <c r="K307" s="23"/>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J307" s="5"/>
+      <c r="K307" s="17"/>
+      <c r="L307" s="17"/>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -6151,10 +6586,11 @@
       <c r="G308" s="5"/>
       <c r="H308" s="5"/>
       <c r="I308" s="5"/>
-      <c r="J308" s="23"/>
-      <c r="K308" s="23"/>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J308" s="5"/>
+      <c r="K308" s="17"/>
+      <c r="L308" s="17"/>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -6164,10 +6600,11 @@
       <c r="G309" s="5"/>
       <c r="H309" s="5"/>
       <c r="I309" s="5"/>
-      <c r="J309" s="23"/>
-      <c r="K309" s="23"/>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J309" s="5"/>
+      <c r="K309" s="17"/>
+      <c r="L309" s="17"/>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -6177,10 +6614,11 @@
       <c r="G310" s="5"/>
       <c r="H310" s="5"/>
       <c r="I310" s="5"/>
-      <c r="J310" s="23"/>
-      <c r="K310" s="23"/>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J310" s="5"/>
+      <c r="K310" s="17"/>
+      <c r="L310" s="17"/>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -6190,10 +6628,11 @@
       <c r="G311" s="5"/>
       <c r="H311" s="5"/>
       <c r="I311" s="5"/>
-      <c r="J311" s="23"/>
-      <c r="K311" s="23"/>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J311" s="5"/>
+      <c r="K311" s="17"/>
+      <c r="L311" s="17"/>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -6203,10 +6642,11 @@
       <c r="G312" s="5"/>
       <c r="H312" s="5"/>
       <c r="I312" s="5"/>
-      <c r="J312" s="23"/>
-      <c r="K312" s="23"/>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J312" s="5"/>
+      <c r="K312" s="17"/>
+      <c r="L312" s="17"/>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -6216,10 +6656,11 @@
       <c r="G313" s="5"/>
       <c r="H313" s="5"/>
       <c r="I313" s="5"/>
-      <c r="J313" s="23"/>
-      <c r="K313" s="23"/>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J313" s="5"/>
+      <c r="K313" s="17"/>
+      <c r="L313" s="17"/>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -6229,10 +6670,11 @@
       <c r="G314" s="5"/>
       <c r="H314" s="5"/>
       <c r="I314" s="5"/>
-      <c r="J314" s="23"/>
-      <c r="K314" s="23"/>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J314" s="5"/>
+      <c r="K314" s="17"/>
+      <c r="L314" s="17"/>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -6242,10 +6684,11 @@
       <c r="G315" s="5"/>
       <c r="H315" s="5"/>
       <c r="I315" s="5"/>
-      <c r="J315" s="23"/>
-      <c r="K315" s="23"/>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J315" s="5"/>
+      <c r="K315" s="17"/>
+      <c r="L315" s="17"/>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -6255,10 +6698,11 @@
       <c r="G316" s="5"/>
       <c r="H316" s="5"/>
       <c r="I316" s="5"/>
-      <c r="J316" s="23"/>
-      <c r="K316" s="23"/>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J316" s="5"/>
+      <c r="K316" s="17"/>
+      <c r="L316" s="17"/>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -6268,10 +6712,11 @@
       <c r="G317" s="5"/>
       <c r="H317" s="5"/>
       <c r="I317" s="5"/>
-      <c r="J317" s="23"/>
-      <c r="K317" s="23"/>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J317" s="5"/>
+      <c r="K317" s="17"/>
+      <c r="L317" s="17"/>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -6281,10 +6726,11 @@
       <c r="G318" s="5"/>
       <c r="H318" s="5"/>
       <c r="I318" s="5"/>
-      <c r="J318" s="23"/>
-      <c r="K318" s="23"/>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J318" s="5"/>
+      <c r="K318" s="17"/>
+      <c r="L318" s="17"/>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -6294,10 +6740,11 @@
       <c r="G319" s="5"/>
       <c r="H319" s="5"/>
       <c r="I319" s="5"/>
-      <c r="J319" s="23"/>
-      <c r="K319" s="23"/>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J319" s="5"/>
+      <c r="K319" s="17"/>
+      <c r="L319" s="17"/>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -6307,8 +6754,9 @@
       <c r="G320" s="5"/>
       <c r="H320" s="5"/>
       <c r="I320" s="5"/>
-      <c r="J320" s="23"/>
-      <c r="K320" s="23"/>
+      <c r="J320" s="5"/>
+      <c r="K320" s="17"/>
+      <c r="L320" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -6326,14 +6774,14 @@
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!ThisWorkbook.openUI">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>13</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>324196</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>58189</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>15</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>548640</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -6357,97 +6805,97 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="13.1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:13" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3">
         <v>3</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="2:13" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3">
         <v>115200</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="2:13" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="2:13" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="2:13" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
+    <row r="10" spans="2:13" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="2:13" ht="13.1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6466,7 +6914,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="28" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D28" s="1"/>

--- a/Data4.xlsx
+++ b/Data4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\# Bioelectronics\4th year\Indoor-Localiztion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4AF786-B393-4B8D-B864-6855B4679191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3344237B-E6EC-4D29-A85C-5C8134E8AF5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Previous Port:</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>class</t>
+  </si>
+  <si>
+    <t>class2</t>
   </si>
 </sst>
 </file>
@@ -305,13 +308,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>14</xdr:col>
+          <xdr:col>15</xdr:col>
           <xdr:colOff>324196</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>58189</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>16</xdr:col>
+          <xdr:col>17</xdr:col>
           <xdr:colOff>548640</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -746,29 +749,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L320"/>
+  <dimension ref="A1:M320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C62"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="257" width="9.125" customWidth="1"/>
+    <col min="3" max="4" width="11" style="12" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="258" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="15" customFormat="1" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="15" customFormat="1" ht="13.1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -778,35 +781,38 @@
       <c r="C1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -817,34 +823,37 @@
         <v>10</v>
       </c>
       <c r="D2" s="6">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6">
         <v>-56</v>
       </c>
-      <c r="E2" s="6">
-        <v>-99</v>
-      </c>
       <c r="F2" s="6">
+        <v>-99</v>
+      </c>
+      <c r="G2" s="6">
         <v>-91</v>
       </c>
-      <c r="G2" s="6">
-        <v>-99</v>
-      </c>
       <c r="H2" s="6">
         <v>-99</v>
       </c>
-      <c r="I2" s="10">
-        <v>-99</v>
-      </c>
-      <c r="J2" s="4">
-        <v>-99</v>
-      </c>
-      <c r="K2" s="17">
+      <c r="I2" s="6">
+        <v>-99</v>
+      </c>
+      <c r="J2" s="10">
+        <v>-99</v>
+      </c>
+      <c r="K2" s="4">
         <v>-99</v>
       </c>
       <c r="L2" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -854,35 +863,38 @@
       <c r="C3" s="6">
         <v>10</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3" s="10">
         <v>-55</v>
       </c>
-      <c r="E3" s="10">
-        <v>-99</v>
-      </c>
       <c r="F3" s="10">
+        <v>-99</v>
+      </c>
+      <c r="G3" s="10">
         <v>-82</v>
       </c>
-      <c r="G3" s="10">
-        <v>-99</v>
-      </c>
       <c r="H3" s="10">
         <v>-99</v>
       </c>
       <c r="I3" s="10">
+        <v>-99</v>
+      </c>
+      <c r="J3" s="10">
         <v>-73</v>
       </c>
-      <c r="J3" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K3" s="17">
+      <c r="K3" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L3" s="17">
         <v>-72</v>
       </c>
-      <c r="L3" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -893,34 +905,37 @@
         <v>10</v>
       </c>
       <c r="D4" s="6">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6">
         <v>-57</v>
       </c>
-      <c r="E4" s="6">
-        <v>-99</v>
-      </c>
       <c r="F4" s="6">
         <v>-99</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="6">
         <v>-99</v>
       </c>
       <c r="H4" s="10">
         <v>-99</v>
       </c>
       <c r="I4" s="10">
+        <v>-99</v>
+      </c>
+      <c r="J4" s="10">
         <v>-76</v>
       </c>
-      <c r="J4" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K4" s="17">
+      <c r="K4" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L4" s="17">
         <v>-75</v>
       </c>
-      <c r="L4" s="17">
+      <c r="M4" s="17">
         <v>-74</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -931,15 +946,15 @@
         <v>10</v>
       </c>
       <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6">
         <v>-63</v>
       </c>
-      <c r="E5" s="6">
-        <v>-99</v>
-      </c>
       <c r="F5" s="6">
         <v>-99</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="6">
         <v>-99</v>
       </c>
       <c r="H5" s="10">
@@ -948,17 +963,20 @@
       <c r="I5" s="10">
         <v>-99</v>
       </c>
-      <c r="J5" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K5" s="17">
+      <c r="J5" s="10">
+        <v>-99</v>
+      </c>
+      <c r="K5" s="5">
         <v>-99</v>
       </c>
       <c r="L5" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>1</v>
       </c>
@@ -969,15 +987,15 @@
         <v>10</v>
       </c>
       <c r="D6" s="6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6">
         <v>-59</v>
       </c>
-      <c r="E6" s="6">
-        <v>-99</v>
-      </c>
       <c r="F6" s="6">
         <v>-99</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="6">
         <v>-99</v>
       </c>
       <c r="H6" s="10">
@@ -986,17 +1004,20 @@
       <c r="I6" s="10">
         <v>-99</v>
       </c>
-      <c r="J6" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K6" s="17">
+      <c r="J6" s="10">
+        <v>-99</v>
+      </c>
+      <c r="K6" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L6" s="17">
         <v>-79</v>
       </c>
-      <c r="L6" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>1</v>
       </c>
@@ -1007,34 +1028,37 @@
         <v>10</v>
       </c>
       <c r="D7" s="6">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6">
         <v>-53</v>
       </c>
-      <c r="E7" s="6">
-        <v>-99</v>
-      </c>
       <c r="F7" s="6">
         <v>-99</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="6">
         <v>-99</v>
       </c>
       <c r="H7" s="10">
         <v>-99</v>
       </c>
       <c r="I7" s="10">
+        <v>-99</v>
+      </c>
+      <c r="J7" s="10">
         <v>-72</v>
       </c>
-      <c r="J7" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K7" s="17">
+      <c r="K7" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L7" s="17">
         <v>-71</v>
       </c>
-      <c r="L7" s="17">
+      <c r="M7" s="17">
         <v>-75</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>1</v>
       </c>
@@ -1045,34 +1069,37 @@
         <v>10</v>
       </c>
       <c r="D8" s="6">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6">
         <v>-58</v>
       </c>
-      <c r="E8" s="6">
-        <v>-99</v>
-      </c>
       <c r="F8" s="6">
         <v>-99</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="6">
         <v>-99</v>
       </c>
       <c r="H8" s="10">
         <v>-99</v>
       </c>
       <c r="I8" s="10">
+        <v>-99</v>
+      </c>
+      <c r="J8" s="10">
         <v>-73</v>
       </c>
-      <c r="J8" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K8" s="17">
+      <c r="K8" s="5">
         <v>-99</v>
       </c>
       <c r="L8" s="17">
+        <v>-99</v>
+      </c>
+      <c r="M8" s="17">
         <v>-74</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>1</v>
       </c>
@@ -1082,35 +1109,38 @@
       <c r="C9" s="6">
         <v>10</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
+        <v>4</v>
+      </c>
+      <c r="E9" s="7">
         <v>-60</v>
       </c>
-      <c r="E9" s="11">
-        <v>-99</v>
-      </c>
-      <c r="F9" s="7">
-        <v>-99</v>
-      </c>
-      <c r="G9" s="11">
+      <c r="F9" s="11">
+        <v>-99</v>
+      </c>
+      <c r="G9" s="7">
         <v>-99</v>
       </c>
       <c r="H9" s="11">
         <v>-99</v>
       </c>
-      <c r="I9" s="10">
-        <v>-99</v>
-      </c>
-      <c r="J9" s="5">
+      <c r="I9" s="11">
+        <v>-99</v>
+      </c>
+      <c r="J9" s="10">
+        <v>-99</v>
+      </c>
+      <c r="K9" s="5">
         <v>-84</v>
       </c>
-      <c r="K9" s="17">
-        <v>-99</v>
-      </c>
       <c r="L9" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>1</v>
       </c>
@@ -1121,34 +1151,37 @@
         <v>10</v>
       </c>
       <c r="D10" s="6">
+        <v>4</v>
+      </c>
+      <c r="E10" s="6">
         <v>-65</v>
       </c>
-      <c r="E10" s="6">
-        <v>-99</v>
-      </c>
       <c r="F10" s="6">
         <v>-99</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>-99</v>
       </c>
       <c r="H10" s="7">
         <v>-99</v>
       </c>
-      <c r="I10" s="10">
-        <v>-99</v>
-      </c>
-      <c r="J10" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K10" s="17">
+      <c r="I10" s="7">
+        <v>-99</v>
+      </c>
+      <c r="J10" s="10">
+        <v>-99</v>
+      </c>
+      <c r="K10" s="5">
         <v>-99</v>
       </c>
       <c r="L10" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>1</v>
       </c>
@@ -1158,35 +1191,38 @@
       <c r="C11" s="6">
         <v>10</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="6">
+        <v>4</v>
+      </c>
+      <c r="E11" s="10">
         <v>-61</v>
       </c>
-      <c r="E11" s="10">
-        <v>-99</v>
-      </c>
-      <c r="F11" s="6">
-        <v>-99</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="F11" s="10">
+        <v>-99</v>
+      </c>
+      <c r="G11" s="6">
         <v>-99</v>
       </c>
       <c r="H11" s="10">
         <v>-99</v>
       </c>
       <c r="I11" s="10">
+        <v>-99</v>
+      </c>
+      <c r="J11" s="10">
         <v>-73</v>
       </c>
-      <c r="J11" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K11" s="17">
+      <c r="K11" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L11" s="17">
         <v>-74</v>
       </c>
-      <c r="L11" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>1</v>
       </c>
@@ -1196,35 +1232,38 @@
       <c r="C12" s="6">
         <v>10</v>
       </c>
-      <c r="D12" s="10">
-        <v>-99</v>
+      <c r="D12" s="6">
+        <v>4</v>
       </c>
       <c r="E12" s="10">
         <v>-99</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="10">
+        <v>-99</v>
+      </c>
+      <c r="G12" s="6">
         <v>-84</v>
       </c>
-      <c r="G12" s="10">
-        <v>-99</v>
-      </c>
       <c r="H12" s="10">
         <v>-99</v>
       </c>
       <c r="I12" s="10">
         <v>-99</v>
       </c>
-      <c r="J12" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K12" s="17">
+      <c r="J12" s="10">
+        <v>-99</v>
+      </c>
+      <c r="K12" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L12" s="17">
         <v>-76</v>
       </c>
-      <c r="L12" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>1</v>
       </c>
@@ -1234,35 +1273,38 @@
       <c r="C13" s="6">
         <v>10</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="6">
+        <v>4</v>
+      </c>
+      <c r="E13" s="10">
         <v>-54</v>
       </c>
-      <c r="E13" s="10">
+      <c r="F13" s="10">
         <v>-78</v>
       </c>
-      <c r="F13" s="6">
+      <c r="G13" s="6">
         <v>-85</v>
       </c>
-      <c r="G13" s="10">
-        <v>-99</v>
-      </c>
       <c r="H13" s="10">
+        <v>-99</v>
+      </c>
+      <c r="I13" s="10">
         <v>-79</v>
       </c>
-      <c r="I13" s="10">
-        <v>-99</v>
-      </c>
-      <c r="J13" s="5">
+      <c r="J13" s="10">
+        <v>-99</v>
+      </c>
+      <c r="K13" s="5">
         <v>-84</v>
       </c>
-      <c r="K13" s="17">
+      <c r="L13" s="17">
         <v>-76</v>
       </c>
-      <c r="L13" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>1</v>
       </c>
@@ -1272,35 +1314,38 @@
       <c r="C14" s="6">
         <v>10</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="6">
+        <v>4</v>
+      </c>
+      <c r="E14" s="10">
         <v>-52</v>
       </c>
-      <c r="E14" s="6">
-        <v>-99</v>
-      </c>
       <c r="F14" s="6">
         <v>-99</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="6">
         <v>-99</v>
       </c>
       <c r="H14" s="10">
         <v>-99</v>
       </c>
       <c r="I14" s="10">
+        <v>-99</v>
+      </c>
+      <c r="J14" s="10">
         <v>-75</v>
       </c>
-      <c r="J14" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K14" s="17">
+      <c r="K14" s="5">
         <v>-99</v>
       </c>
       <c r="L14" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>1</v>
       </c>
@@ -1310,35 +1355,38 @@
       <c r="C15" s="6">
         <v>10</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="6">
+        <v>4</v>
+      </c>
+      <c r="E15" s="10">
         <v>-59</v>
       </c>
-      <c r="E15" s="10">
-        <v>-99</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="F15" s="10">
+        <v>-99</v>
+      </c>
+      <c r="G15" s="6">
         <v>-82</v>
       </c>
-      <c r="G15" s="10">
-        <v>-99</v>
-      </c>
       <c r="H15" s="10">
         <v>-99</v>
       </c>
       <c r="I15" s="10">
         <v>-99</v>
       </c>
-      <c r="J15" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K15" s="17">
+      <c r="J15" s="10">
+        <v>-99</v>
+      </c>
+      <c r="K15" s="5">
         <v>-99</v>
       </c>
       <c r="L15" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>1</v>
       </c>
@@ -1348,35 +1396,38 @@
       <c r="C16" s="6">
         <v>10</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="6">
+        <v>4</v>
+      </c>
+      <c r="E16" s="10">
         <v>-54</v>
       </c>
-      <c r="E16" s="10">
+      <c r="F16" s="10">
         <v>-78</v>
       </c>
-      <c r="F16" s="6">
+      <c r="G16" s="6">
         <v>-80</v>
       </c>
-      <c r="G16" s="10">
-        <v>-99</v>
-      </c>
       <c r="H16" s="10">
         <v>-99</v>
       </c>
       <c r="I16" s="10">
+        <v>-99</v>
+      </c>
+      <c r="J16" s="10">
         <v>-67</v>
       </c>
-      <c r="J16" s="5">
+      <c r="K16" s="5">
         <v>-82</v>
       </c>
-      <c r="K16" s="17">
+      <c r="L16" s="17">
         <v>-66</v>
       </c>
-      <c r="L16" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -1386,18 +1437,18 @@
       <c r="C17" s="6">
         <v>10</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="6">
+        <v>4</v>
+      </c>
+      <c r="E17" s="5">
         <v>-48</v>
       </c>
-      <c r="E17" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G17" s="4">
         <v>-83</v>
       </c>
-      <c r="G17" s="5">
-        <v>-99</v>
-      </c>
       <c r="H17" s="5">
         <v>-99</v>
       </c>
@@ -1405,16 +1456,19 @@
         <v>-99</v>
       </c>
       <c r="J17" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K17" s="5">
         <v>-80</v>
       </c>
-      <c r="K17" s="17">
-        <v>-99</v>
-      </c>
       <c r="L17" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>1</v>
       </c>
@@ -1424,18 +1478,18 @@
       <c r="C18" s="6">
         <v>10</v>
       </c>
-      <c r="D18" s="5">
-        <v>-99</v>
+      <c r="D18" s="6">
+        <v>4</v>
       </c>
       <c r="E18" s="5">
         <v>-99</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G18" s="4">
         <v>-82</v>
       </c>
-      <c r="G18" s="5">
-        <v>-99</v>
-      </c>
       <c r="H18" s="5">
         <v>-99</v>
       </c>
@@ -1445,14 +1499,17 @@
       <c r="J18" s="5">
         <v>-99</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L18" s="17">
         <v>-79</v>
       </c>
-      <c r="L18" s="17">
+      <c r="M18" s="17">
         <v>-78</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>1</v>
       </c>
@@ -1462,35 +1519,38 @@
       <c r="C19" s="6">
         <v>10</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="6">
+        <v>4</v>
+      </c>
+      <c r="E19" s="5">
         <v>-54</v>
       </c>
-      <c r="E19" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F19" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G19" s="4">
         <v>-99</v>
       </c>
       <c r="H19" s="5">
         <v>-99</v>
       </c>
       <c r="I19" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J19" s="5">
         <v>-71</v>
       </c>
-      <c r="J19" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K19" s="17">
+      <c r="K19" s="5">
         <v>-99</v>
       </c>
       <c r="L19" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>1</v>
       </c>
@@ -1500,18 +1560,18 @@
       <c r="C20" s="6">
         <v>10</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="6">
+        <v>4</v>
+      </c>
+      <c r="E20" s="4">
         <v>-53</v>
       </c>
-      <c r="E20" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G20" s="4">
         <v>-81</v>
       </c>
-      <c r="G20" s="5">
-        <v>-99</v>
-      </c>
       <c r="H20" s="5">
         <v>-99</v>
       </c>
@@ -1521,14 +1581,17 @@
       <c r="J20" s="5">
         <v>-99</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="5">
         <v>-99</v>
       </c>
       <c r="L20" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>1</v>
       </c>
@@ -1538,18 +1601,18 @@
       <c r="C21" s="6">
         <v>10</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="6">
+        <v>4</v>
+      </c>
+      <c r="E21" s="5">
         <v>-56</v>
       </c>
-      <c r="E21" s="5">
+      <c r="F21" s="5">
         <v>-86</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>-82</v>
       </c>
-      <c r="G21" s="5">
-        <v>-99</v>
-      </c>
       <c r="H21" s="5">
         <v>-99</v>
       </c>
@@ -1559,14 +1622,17 @@
       <c r="J21" s="5">
         <v>-99</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L21" s="17">
         <v>-76</v>
       </c>
-      <c r="L21" s="17">
+      <c r="M21" s="17">
         <v>-73</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>1</v>
       </c>
@@ -1576,16 +1642,16 @@
       <c r="C22" s="6">
         <v>10</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="6">
+        <v>4</v>
+      </c>
+      <c r="E22" s="5">
         <v>-59</v>
       </c>
-      <c r="E22" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F22" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="F22" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G22" s="4">
         <v>-99</v>
       </c>
       <c r="H22" s="5">
@@ -1597,14 +1663,17 @@
       <c r="J22" s="5">
         <v>-99</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="5">
         <v>-99</v>
       </c>
       <c r="L22" s="17">
+        <v>-99</v>
+      </c>
+      <c r="M22" s="17">
         <v>-79</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -1614,18 +1683,18 @@
       <c r="C23" s="6">
         <v>10</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="6">
+        <v>4</v>
+      </c>
+      <c r="E23" s="5">
         <v>-56</v>
       </c>
-      <c r="E23" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="F23" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G23" s="4">
         <v>-82</v>
       </c>
-      <c r="G23" s="5">
-        <v>-99</v>
-      </c>
       <c r="H23" s="5">
         <v>-99</v>
       </c>
@@ -1635,14 +1704,17 @@
       <c r="J23" s="5">
         <v>-99</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="5">
         <v>-99</v>
       </c>
       <c r="L23" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>1</v>
       </c>
@@ -1652,35 +1724,38 @@
       <c r="C24" s="6">
         <v>10</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="6">
+        <v>4</v>
+      </c>
+      <c r="E24" s="5">
         <v>-67</v>
       </c>
-      <c r="E24" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="F24" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G24" s="4">
         <v>-88</v>
       </c>
-      <c r="G24" s="5">
-        <v>-99</v>
-      </c>
       <c r="H24" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I24" s="5">
         <v>-83</v>
       </c>
-      <c r="I24" s="5">
-        <v>-99</v>
-      </c>
       <c r="J24" s="5">
         <v>-99</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L24" s="17">
         <v>-82</v>
       </c>
-      <c r="L24" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>1</v>
       </c>
@@ -1690,16 +1765,16 @@
       <c r="C25" s="6">
         <v>10</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="6">
+        <v>4</v>
+      </c>
+      <c r="E25" s="5">
         <v>-56</v>
       </c>
-      <c r="E25" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F25" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G25" s="4">
         <v>-99</v>
       </c>
       <c r="H25" s="5">
@@ -1711,14 +1786,17 @@
       <c r="J25" s="5">
         <v>-99</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="5">
         <v>-99</v>
       </c>
       <c r="L25" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>1</v>
       </c>
@@ -1728,16 +1806,16 @@
       <c r="C26" s="6">
         <v>10</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="6">
+        <v>4</v>
+      </c>
+      <c r="E26" s="5">
         <v>-55</v>
       </c>
-      <c r="E26" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F26" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="F26" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G26" s="4">
         <v>-99</v>
       </c>
       <c r="H26" s="5">
@@ -1747,16 +1825,19 @@
         <v>-99</v>
       </c>
       <c r="J26" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K26" s="5">
         <v>-87</v>
       </c>
-      <c r="K26" s="17">
-        <v>-99</v>
-      </c>
       <c r="L26" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>1</v>
       </c>
@@ -1766,16 +1847,16 @@
       <c r="C27" s="6">
         <v>10</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="6">
+        <v>4</v>
+      </c>
+      <c r="E27" s="4">
         <v>-61</v>
       </c>
-      <c r="E27" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F27" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="F27" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G27" s="4">
         <v>-99</v>
       </c>
       <c r="H27" s="5">
@@ -1787,14 +1868,17 @@
       <c r="J27" s="5">
         <v>-99</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L27" s="17">
         <v>-80</v>
       </c>
-      <c r="L27" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>1</v>
       </c>
@@ -1804,16 +1888,16 @@
       <c r="C28" s="6">
         <v>10</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="6">
+        <v>4</v>
+      </c>
+      <c r="E28" s="5">
         <v>-62</v>
       </c>
-      <c r="E28" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F28" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="F28" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G28" s="4">
         <v>-99</v>
       </c>
       <c r="H28" s="5">
@@ -1825,14 +1909,17 @@
       <c r="J28" s="5">
         <v>-99</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L28" s="17">
         <v>-77</v>
       </c>
-      <c r="L28" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>1</v>
       </c>
@@ -1842,16 +1929,16 @@
       <c r="C29" s="6">
         <v>10</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="6">
+        <v>4</v>
+      </c>
+      <c r="E29" s="5">
         <v>-52</v>
       </c>
-      <c r="E29" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F29" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="F29" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G29" s="4">
         <v>-99</v>
       </c>
       <c r="H29" s="5">
@@ -1861,16 +1948,19 @@
         <v>-99</v>
       </c>
       <c r="J29" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K29" s="5">
         <v>-88</v>
       </c>
-      <c r="K29" s="17">
-        <v>-99</v>
-      </c>
       <c r="L29" s="17">
+        <v>-99</v>
+      </c>
+      <c r="M29" s="17">
         <v>-78</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>1</v>
       </c>
@@ -1880,16 +1970,16 @@
       <c r="C30" s="6">
         <v>10</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="6">
+        <v>4</v>
+      </c>
+      <c r="E30" s="5">
         <v>-57</v>
       </c>
-      <c r="E30" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F30" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="F30" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G30" s="4">
         <v>-99</v>
       </c>
       <c r="H30" s="5">
@@ -1901,14 +1991,17 @@
       <c r="J30" s="5">
         <v>-99</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K30" s="5">
         <v>-99</v>
       </c>
       <c r="L30" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -1918,18 +2011,18 @@
       <c r="C31" s="6">
         <v>10</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="6">
+        <v>4</v>
+      </c>
+      <c r="E31" s="5">
         <v>-51</v>
       </c>
-      <c r="E31" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F31" s="4">
+      <c r="F31" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G31" s="4">
         <v>-81</v>
       </c>
-      <c r="G31" s="5">
-        <v>-99</v>
-      </c>
       <c r="H31" s="5">
         <v>-99</v>
       </c>
@@ -1939,14 +2032,17 @@
       <c r="J31" s="5">
         <v>-99</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L31" s="17">
         <v>-77</v>
       </c>
-      <c r="L31" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>1</v>
       </c>
@@ -1956,16 +2052,16 @@
       <c r="C32" s="6">
         <v>10</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="6">
+        <v>4</v>
+      </c>
+      <c r="E32" s="5">
         <v>-57</v>
       </c>
-      <c r="E32" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F32" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="F32" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G32" s="4">
         <v>-99</v>
       </c>
       <c r="H32" s="5">
@@ -1977,14 +2073,17 @@
       <c r="J32" s="5">
         <v>-99</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K32" s="5">
         <v>-99</v>
       </c>
       <c r="L32" s="17">
+        <v>-99</v>
+      </c>
+      <c r="M32" s="17">
         <v>-74</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>1</v>
       </c>
@@ -1994,18 +2093,18 @@
       <c r="C33" s="6">
         <v>10</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="6">
+        <v>4</v>
+      </c>
+      <c r="E33" s="5">
         <v>-59</v>
       </c>
-      <c r="E33" s="5">
-        <v>-99</v>
-      </c>
       <c r="F33" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G33" s="5">
         <v>-83</v>
       </c>
-      <c r="G33" s="5">
-        <v>-99</v>
-      </c>
       <c r="H33" s="5">
         <v>-99</v>
       </c>
@@ -2015,14 +2114,17 @@
       <c r="J33" s="5">
         <v>-99</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="5">
         <v>-99</v>
       </c>
       <c r="L33" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>1</v>
       </c>
@@ -2032,18 +2134,18 @@
       <c r="C34" s="6">
         <v>10</v>
       </c>
-      <c r="D34" s="5">
-        <v>-99</v>
+      <c r="D34" s="6">
+        <v>4</v>
       </c>
       <c r="E34" s="5">
         <v>-99</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G34" s="4">
         <v>-85</v>
       </c>
-      <c r="G34" s="5">
-        <v>-99</v>
-      </c>
       <c r="H34" s="5">
         <v>-99</v>
       </c>
@@ -2053,14 +2155,17 @@
       <c r="J34" s="5">
         <v>-99</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="5">
         <v>-99</v>
       </c>
       <c r="L34" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>1</v>
       </c>
@@ -2070,18 +2175,18 @@
       <c r="C35" s="6">
         <v>10</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="6">
+        <v>4</v>
+      </c>
+      <c r="E35" s="5">
         <v>-57</v>
       </c>
-      <c r="E35" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F35" s="4">
+      <c r="F35" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G35" s="4">
         <v>-80</v>
       </c>
-      <c r="G35" s="5">
-        <v>-99</v>
-      </c>
       <c r="H35" s="5">
         <v>-99</v>
       </c>
@@ -2091,14 +2196,17 @@
       <c r="J35" s="5">
         <v>-99</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K35" s="5">
         <v>-99</v>
       </c>
       <c r="L35" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>1</v>
       </c>
@@ -2108,16 +2216,16 @@
       <c r="C36" s="6">
         <v>10</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="6">
+        <v>4</v>
+      </c>
+      <c r="E36" s="5">
         <v>-54</v>
       </c>
-      <c r="E36" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F36" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="F36" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G36" s="4">
         <v>-99</v>
       </c>
       <c r="H36" s="5">
@@ -2129,14 +2237,17 @@
       <c r="J36" s="5">
         <v>-99</v>
       </c>
-      <c r="K36" s="17">
+      <c r="K36" s="5">
         <v>-99</v>
       </c>
       <c r="L36" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M36" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>1</v>
       </c>
@@ -2146,16 +2257,16 @@
       <c r="C37" s="6">
         <v>10</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="6">
+        <v>4</v>
+      </c>
+      <c r="E37" s="5">
         <v>-59</v>
       </c>
-      <c r="E37" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F37" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G37" s="5">
+      <c r="F37" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G37" s="4">
         <v>-99</v>
       </c>
       <c r="H37" s="5">
@@ -2167,14 +2278,17 @@
       <c r="J37" s="5">
         <v>-99</v>
       </c>
-      <c r="K37" s="17">
+      <c r="K37" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L37" s="17">
         <v>-73</v>
       </c>
-      <c r="L37" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M37" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>1</v>
       </c>
@@ -2184,16 +2298,16 @@
       <c r="C38" s="6">
         <v>10</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="6">
+        <v>4</v>
+      </c>
+      <c r="E38" s="5">
         <v>-58</v>
       </c>
-      <c r="E38" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F38" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G38" s="5">
+      <c r="F38" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G38" s="4">
         <v>-99</v>
       </c>
       <c r="H38" s="5">
@@ -2203,16 +2317,19 @@
         <v>-99</v>
       </c>
       <c r="J38" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K38" s="5">
         <v>-80</v>
       </c>
-      <c r="K38" s="17">
-        <v>-99</v>
-      </c>
       <c r="L38" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>1</v>
       </c>
@@ -2222,16 +2339,16 @@
       <c r="C39" s="6">
         <v>10</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="6">
+        <v>4</v>
+      </c>
+      <c r="E39" s="5">
         <v>-56</v>
       </c>
-      <c r="E39" s="5">
+      <c r="F39" s="5">
         <v>-85</v>
       </c>
-      <c r="F39" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G39" s="5">
+      <c r="G39" s="4">
         <v>-99</v>
       </c>
       <c r="H39" s="5">
@@ -2241,16 +2358,19 @@
         <v>-99</v>
       </c>
       <c r="J39" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K39" s="5">
         <v>-85</v>
       </c>
-      <c r="K39" s="17">
-        <v>-99</v>
-      </c>
       <c r="L39" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>1</v>
       </c>
@@ -2260,18 +2380,18 @@
       <c r="C40" s="6">
         <v>10</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="6">
+        <v>4</v>
+      </c>
+      <c r="E40" s="5">
         <v>-58</v>
       </c>
-      <c r="E40" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F40" s="4">
+      <c r="F40" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G40" s="4">
         <v>-82</v>
       </c>
-      <c r="G40" s="5">
-        <v>-99</v>
-      </c>
       <c r="H40" s="5">
         <v>-99</v>
       </c>
@@ -2279,16 +2399,19 @@
         <v>-99</v>
       </c>
       <c r="J40" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K40" s="5">
         <v>-80</v>
       </c>
-      <c r="K40" s="17">
-        <v>-99</v>
-      </c>
       <c r="L40" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>1</v>
       </c>
@@ -2298,16 +2421,16 @@
       <c r="C41" s="6">
         <v>10</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="6">
+        <v>4</v>
+      </c>
+      <c r="E41" s="5">
         <v>-55</v>
       </c>
-      <c r="E41" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F41" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G41" s="5">
+      <c r="F41" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G41" s="4">
         <v>-99</v>
       </c>
       <c r="H41" s="5">
@@ -2319,14 +2442,17 @@
       <c r="J41" s="5">
         <v>-99</v>
       </c>
-      <c r="K41" s="17">
+      <c r="K41" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L41" s="17">
         <v>-76</v>
       </c>
-      <c r="L41" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>1</v>
       </c>
@@ -2336,18 +2462,18 @@
       <c r="C42" s="6">
         <v>10</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="6">
+        <v>4</v>
+      </c>
+      <c r="E42" s="5">
         <v>-56</v>
       </c>
-      <c r="E42" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F42" s="4">
+      <c r="F42" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G42" s="4">
         <v>-89</v>
       </c>
-      <c r="G42" s="5">
-        <v>-99</v>
-      </c>
       <c r="H42" s="5">
         <v>-99</v>
       </c>
@@ -2357,14 +2483,17 @@
       <c r="J42" s="5">
         <v>-99</v>
       </c>
-      <c r="K42" s="17">
+      <c r="K42" s="5">
         <v>-99</v>
       </c>
       <c r="L42" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>1</v>
       </c>
@@ -2374,16 +2503,16 @@
       <c r="C43" s="6">
         <v>10</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="6">
+        <v>4</v>
+      </c>
+      <c r="E43" s="5">
         <v>-57</v>
       </c>
-      <c r="E43" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F43" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G43" s="5">
+      <c r="F43" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G43" s="4">
         <v>-99</v>
       </c>
       <c r="H43" s="5">
@@ -2395,14 +2524,17 @@
       <c r="J43" s="5">
         <v>-99</v>
       </c>
-      <c r="K43" s="17">
+      <c r="K43" s="5">
         <v>-99</v>
       </c>
       <c r="L43" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>1</v>
       </c>
@@ -2412,16 +2544,16 @@
       <c r="C44" s="6">
         <v>10</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="6">
+        <v>4</v>
+      </c>
+      <c r="E44" s="5">
         <v>-58</v>
       </c>
-      <c r="E44" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F44" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G44" s="5">
+      <c r="F44" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G44" s="4">
         <v>-99</v>
       </c>
       <c r="H44" s="5">
@@ -2433,14 +2565,17 @@
       <c r="J44" s="5">
         <v>-99</v>
       </c>
-      <c r="K44" s="17">
+      <c r="K44" s="5">
         <v>-99</v>
       </c>
       <c r="L44" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>1</v>
       </c>
@@ -2450,16 +2585,16 @@
       <c r="C45" s="6">
         <v>10</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="6">
+        <v>4</v>
+      </c>
+      <c r="E45" s="5">
         <v>-55</v>
       </c>
-      <c r="E45" s="5">
+      <c r="F45" s="5">
         <v>-79</v>
       </c>
-      <c r="F45" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G45" s="5">
+      <c r="G45" s="4">
         <v>-99</v>
       </c>
       <c r="H45" s="5">
@@ -2471,14 +2606,17 @@
       <c r="J45" s="5">
         <v>-99</v>
       </c>
-      <c r="K45" s="17">
+      <c r="K45" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L45" s="17">
         <v>-73</v>
       </c>
-      <c r="L45" s="17">
+      <c r="M45" s="17">
         <v>-76</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>1</v>
       </c>
@@ -2488,16 +2626,16 @@
       <c r="C46" s="6">
         <v>10</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="6">
+        <v>4</v>
+      </c>
+      <c r="E46" s="5">
         <v>-57</v>
       </c>
-      <c r="E46" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F46" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G46" s="5">
+      <c r="F46" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G46" s="4">
         <v>-99</v>
       </c>
       <c r="H46" s="5">
@@ -2509,14 +2647,17 @@
       <c r="J46" s="5">
         <v>-99</v>
       </c>
-      <c r="K46" s="17">
+      <c r="K46" s="5">
         <v>-99</v>
       </c>
       <c r="L46" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>1</v>
       </c>
@@ -2526,18 +2667,18 @@
       <c r="C47" s="6">
         <v>10</v>
       </c>
-      <c r="D47" s="5">
-        <v>-99</v>
+      <c r="D47" s="6">
+        <v>4</v>
       </c>
       <c r="E47" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F47" s="5">
         <v>-84</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="4">
         <v>-84</v>
       </c>
-      <c r="G47" s="5">
-        <v>-99</v>
-      </c>
       <c r="H47" s="5">
         <v>-99</v>
       </c>
@@ -2547,14 +2688,17 @@
       <c r="J47" s="5">
         <v>-99</v>
       </c>
-      <c r="K47" s="17">
+      <c r="K47" s="5">
         <v>-99</v>
       </c>
       <c r="L47" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>1</v>
       </c>
@@ -2564,12 +2708,12 @@
       <c r="C48" s="6">
         <v>10</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="6">
+        <v>4</v>
+      </c>
+      <c r="E48" s="5">
         <v>-52</v>
       </c>
-      <c r="E48" s="5">
-        <v>-99</v>
-      </c>
       <c r="F48" s="5">
         <v>-99</v>
       </c>
@@ -2585,14 +2729,17 @@
       <c r="J48" s="5">
         <v>-99</v>
       </c>
-      <c r="K48" s="17">
+      <c r="K48" s="5">
         <v>-99</v>
       </c>
       <c r="L48" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>1</v>
       </c>
@@ -2602,12 +2749,12 @@
       <c r="C49" s="6">
         <v>10</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="6">
+        <v>4</v>
+      </c>
+      <c r="E49" s="5">
         <v>-63</v>
       </c>
-      <c r="E49" s="5">
-        <v>-99</v>
-      </c>
       <c r="F49" s="5">
         <v>-99</v>
       </c>
@@ -2621,16 +2768,19 @@
         <v>-99</v>
       </c>
       <c r="J49" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K49" s="5">
         <v>-83</v>
       </c>
-      <c r="K49" s="17">
-        <v>-99</v>
-      </c>
       <c r="L49" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>1</v>
       </c>
@@ -2640,35 +2790,38 @@
       <c r="C50" s="6">
         <v>10</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="6">
+        <v>4</v>
+      </c>
+      <c r="E50" s="5">
         <v>-65</v>
       </c>
-      <c r="E50" s="5">
-        <v>-99</v>
-      </c>
       <c r="F50" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G50" s="5">
         <v>-78</v>
       </c>
-      <c r="G50" s="5">
-        <v>-99</v>
-      </c>
       <c r="H50" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I50" s="5">
         <v>-88</v>
       </c>
-      <c r="I50" s="5">
+      <c r="J50" s="5">
         <v>-81</v>
       </c>
-      <c r="J50" s="5">
+      <c r="K50" s="5">
         <v>-84</v>
-      </c>
-      <c r="K50" s="17">
-        <v>-82</v>
       </c>
       <c r="L50" s="17">
         <v>-82</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="17">
+        <v>-82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>1</v>
       </c>
@@ -2678,35 +2831,38 @@
       <c r="C51" s="6">
         <v>10</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="6">
+        <v>4</v>
+      </c>
+      <c r="E51" s="5">
         <v>-56</v>
       </c>
-      <c r="E51" s="5">
-        <v>-99</v>
-      </c>
       <c r="F51" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G51" s="5">
         <v>-81</v>
       </c>
-      <c r="G51" s="5">
-        <v>-99</v>
-      </c>
       <c r="H51" s="5">
         <v>-99</v>
       </c>
       <c r="I51" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J51" s="5">
         <v>-72</v>
       </c>
-      <c r="J51" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K51" s="17">
-        <v>-71</v>
+      <c r="K51" s="5">
+        <v>-99</v>
       </c>
       <c r="L51" s="17">
         <v>-71</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="17">
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>1</v>
       </c>
@@ -2716,18 +2872,18 @@
       <c r="C52" s="6">
         <v>10</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="6">
+        <v>4</v>
+      </c>
+      <c r="E52" s="5">
         <v>-64</v>
       </c>
-      <c r="E52" s="5">
-        <v>-99</v>
-      </c>
       <c r="F52" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G52" s="5">
         <v>-85</v>
       </c>
-      <c r="G52" s="5">
-        <v>-99</v>
-      </c>
       <c r="H52" s="5">
         <v>-99</v>
       </c>
@@ -2737,14 +2893,17 @@
       <c r="J52" s="5">
         <v>-99</v>
       </c>
-      <c r="K52" s="17">
+      <c r="K52" s="5">
         <v>-99</v>
       </c>
       <c r="L52" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>1</v>
       </c>
@@ -2754,18 +2913,18 @@
       <c r="C53" s="6">
         <v>10</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="6">
+        <v>4</v>
+      </c>
+      <c r="E53" s="5">
         <v>-65</v>
       </c>
-      <c r="E53" s="5">
-        <v>-99</v>
-      </c>
       <c r="F53" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G53" s="5">
         <v>-84</v>
       </c>
-      <c r="G53" s="5">
-        <v>-99</v>
-      </c>
       <c r="H53" s="5">
         <v>-99</v>
       </c>
@@ -2775,14 +2934,17 @@
       <c r="J53" s="5">
         <v>-99</v>
       </c>
-      <c r="K53" s="17">
+      <c r="K53" s="5">
         <v>-99</v>
       </c>
       <c r="L53" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>1</v>
       </c>
@@ -2792,35 +2954,38 @@
       <c r="C54" s="6">
         <v>10</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="6">
+        <v>4</v>
+      </c>
+      <c r="E54" s="5">
         <v>-61</v>
-      </c>
-      <c r="E54" s="5">
-        <v>-84</v>
       </c>
       <c r="F54" s="5">
         <v>-84</v>
       </c>
       <c r="G54" s="5">
-        <v>-99</v>
+        <v>-84</v>
       </c>
       <c r="H54" s="5">
         <v>-99</v>
       </c>
       <c r="I54" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J54" s="5">
         <v>-79</v>
       </c>
-      <c r="J54" s="5">
+      <c r="K54" s="5">
         <v>-86</v>
       </c>
-      <c r="K54" s="17">
-        <v>-99</v>
-      </c>
       <c r="L54" s="17">
+        <v>-99</v>
+      </c>
+      <c r="M54" s="17">
         <v>-82</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>1</v>
       </c>
@@ -2830,12 +2995,12 @@
       <c r="C55" s="6">
         <v>10</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="6">
+        <v>4</v>
+      </c>
+      <c r="E55" s="5">
         <v>-63</v>
       </c>
-      <c r="E55" s="5">
-        <v>-99</v>
-      </c>
       <c r="F55" s="5">
         <v>-99</v>
       </c>
@@ -2851,14 +3016,17 @@
       <c r="J55" s="5">
         <v>-99</v>
       </c>
-      <c r="K55" s="17">
+      <c r="K55" s="5">
         <v>-99</v>
       </c>
       <c r="L55" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>1</v>
       </c>
@@ -2868,12 +3036,12 @@
       <c r="C56" s="6">
         <v>10</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="6">
+        <v>4</v>
+      </c>
+      <c r="E56" s="5">
         <v>-61</v>
       </c>
-      <c r="E56" s="5">
-        <v>-99</v>
-      </c>
       <c r="F56" s="5">
         <v>-99</v>
       </c>
@@ -2889,14 +3057,17 @@
       <c r="J56" s="5">
         <v>-99</v>
       </c>
-      <c r="K56" s="17">
+      <c r="K56" s="5">
         <v>-99</v>
       </c>
       <c r="L56" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>1</v>
       </c>
@@ -2906,18 +3077,18 @@
       <c r="C57" s="6">
         <v>10</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="6">
+        <v>4</v>
+      </c>
+      <c r="E57" s="5">
         <v>-65</v>
       </c>
-      <c r="E57" s="5">
-        <v>-99</v>
-      </c>
       <c r="F57" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G57" s="5">
         <v>-83</v>
       </c>
-      <c r="G57" s="5">
-        <v>-99</v>
-      </c>
       <c r="H57" s="5">
         <v>-99</v>
       </c>
@@ -2927,14 +3098,17 @@
       <c r="J57" s="5">
         <v>-99</v>
       </c>
-      <c r="K57" s="17">
+      <c r="K57" s="5">
         <v>-99</v>
       </c>
       <c r="L57" s="17">
+        <v>-99</v>
+      </c>
+      <c r="M57" s="17">
         <v>-80</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>1</v>
       </c>
@@ -2944,12 +3118,12 @@
       <c r="C58" s="6">
         <v>10</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="6">
+        <v>4</v>
+      </c>
+      <c r="E58" s="5">
         <v>-63</v>
       </c>
-      <c r="E58" s="5">
-        <v>-99</v>
-      </c>
       <c r="F58" s="5">
         <v>-99</v>
       </c>
@@ -2963,16 +3137,19 @@
         <v>-99</v>
       </c>
       <c r="J58" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K58" s="5">
         <v>-89</v>
       </c>
-      <c r="K58" s="17">
-        <v>-99</v>
-      </c>
       <c r="L58" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>1</v>
       </c>
@@ -2982,12 +3159,12 @@
       <c r="C59" s="6">
         <v>10</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="6">
+        <v>4</v>
+      </c>
+      <c r="E59" s="5">
         <v>-63</v>
       </c>
-      <c r="E59" s="5">
-        <v>-99</v>
-      </c>
       <c r="F59" s="5">
         <v>-99</v>
       </c>
@@ -3003,14 +3180,17 @@
       <c r="J59" s="5">
         <v>-99</v>
       </c>
-      <c r="K59" s="17">
+      <c r="K59" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L59" s="17">
         <v>-74</v>
       </c>
-      <c r="L59" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>1</v>
       </c>
@@ -3020,18 +3200,18 @@
       <c r="C60" s="6">
         <v>10</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="6">
+        <v>4</v>
+      </c>
+      <c r="E60" s="5">
         <v>-57</v>
       </c>
-      <c r="E60" s="5">
-        <v>-99</v>
-      </c>
       <c r="F60" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G60" s="5">
         <v>-84</v>
       </c>
-      <c r="G60" s="5">
-        <v>-99</v>
-      </c>
       <c r="H60" s="5">
         <v>-99</v>
       </c>
@@ -3041,14 +3221,17 @@
       <c r="J60" s="5">
         <v>-99</v>
       </c>
-      <c r="K60" s="17">
+      <c r="K60" s="5">
         <v>-99</v>
       </c>
       <c r="L60" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>1</v>
       </c>
@@ -3058,35 +3241,38 @@
       <c r="C61" s="6">
         <v>10</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="6">
+        <v>4</v>
+      </c>
+      <c r="E61" s="5">
         <v>-56</v>
       </c>
-      <c r="E61" s="5">
-        <v>-99</v>
-      </c>
       <c r="F61" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G61" s="5">
         <v>-81</v>
       </c>
-      <c r="G61" s="5">
-        <v>-99</v>
-      </c>
       <c r="H61" s="5">
         <v>-99</v>
       </c>
       <c r="I61" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J61" s="5">
         <v>-74</v>
       </c>
-      <c r="J61" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K61" s="17">
+      <c r="K61" s="5">
         <v>-99</v>
       </c>
       <c r="L61" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>1</v>
       </c>
@@ -3096,18 +3282,18 @@
       <c r="C62" s="6">
         <v>10</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="6">
+        <v>4</v>
+      </c>
+      <c r="E62" s="5">
         <v>-57</v>
       </c>
-      <c r="E62" s="5">
-        <v>-99</v>
-      </c>
       <c r="F62" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G62" s="5">
         <v>-84</v>
       </c>
-      <c r="G62" s="5">
-        <v>-99</v>
-      </c>
       <c r="H62" s="5">
         <v>-99</v>
       </c>
@@ -3115,16 +3301,19 @@
         <v>-99</v>
       </c>
       <c r="J62" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K62" s="5">
         <v>-79</v>
       </c>
-      <c r="K62" s="17">
-        <v>-99</v>
-      </c>
       <c r="L62" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>20</v>
       </c>
@@ -3132,9 +3321,7 @@
         <v>20</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="D63" s="5"/>
       <c r="E63" s="5" t="s">
         <v>20</v>
       </c>
@@ -3153,14 +3340,17 @@
       <c r="J63" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K63" s="17" t="s">
+      <c r="K63" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L63" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -3171,10 +3361,11 @@
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
-      <c r="K64" s="17"/>
+      <c r="K64" s="5"/>
       <c r="L64" s="17"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="17"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -3185,10 +3376,11 @@
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
-      <c r="K65" s="17"/>
+      <c r="K65" s="5"/>
       <c r="L65" s="17"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="17"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -3199,10 +3391,11 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
-      <c r="K66" s="17"/>
+      <c r="K66" s="5"/>
       <c r="L66" s="17"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="17"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -3213,10 +3406,11 @@
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
-      <c r="K67" s="17"/>
+      <c r="K67" s="5"/>
       <c r="L67" s="17"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="17"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -3227,10 +3421,11 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
-      <c r="K68" s="17"/>
+      <c r="K68" s="5"/>
       <c r="L68" s="17"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="17"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -3241,10 +3436,11 @@
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
-      <c r="K69" s="17"/>
+      <c r="K69" s="5"/>
       <c r="L69" s="17"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="17"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -3255,10 +3451,11 @@
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
-      <c r="K70" s="17"/>
+      <c r="K70" s="5"/>
       <c r="L70" s="17"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="17"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -3269,10 +3466,11 @@
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
-      <c r="K71" s="17"/>
+      <c r="K71" s="5"/>
       <c r="L71" s="17"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="17"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -3283,10 +3481,11 @@
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
-      <c r="K72" s="17"/>
+      <c r="K72" s="5"/>
       <c r="L72" s="17"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="17"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -3297,10 +3496,11 @@
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
-      <c r="K73" s="17"/>
+      <c r="K73" s="5"/>
       <c r="L73" s="17"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="17"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -3311,10 +3511,11 @@
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
-      <c r="K74" s="17"/>
+      <c r="K74" s="5"/>
       <c r="L74" s="17"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="17"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -3325,10 +3526,11 @@
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
-      <c r="K75" s="17"/>
+      <c r="K75" s="5"/>
       <c r="L75" s="17"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="17"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -3339,10 +3541,11 @@
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
-      <c r="K76" s="17"/>
+      <c r="K76" s="5"/>
       <c r="L76" s="17"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="17"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -3353,10 +3556,11 @@
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
-      <c r="K77" s="17"/>
+      <c r="K77" s="5"/>
       <c r="L77" s="17"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="17"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -3367,10 +3571,11 @@
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
-      <c r="K78" s="17"/>
+      <c r="K78" s="5"/>
       <c r="L78" s="17"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M78" s="17"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -3381,10 +3586,11 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
-      <c r="K79" s="17"/>
+      <c r="K79" s="5"/>
       <c r="L79" s="17"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M79" s="17"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -3395,10 +3601,11 @@
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
-      <c r="K80" s="17"/>
+      <c r="K80" s="5"/>
       <c r="L80" s="17"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="17"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -3409,10 +3616,11 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
-      <c r="K81" s="17"/>
+      <c r="K81" s="5"/>
       <c r="L81" s="17"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="17"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -3423,10 +3631,11 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
-      <c r="K82" s="17"/>
+      <c r="K82" s="5"/>
       <c r="L82" s="17"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="17"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -3437,10 +3646,11 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
-      <c r="K83" s="17"/>
+      <c r="K83" s="5"/>
       <c r="L83" s="17"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="17"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -3451,10 +3661,11 @@
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
-      <c r="K84" s="17"/>
+      <c r="K84" s="5"/>
       <c r="L84" s="17"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="17"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -3465,10 +3676,11 @@
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
-      <c r="K85" s="17"/>
+      <c r="K85" s="5"/>
       <c r="L85" s="17"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="17"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -3479,10 +3691,11 @@
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
-      <c r="K86" s="17"/>
+      <c r="K86" s="5"/>
       <c r="L86" s="17"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="17"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -3493,10 +3706,11 @@
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
-      <c r="K87" s="17"/>
+      <c r="K87" s="5"/>
       <c r="L87" s="17"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="17"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -3507,10 +3721,11 @@
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
-      <c r="K88" s="17"/>
+      <c r="K88" s="5"/>
       <c r="L88" s="17"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="17"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -3521,10 +3736,11 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
-      <c r="K89" s="17"/>
+      <c r="K89" s="5"/>
       <c r="L89" s="17"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="17"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -3535,10 +3751,11 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
-      <c r="K90" s="17"/>
+      <c r="K90" s="5"/>
       <c r="L90" s="17"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="17"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -3549,10 +3766,11 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
-      <c r="K91" s="17"/>
+      <c r="K91" s="5"/>
       <c r="L91" s="17"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="17"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -3563,10 +3781,11 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
-      <c r="K92" s="17"/>
+      <c r="K92" s="5"/>
       <c r="L92" s="17"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="17"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3577,10 +3796,11 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
-      <c r="K93" s="17"/>
+      <c r="K93" s="5"/>
       <c r="L93" s="17"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="17"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3591,10 +3811,11 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
-      <c r="K94" s="17"/>
+      <c r="K94" s="5"/>
       <c r="L94" s="17"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="17"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -3605,10 +3826,11 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
-      <c r="K95" s="17"/>
+      <c r="K95" s="5"/>
       <c r="L95" s="17"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="17"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -3619,10 +3841,11 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
-      <c r="K96" s="17"/>
+      <c r="K96" s="5"/>
       <c r="L96" s="17"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="17"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -3633,10 +3856,11 @@
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
-      <c r="K97" s="17"/>
+      <c r="K97" s="5"/>
       <c r="L97" s="17"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="17"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -3647,10 +3871,11 @@
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
-      <c r="K98" s="17"/>
+      <c r="K98" s="5"/>
       <c r="L98" s="17"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="17"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -3661,10 +3886,11 @@
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
-      <c r="K99" s="17"/>
+      <c r="K99" s="5"/>
       <c r="L99" s="17"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="17"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -3675,10 +3901,11 @@
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
-      <c r="K100" s="17"/>
+      <c r="K100" s="5"/>
       <c r="L100" s="17"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="17"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -3689,10 +3916,11 @@
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
-      <c r="K101" s="17"/>
+      <c r="K101" s="5"/>
       <c r="L101" s="17"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="17"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -3703,10 +3931,11 @@
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
-      <c r="K102" s="17"/>
+      <c r="K102" s="5"/>
       <c r="L102" s="17"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M102" s="17"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -3717,10 +3946,11 @@
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
-      <c r="K103" s="17"/>
+      <c r="K103" s="5"/>
       <c r="L103" s="17"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M103" s="17"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -3731,10 +3961,11 @@
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
-      <c r="K104" s="17"/>
+      <c r="K104" s="5"/>
       <c r="L104" s="17"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M104" s="17"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -3745,10 +3976,11 @@
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
-      <c r="K105" s="17"/>
+      <c r="K105" s="5"/>
       <c r="L105" s="17"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M105" s="17"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -3759,10 +3991,11 @@
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
-      <c r="K106" s="17"/>
+      <c r="K106" s="5"/>
       <c r="L106" s="17"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M106" s="17"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -3773,10 +4006,11 @@
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
-      <c r="K107" s="17"/>
+      <c r="K107" s="5"/>
       <c r="L107" s="17"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M107" s="17"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -3787,10 +4021,11 @@
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
-      <c r="K108" s="17"/>
+      <c r="K108" s="5"/>
       <c r="L108" s="17"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M108" s="17"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -3801,10 +4036,11 @@
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
-      <c r="K109" s="17"/>
+      <c r="K109" s="5"/>
       <c r="L109" s="17"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M109" s="17"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -3815,10 +4051,11 @@
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
-      <c r="K110" s="17"/>
+      <c r="K110" s="5"/>
       <c r="L110" s="17"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M110" s="17"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -3829,10 +4066,11 @@
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
-      <c r="K111" s="17"/>
+      <c r="K111" s="5"/>
       <c r="L111" s="17"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M111" s="17"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -3843,10 +4081,11 @@
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
-      <c r="K112" s="17"/>
+      <c r="K112" s="5"/>
       <c r="L112" s="17"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M112" s="17"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -3857,10 +4096,11 @@
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
-      <c r="K113" s="17"/>
+      <c r="K113" s="5"/>
       <c r="L113" s="17"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M113" s="17"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -3871,10 +4111,11 @@
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
-      <c r="K114" s="17"/>
+      <c r="K114" s="5"/>
       <c r="L114" s="17"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M114" s="17"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -3885,10 +4126,11 @@
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
-      <c r="K115" s="17"/>
+      <c r="K115" s="5"/>
       <c r="L115" s="17"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M115" s="17"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -3899,10 +4141,11 @@
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
-      <c r="K116" s="17"/>
+      <c r="K116" s="5"/>
       <c r="L116" s="17"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M116" s="17"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -3913,10 +4156,11 @@
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
-      <c r="K117" s="17"/>
+      <c r="K117" s="5"/>
       <c r="L117" s="17"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M117" s="17"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -3927,10 +4171,11 @@
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
-      <c r="K118" s="17"/>
+      <c r="K118" s="5"/>
       <c r="L118" s="17"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M118" s="17"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -3941,10 +4186,11 @@
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
-      <c r="K119" s="17"/>
+      <c r="K119" s="5"/>
       <c r="L119" s="17"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M119" s="17"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -3955,10 +4201,11 @@
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
-      <c r="K120" s="17"/>
+      <c r="K120" s="5"/>
       <c r="L120" s="17"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M120" s="17"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -3969,10 +4216,11 @@
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
-      <c r="K121" s="17"/>
+      <c r="K121" s="5"/>
       <c r="L121" s="17"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M121" s="17"/>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -3983,10 +4231,11 @@
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
-      <c r="K122" s="17"/>
+      <c r="K122" s="5"/>
       <c r="L122" s="17"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M122" s="17"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -3997,10 +4246,11 @@
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
-      <c r="K123" s="17"/>
+      <c r="K123" s="5"/>
       <c r="L123" s="17"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M123" s="17"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -4011,10 +4261,11 @@
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
-      <c r="K124" s="17"/>
+      <c r="K124" s="5"/>
       <c r="L124" s="17"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M124" s="17"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -4025,10 +4276,11 @@
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
-      <c r="K125" s="17"/>
+      <c r="K125" s="5"/>
       <c r="L125" s="17"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M125" s="17"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -4039,10 +4291,11 @@
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
-      <c r="K126" s="17"/>
+      <c r="K126" s="5"/>
       <c r="L126" s="17"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M126" s="17"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -4053,10 +4306,11 @@
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
-      <c r="K127" s="17"/>
+      <c r="K127" s="5"/>
       <c r="L127" s="17"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M127" s="17"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -4067,10 +4321,11 @@
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
-      <c r="K128" s="17"/>
+      <c r="K128" s="5"/>
       <c r="L128" s="17"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M128" s="17"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -4081,10 +4336,11 @@
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
-      <c r="K129" s="17"/>
+      <c r="K129" s="5"/>
       <c r="L129" s="17"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M129" s="17"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -4095,10 +4351,11 @@
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
-      <c r="K130" s="17"/>
+      <c r="K130" s="5"/>
       <c r="L130" s="17"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M130" s="17"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -4109,10 +4366,11 @@
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
-      <c r="K131" s="17"/>
+      <c r="K131" s="5"/>
       <c r="L131" s="17"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M131" s="17"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -4123,10 +4381,11 @@
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
-      <c r="K132" s="17"/>
+      <c r="K132" s="5"/>
       <c r="L132" s="17"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M132" s="17"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -4137,10 +4396,11 @@
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
-      <c r="K133" s="17"/>
+      <c r="K133" s="5"/>
       <c r="L133" s="17"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M133" s="17"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -4151,10 +4411,11 @@
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
-      <c r="K134" s="17"/>
+      <c r="K134" s="5"/>
       <c r="L134" s="17"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M134" s="17"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4165,10 +4426,11 @@
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
-      <c r="K135" s="17"/>
+      <c r="K135" s="5"/>
       <c r="L135" s="17"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M135" s="17"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -4179,10 +4441,11 @@
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
-      <c r="K136" s="17"/>
+      <c r="K136" s="5"/>
       <c r="L136" s="17"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M136" s="17"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -4193,10 +4456,11 @@
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
-      <c r="K137" s="17"/>
+      <c r="K137" s="5"/>
       <c r="L137" s="17"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M137" s="17"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -4207,10 +4471,11 @@
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
-      <c r="K138" s="17"/>
+      <c r="K138" s="5"/>
       <c r="L138" s="17"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M138" s="17"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -4221,10 +4486,11 @@
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
-      <c r="K139" s="17"/>
+      <c r="K139" s="5"/>
       <c r="L139" s="17"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M139" s="17"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -4235,10 +4501,11 @@
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
-      <c r="K140" s="17"/>
+      <c r="K140" s="5"/>
       <c r="L140" s="17"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M140" s="17"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -4249,10 +4516,11 @@
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
-      <c r="K141" s="17"/>
+      <c r="K141" s="5"/>
       <c r="L141" s="17"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M141" s="17"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -4263,10 +4531,11 @@
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
-      <c r="K142" s="17"/>
+      <c r="K142" s="5"/>
       <c r="L142" s="17"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M142" s="17"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -4277,10 +4546,11 @@
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
-      <c r="K143" s="17"/>
+      <c r="K143" s="5"/>
       <c r="L143" s="17"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M143" s="17"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -4291,10 +4561,11 @@
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
-      <c r="K144" s="17"/>
+      <c r="K144" s="5"/>
       <c r="L144" s="17"/>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M144" s="17"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -4305,10 +4576,11 @@
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
-      <c r="K145" s="17"/>
+      <c r="K145" s="5"/>
       <c r="L145" s="17"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M145" s="17"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -4319,10 +4591,11 @@
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
-      <c r="K146" s="17"/>
+      <c r="K146" s="5"/>
       <c r="L146" s="17"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M146" s="17"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -4333,10 +4606,11 @@
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
-      <c r="K147" s="17"/>
+      <c r="K147" s="5"/>
       <c r="L147" s="17"/>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M147" s="17"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -4347,10 +4621,11 @@
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
-      <c r="K148" s="17"/>
+      <c r="K148" s="5"/>
       <c r="L148" s="17"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M148" s="17"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -4361,10 +4636,11 @@
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
-      <c r="K149" s="17"/>
+      <c r="K149" s="5"/>
       <c r="L149" s="17"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M149" s="17"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -4375,10 +4651,11 @@
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
-      <c r="K150" s="17"/>
+      <c r="K150" s="5"/>
       <c r="L150" s="17"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M150" s="17"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -4389,10 +4666,11 @@
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
-      <c r="K151" s="17"/>
+      <c r="K151" s="5"/>
       <c r="L151" s="17"/>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M151" s="17"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -4403,10 +4681,11 @@
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
-      <c r="K152" s="17"/>
+      <c r="K152" s="5"/>
       <c r="L152" s="17"/>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M152" s="17"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -4417,10 +4696,11 @@
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
-      <c r="K153" s="17"/>
+      <c r="K153" s="5"/>
       <c r="L153" s="17"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M153" s="17"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -4431,10 +4711,11 @@
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
-      <c r="K154" s="17"/>
+      <c r="K154" s="5"/>
       <c r="L154" s="17"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M154" s="17"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -4445,10 +4726,11 @@
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
-      <c r="K155" s="17"/>
+      <c r="K155" s="5"/>
       <c r="L155" s="17"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M155" s="17"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -4459,10 +4741,11 @@
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
-      <c r="K156" s="17"/>
+      <c r="K156" s="5"/>
       <c r="L156" s="17"/>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M156" s="17"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -4473,10 +4756,11 @@
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
-      <c r="K157" s="17"/>
+      <c r="K157" s="5"/>
       <c r="L157" s="17"/>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M157" s="17"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -4487,10 +4771,11 @@
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
-      <c r="K158" s="17"/>
+      <c r="K158" s="5"/>
       <c r="L158" s="17"/>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M158" s="17"/>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -4501,10 +4786,11 @@
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
-      <c r="K159" s="17"/>
+      <c r="K159" s="5"/>
       <c r="L159" s="17"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M159" s="17"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -4515,10 +4801,11 @@
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
-      <c r="K160" s="17"/>
+      <c r="K160" s="5"/>
       <c r="L160" s="17"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M160" s="17"/>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -4529,10 +4816,11 @@
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
-      <c r="K161" s="17"/>
+      <c r="K161" s="5"/>
       <c r="L161" s="17"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M161" s="17"/>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -4543,10 +4831,11 @@
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
-      <c r="K162" s="17"/>
+      <c r="K162" s="5"/>
       <c r="L162" s="17"/>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M162" s="17"/>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -4557,10 +4846,11 @@
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
-      <c r="K163" s="17"/>
+      <c r="K163" s="5"/>
       <c r="L163" s="17"/>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M163" s="17"/>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -4571,10 +4861,11 @@
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
-      <c r="K164" s="17"/>
+      <c r="K164" s="5"/>
       <c r="L164" s="17"/>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M164" s="17"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -4585,10 +4876,11 @@
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
-      <c r="K165" s="17"/>
+      <c r="K165" s="5"/>
       <c r="L165" s="17"/>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M165" s="17"/>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -4599,10 +4891,11 @@
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
-      <c r="K166" s="17"/>
+      <c r="K166" s="5"/>
       <c r="L166" s="17"/>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M166" s="17"/>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -4613,10 +4906,11 @@
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
-      <c r="K167" s="17"/>
+      <c r="K167" s="5"/>
       <c r="L167" s="17"/>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M167" s="17"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -4627,10 +4921,11 @@
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
-      <c r="K168" s="17"/>
+      <c r="K168" s="5"/>
       <c r="L168" s="17"/>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M168" s="17"/>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -4641,10 +4936,11 @@
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
-      <c r="K169" s="17"/>
+      <c r="K169" s="5"/>
       <c r="L169" s="17"/>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M169" s="17"/>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -4655,10 +4951,11 @@
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
-      <c r="K170" s="17"/>
+      <c r="K170" s="5"/>
       <c r="L170" s="17"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M170" s="17"/>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -4669,10 +4966,11 @@
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
-      <c r="K171" s="17"/>
+      <c r="K171" s="5"/>
       <c r="L171" s="17"/>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M171" s="17"/>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -4683,10 +4981,11 @@
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
-      <c r="K172" s="17"/>
+      <c r="K172" s="5"/>
       <c r="L172" s="17"/>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M172" s="17"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -4697,10 +4996,11 @@
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
-      <c r="K173" s="17"/>
+      <c r="K173" s="5"/>
       <c r="L173" s="17"/>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M173" s="17"/>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -4711,10 +5011,11 @@
       <c r="H174" s="5"/>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
-      <c r="K174" s="17"/>
+      <c r="K174" s="5"/>
       <c r="L174" s="17"/>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M174" s="17"/>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -4725,10 +5026,11 @@
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
-      <c r="K175" s="17"/>
+      <c r="K175" s="5"/>
       <c r="L175" s="17"/>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M175" s="17"/>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -4739,10 +5041,11 @@
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
-      <c r="K176" s="17"/>
+      <c r="K176" s="5"/>
       <c r="L176" s="17"/>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M176" s="17"/>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -4753,10 +5056,11 @@
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
-      <c r="K177" s="17"/>
+      <c r="K177" s="5"/>
       <c r="L177" s="17"/>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M177" s="17"/>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -4767,10 +5071,11 @@
       <c r="H178" s="5"/>
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
-      <c r="K178" s="17"/>
+      <c r="K178" s="5"/>
       <c r="L178" s="17"/>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M178" s="17"/>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -4781,10 +5086,11 @@
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
-      <c r="K179" s="17"/>
+      <c r="K179" s="5"/>
       <c r="L179" s="17"/>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M179" s="17"/>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -4795,10 +5101,11 @@
       <c r="H180" s="5"/>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
-      <c r="K180" s="17"/>
+      <c r="K180" s="5"/>
       <c r="L180" s="17"/>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M180" s="17"/>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -4809,10 +5116,11 @@
       <c r="H181" s="5"/>
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
-      <c r="K181" s="17"/>
+      <c r="K181" s="5"/>
       <c r="L181" s="17"/>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M181" s="17"/>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -4823,10 +5131,11 @@
       <c r="H182" s="5"/>
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
-      <c r="K182" s="17"/>
+      <c r="K182" s="5"/>
       <c r="L182" s="17"/>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M182" s="17"/>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -4837,10 +5146,11 @@
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
-      <c r="K183" s="17"/>
+      <c r="K183" s="5"/>
       <c r="L183" s="17"/>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M183" s="17"/>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -4851,10 +5161,11 @@
       <c r="H184" s="5"/>
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
-      <c r="K184" s="17"/>
+      <c r="K184" s="5"/>
       <c r="L184" s="17"/>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M184" s="17"/>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -4865,10 +5176,11 @@
       <c r="H185" s="5"/>
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
-      <c r="K185" s="17"/>
+      <c r="K185" s="5"/>
       <c r="L185" s="17"/>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M185" s="17"/>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -4879,10 +5191,11 @@
       <c r="H186" s="5"/>
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
-      <c r="K186" s="17"/>
+      <c r="K186" s="5"/>
       <c r="L186" s="17"/>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M186" s="17"/>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -4893,10 +5206,11 @@
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
-      <c r="K187" s="17"/>
+      <c r="K187" s="5"/>
       <c r="L187" s="17"/>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M187" s="17"/>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -4907,10 +5221,11 @@
       <c r="H188" s="5"/>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
-      <c r="K188" s="17"/>
+      <c r="K188" s="5"/>
       <c r="L188" s="17"/>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M188" s="17"/>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -4921,10 +5236,11 @@
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
-      <c r="K189" s="17"/>
+      <c r="K189" s="5"/>
       <c r="L189" s="17"/>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M189" s="17"/>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -4935,10 +5251,11 @@
       <c r="H190" s="5"/>
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
-      <c r="K190" s="17"/>
+      <c r="K190" s="5"/>
       <c r="L190" s="17"/>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M190" s="17"/>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -4949,10 +5266,11 @@
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
-      <c r="K191" s="17"/>
+      <c r="K191" s="5"/>
       <c r="L191" s="17"/>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M191" s="17"/>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -4963,10 +5281,11 @@
       <c r="H192" s="5"/>
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
-      <c r="K192" s="17"/>
+      <c r="K192" s="5"/>
       <c r="L192" s="17"/>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M192" s="17"/>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -4977,10 +5296,11 @@
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
-      <c r="K193" s="17"/>
+      <c r="K193" s="5"/>
       <c r="L193" s="17"/>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M193" s="17"/>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -4991,10 +5311,11 @@
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
-      <c r="K194" s="17"/>
+      <c r="K194" s="5"/>
       <c r="L194" s="17"/>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M194" s="17"/>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -5005,10 +5326,11 @@
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
-      <c r="K195" s="17"/>
+      <c r="K195" s="5"/>
       <c r="L195" s="17"/>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M195" s="17"/>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -5019,10 +5341,11 @@
       <c r="H196" s="5"/>
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
-      <c r="K196" s="17"/>
+      <c r="K196" s="5"/>
       <c r="L196" s="17"/>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M196" s="17"/>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -5033,10 +5356,11 @@
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
-      <c r="K197" s="17"/>
+      <c r="K197" s="5"/>
       <c r="L197" s="17"/>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M197" s="17"/>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -5047,10 +5371,11 @@
       <c r="H198" s="5"/>
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
-      <c r="K198" s="17"/>
+      <c r="K198" s="5"/>
       <c r="L198" s="17"/>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M198" s="17"/>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -5061,10 +5386,11 @@
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
-      <c r="K199" s="17"/>
+      <c r="K199" s="5"/>
       <c r="L199" s="17"/>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M199" s="17"/>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -5075,10 +5401,11 @@
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
-      <c r="K200" s="17"/>
+      <c r="K200" s="5"/>
       <c r="L200" s="17"/>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M200" s="17"/>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -5089,10 +5416,11 @@
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
-      <c r="K201" s="17"/>
+      <c r="K201" s="5"/>
       <c r="L201" s="17"/>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M201" s="17"/>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -5103,10 +5431,11 @@
       <c r="H202" s="5"/>
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
-      <c r="K202" s="17"/>
+      <c r="K202" s="5"/>
       <c r="L202" s="17"/>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M202" s="17"/>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -5117,10 +5446,11 @@
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
-      <c r="K203" s="17"/>
+      <c r="K203" s="5"/>
       <c r="L203" s="17"/>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M203" s="17"/>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -5131,10 +5461,11 @@
       <c r="H204" s="5"/>
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
-      <c r="K204" s="17"/>
+      <c r="K204" s="5"/>
       <c r="L204" s="17"/>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M204" s="17"/>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -5145,10 +5476,11 @@
       <c r="H205" s="5"/>
       <c r="I205" s="5"/>
       <c r="J205" s="5"/>
-      <c r="K205" s="17"/>
+      <c r="K205" s="5"/>
       <c r="L205" s="17"/>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M205" s="17"/>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -5159,10 +5491,11 @@
       <c r="H206" s="5"/>
       <c r="I206" s="5"/>
       <c r="J206" s="5"/>
-      <c r="K206" s="17"/>
+      <c r="K206" s="5"/>
       <c r="L206" s="17"/>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M206" s="17"/>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -5173,10 +5506,11 @@
       <c r="H207" s="5"/>
       <c r="I207" s="5"/>
       <c r="J207" s="5"/>
-      <c r="K207" s="17"/>
+      <c r="K207" s="5"/>
       <c r="L207" s="17"/>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M207" s="17"/>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -5187,10 +5521,11 @@
       <c r="H208" s="5"/>
       <c r="I208" s="5"/>
       <c r="J208" s="5"/>
-      <c r="K208" s="17"/>
+      <c r="K208" s="5"/>
       <c r="L208" s="17"/>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M208" s="17"/>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -5201,10 +5536,11 @@
       <c r="H209" s="5"/>
       <c r="I209" s="5"/>
       <c r="J209" s="5"/>
-      <c r="K209" s="17"/>
+      <c r="K209" s="5"/>
       <c r="L209" s="17"/>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M209" s="17"/>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -5215,10 +5551,11 @@
       <c r="H210" s="5"/>
       <c r="I210" s="5"/>
       <c r="J210" s="5"/>
-      <c r="K210" s="17"/>
+      <c r="K210" s="5"/>
       <c r="L210" s="17"/>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M210" s="17"/>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -5229,10 +5566,11 @@
       <c r="H211" s="5"/>
       <c r="I211" s="5"/>
       <c r="J211" s="5"/>
-      <c r="K211" s="17"/>
+      <c r="K211" s="5"/>
       <c r="L211" s="17"/>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M211" s="17"/>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -5243,10 +5581,11 @@
       <c r="H212" s="5"/>
       <c r="I212" s="5"/>
       <c r="J212" s="5"/>
-      <c r="K212" s="17"/>
+      <c r="K212" s="5"/>
       <c r="L212" s="17"/>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M212" s="17"/>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -5257,10 +5596,11 @@
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
       <c r="J213" s="5"/>
-      <c r="K213" s="17"/>
+      <c r="K213" s="5"/>
       <c r="L213" s="17"/>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M213" s="17"/>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -5271,10 +5611,11 @@
       <c r="H214" s="5"/>
       <c r="I214" s="5"/>
       <c r="J214" s="5"/>
-      <c r="K214" s="17"/>
+      <c r="K214" s="5"/>
       <c r="L214" s="17"/>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M214" s="17"/>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -5285,10 +5626,11 @@
       <c r="H215" s="5"/>
       <c r="I215" s="5"/>
       <c r="J215" s="5"/>
-      <c r="K215" s="17"/>
+      <c r="K215" s="5"/>
       <c r="L215" s="17"/>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M215" s="17"/>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -5299,10 +5641,11 @@
       <c r="H216" s="5"/>
       <c r="I216" s="5"/>
       <c r="J216" s="5"/>
-      <c r="K216" s="17"/>
+      <c r="K216" s="5"/>
       <c r="L216" s="17"/>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M216" s="17"/>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -5313,10 +5656,11 @@
       <c r="H217" s="5"/>
       <c r="I217" s="5"/>
       <c r="J217" s="5"/>
-      <c r="K217" s="17"/>
+      <c r="K217" s="5"/>
       <c r="L217" s="17"/>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M217" s="17"/>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -5327,10 +5671,11 @@
       <c r="H218" s="5"/>
       <c r="I218" s="5"/>
       <c r="J218" s="5"/>
-      <c r="K218" s="17"/>
+      <c r="K218" s="5"/>
       <c r="L218" s="17"/>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M218" s="17"/>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -5341,10 +5686,11 @@
       <c r="H219" s="5"/>
       <c r="I219" s="5"/>
       <c r="J219" s="5"/>
-      <c r="K219" s="17"/>
+      <c r="K219" s="5"/>
       <c r="L219" s="17"/>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M219" s="17"/>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -5355,10 +5701,11 @@
       <c r="H220" s="5"/>
       <c r="I220" s="5"/>
       <c r="J220" s="5"/>
-      <c r="K220" s="17"/>
+      <c r="K220" s="5"/>
       <c r="L220" s="17"/>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M220" s="17"/>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -5369,10 +5716,11 @@
       <c r="H221" s="5"/>
       <c r="I221" s="5"/>
       <c r="J221" s="5"/>
-      <c r="K221" s="17"/>
+      <c r="K221" s="5"/>
       <c r="L221" s="17"/>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M221" s="17"/>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -5383,10 +5731,11 @@
       <c r="H222" s="5"/>
       <c r="I222" s="5"/>
       <c r="J222" s="5"/>
-      <c r="K222" s="17"/>
+      <c r="K222" s="5"/>
       <c r="L222" s="17"/>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M222" s="17"/>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -5397,10 +5746,11 @@
       <c r="H223" s="5"/>
       <c r="I223" s="5"/>
       <c r="J223" s="5"/>
-      <c r="K223" s="17"/>
+      <c r="K223" s="5"/>
       <c r="L223" s="17"/>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M223" s="17"/>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -5411,10 +5761,11 @@
       <c r="H224" s="5"/>
       <c r="I224" s="5"/>
       <c r="J224" s="5"/>
-      <c r="K224" s="17"/>
+      <c r="K224" s="5"/>
       <c r="L224" s="17"/>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M224" s="17"/>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -5425,10 +5776,11 @@
       <c r="H225" s="5"/>
       <c r="I225" s="5"/>
       <c r="J225" s="5"/>
-      <c r="K225" s="17"/>
+      <c r="K225" s="5"/>
       <c r="L225" s="17"/>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M225" s="17"/>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -5439,10 +5791,11 @@
       <c r="H226" s="5"/>
       <c r="I226" s="5"/>
       <c r="J226" s="5"/>
-      <c r="K226" s="17"/>
+      <c r="K226" s="5"/>
       <c r="L226" s="17"/>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M226" s="17"/>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -5453,10 +5806,11 @@
       <c r="H227" s="5"/>
       <c r="I227" s="5"/>
       <c r="J227" s="5"/>
-      <c r="K227" s="17"/>
+      <c r="K227" s="5"/>
       <c r="L227" s="17"/>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M227" s="17"/>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -5467,10 +5821,11 @@
       <c r="H228" s="5"/>
       <c r="I228" s="5"/>
       <c r="J228" s="5"/>
-      <c r="K228" s="17"/>
+      <c r="K228" s="5"/>
       <c r="L228" s="17"/>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M228" s="17"/>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -5481,10 +5836,11 @@
       <c r="H229" s="5"/>
       <c r="I229" s="5"/>
       <c r="J229" s="5"/>
-      <c r="K229" s="17"/>
+      <c r="K229" s="5"/>
       <c r="L229" s="17"/>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M229" s="17"/>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -5495,10 +5851,11 @@
       <c r="H230" s="5"/>
       <c r="I230" s="5"/>
       <c r="J230" s="5"/>
-      <c r="K230" s="17"/>
+      <c r="K230" s="5"/>
       <c r="L230" s="17"/>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M230" s="17"/>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -5509,10 +5866,11 @@
       <c r="H231" s="5"/>
       <c r="I231" s="5"/>
       <c r="J231" s="5"/>
-      <c r="K231" s="17"/>
+      <c r="K231" s="5"/>
       <c r="L231" s="17"/>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M231" s="17"/>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -5523,10 +5881,11 @@
       <c r="H232" s="5"/>
       <c r="I232" s="5"/>
       <c r="J232" s="5"/>
-      <c r="K232" s="17"/>
+      <c r="K232" s="5"/>
       <c r="L232" s="17"/>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M232" s="17"/>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -5537,10 +5896,11 @@
       <c r="H233" s="5"/>
       <c r="I233" s="5"/>
       <c r="J233" s="5"/>
-      <c r="K233" s="17"/>
+      <c r="K233" s="5"/>
       <c r="L233" s="17"/>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M233" s="17"/>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -5551,10 +5911,11 @@
       <c r="H234" s="5"/>
       <c r="I234" s="5"/>
       <c r="J234" s="5"/>
-      <c r="K234" s="17"/>
+      <c r="K234" s="5"/>
       <c r="L234" s="17"/>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M234" s="17"/>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -5565,10 +5926,11 @@
       <c r="H235" s="5"/>
       <c r="I235" s="5"/>
       <c r="J235" s="5"/>
-      <c r="K235" s="17"/>
+      <c r="K235" s="5"/>
       <c r="L235" s="17"/>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M235" s="17"/>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -5579,10 +5941,11 @@
       <c r="H236" s="5"/>
       <c r="I236" s="5"/>
       <c r="J236" s="5"/>
-      <c r="K236" s="17"/>
+      <c r="K236" s="5"/>
       <c r="L236" s="17"/>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M236" s="17"/>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -5593,10 +5956,11 @@
       <c r="H237" s="5"/>
       <c r="I237" s="5"/>
       <c r="J237" s="5"/>
-      <c r="K237" s="17"/>
+      <c r="K237" s="5"/>
       <c r="L237" s="17"/>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M237" s="17"/>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -5607,10 +5971,11 @@
       <c r="H238" s="5"/>
       <c r="I238" s="5"/>
       <c r="J238" s="5"/>
-      <c r="K238" s="17"/>
+      <c r="K238" s="5"/>
       <c r="L238" s="17"/>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M238" s="17"/>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -5621,10 +5986,11 @@
       <c r="H239" s="5"/>
       <c r="I239" s="5"/>
       <c r="J239" s="5"/>
-      <c r="K239" s="17"/>
+      <c r="K239" s="5"/>
       <c r="L239" s="17"/>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M239" s="17"/>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -5635,10 +6001,11 @@
       <c r="H240" s="5"/>
       <c r="I240" s="5"/>
       <c r="J240" s="5"/>
-      <c r="K240" s="17"/>
+      <c r="K240" s="5"/>
       <c r="L240" s="17"/>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M240" s="17"/>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -5649,10 +6016,11 @@
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
       <c r="J241" s="5"/>
-      <c r="K241" s="17"/>
+      <c r="K241" s="5"/>
       <c r="L241" s="17"/>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M241" s="17"/>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -5663,10 +6031,11 @@
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
       <c r="J242" s="5"/>
-      <c r="K242" s="17"/>
+      <c r="K242" s="5"/>
       <c r="L242" s="17"/>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M242" s="17"/>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -5677,10 +6046,11 @@
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
       <c r="J243" s="5"/>
-      <c r="K243" s="17"/>
+      <c r="K243" s="5"/>
       <c r="L243" s="17"/>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M243" s="17"/>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -5691,10 +6061,11 @@
       <c r="H244" s="5"/>
       <c r="I244" s="5"/>
       <c r="J244" s="5"/>
-      <c r="K244" s="17"/>
+      <c r="K244" s="5"/>
       <c r="L244" s="17"/>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M244" s="17"/>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -5705,10 +6076,11 @@
       <c r="H245" s="5"/>
       <c r="I245" s="5"/>
       <c r="J245" s="5"/>
-      <c r="K245" s="17"/>
+      <c r="K245" s="5"/>
       <c r="L245" s="17"/>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M245" s="17"/>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -5719,10 +6091,11 @@
       <c r="H246" s="5"/>
       <c r="I246" s="5"/>
       <c r="J246" s="5"/>
-      <c r="K246" s="17"/>
+      <c r="K246" s="5"/>
       <c r="L246" s="17"/>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M246" s="17"/>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -5733,10 +6106,11 @@
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
       <c r="J247" s="5"/>
-      <c r="K247" s="17"/>
+      <c r="K247" s="5"/>
       <c r="L247" s="17"/>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M247" s="17"/>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -5747,10 +6121,11 @@
       <c r="H248" s="5"/>
       <c r="I248" s="5"/>
       <c r="J248" s="5"/>
-      <c r="K248" s="17"/>
+      <c r="K248" s="5"/>
       <c r="L248" s="17"/>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M248" s="17"/>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -5761,10 +6136,11 @@
       <c r="H249" s="5"/>
       <c r="I249" s="5"/>
       <c r="J249" s="5"/>
-      <c r="K249" s="17"/>
+      <c r="K249" s="5"/>
       <c r="L249" s="17"/>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M249" s="17"/>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -5775,10 +6151,11 @@
       <c r="H250" s="5"/>
       <c r="I250" s="5"/>
       <c r="J250" s="5"/>
-      <c r="K250" s="17"/>
+      <c r="K250" s="5"/>
       <c r="L250" s="17"/>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M250" s="17"/>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -5789,10 +6166,11 @@
       <c r="H251" s="5"/>
       <c r="I251" s="5"/>
       <c r="J251" s="5"/>
-      <c r="K251" s="17"/>
+      <c r="K251" s="5"/>
       <c r="L251" s="17"/>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M251" s="17"/>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -5803,10 +6181,11 @@
       <c r="H252" s="5"/>
       <c r="I252" s="5"/>
       <c r="J252" s="5"/>
-      <c r="K252" s="17"/>
+      <c r="K252" s="5"/>
       <c r="L252" s="17"/>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M252" s="17"/>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -5817,10 +6196,11 @@
       <c r="H253" s="5"/>
       <c r="I253" s="5"/>
       <c r="J253" s="5"/>
-      <c r="K253" s="17"/>
+      <c r="K253" s="5"/>
       <c r="L253" s="17"/>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M253" s="17"/>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -5831,10 +6211,11 @@
       <c r="H254" s="5"/>
       <c r="I254" s="5"/>
       <c r="J254" s="5"/>
-      <c r="K254" s="17"/>
+      <c r="K254" s="5"/>
       <c r="L254" s="17"/>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M254" s="17"/>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -5845,10 +6226,11 @@
       <c r="H255" s="5"/>
       <c r="I255" s="5"/>
       <c r="J255" s="5"/>
-      <c r="K255" s="17"/>
+      <c r="K255" s="5"/>
       <c r="L255" s="17"/>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M255" s="17"/>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -5859,10 +6241,11 @@
       <c r="H256" s="5"/>
       <c r="I256" s="5"/>
       <c r="J256" s="5"/>
-      <c r="K256" s="17"/>
+      <c r="K256" s="5"/>
       <c r="L256" s="17"/>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M256" s="17"/>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -5873,10 +6256,11 @@
       <c r="H257" s="5"/>
       <c r="I257" s="5"/>
       <c r="J257" s="5"/>
-      <c r="K257" s="17"/>
+      <c r="K257" s="5"/>
       <c r="L257" s="17"/>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M257" s="17"/>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -5887,10 +6271,11 @@
       <c r="H258" s="5"/>
       <c r="I258" s="5"/>
       <c r="J258" s="5"/>
-      <c r="K258" s="17"/>
+      <c r="K258" s="5"/>
       <c r="L258" s="17"/>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M258" s="17"/>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -5901,10 +6286,11 @@
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
       <c r="J259" s="5"/>
-      <c r="K259" s="17"/>
+      <c r="K259" s="5"/>
       <c r="L259" s="17"/>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M259" s="17"/>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -5915,10 +6301,11 @@
       <c r="H260" s="5"/>
       <c r="I260" s="5"/>
       <c r="J260" s="5"/>
-      <c r="K260" s="17"/>
+      <c r="K260" s="5"/>
       <c r="L260" s="17"/>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M260" s="17"/>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -5929,10 +6316,11 @@
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
       <c r="J261" s="5"/>
-      <c r="K261" s="17"/>
+      <c r="K261" s="5"/>
       <c r="L261" s="17"/>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M261" s="17"/>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -5943,10 +6331,11 @@
       <c r="H262" s="5"/>
       <c r="I262" s="5"/>
       <c r="J262" s="5"/>
-      <c r="K262" s="17"/>
+      <c r="K262" s="5"/>
       <c r="L262" s="17"/>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M262" s="17"/>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -5957,10 +6346,11 @@
       <c r="H263" s="5"/>
       <c r="I263" s="5"/>
       <c r="J263" s="5"/>
-      <c r="K263" s="17"/>
+      <c r="K263" s="5"/>
       <c r="L263" s="17"/>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M263" s="17"/>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -5971,10 +6361,11 @@
       <c r="H264" s="5"/>
       <c r="I264" s="5"/>
       <c r="J264" s="5"/>
-      <c r="K264" s="17"/>
+      <c r="K264" s="5"/>
       <c r="L264" s="17"/>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M264" s="17"/>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -5985,10 +6376,11 @@
       <c r="H265" s="5"/>
       <c r="I265" s="5"/>
       <c r="J265" s="5"/>
-      <c r="K265" s="17"/>
+      <c r="K265" s="5"/>
       <c r="L265" s="17"/>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M265" s="17"/>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -5999,10 +6391,11 @@
       <c r="H266" s="5"/>
       <c r="I266" s="5"/>
       <c r="J266" s="5"/>
-      <c r="K266" s="17"/>
+      <c r="K266" s="5"/>
       <c r="L266" s="17"/>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M266" s="17"/>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -6013,10 +6406,11 @@
       <c r="H267" s="5"/>
       <c r="I267" s="5"/>
       <c r="J267" s="5"/>
-      <c r="K267" s="17"/>
+      <c r="K267" s="5"/>
       <c r="L267" s="17"/>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M267" s="17"/>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -6027,10 +6421,11 @@
       <c r="H268" s="5"/>
       <c r="I268" s="5"/>
       <c r="J268" s="5"/>
-      <c r="K268" s="17"/>
+      <c r="K268" s="5"/>
       <c r="L268" s="17"/>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M268" s="17"/>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -6041,10 +6436,11 @@
       <c r="H269" s="5"/>
       <c r="I269" s="5"/>
       <c r="J269" s="5"/>
-      <c r="K269" s="17"/>
+      <c r="K269" s="5"/>
       <c r="L269" s="17"/>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M269" s="17"/>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -6055,10 +6451,11 @@
       <c r="H270" s="5"/>
       <c r="I270" s="5"/>
       <c r="J270" s="5"/>
-      <c r="K270" s="17"/>
+      <c r="K270" s="5"/>
       <c r="L270" s="17"/>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M270" s="17"/>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -6069,10 +6466,11 @@
       <c r="H271" s="5"/>
       <c r="I271" s="5"/>
       <c r="J271" s="5"/>
-      <c r="K271" s="17"/>
+      <c r="K271" s="5"/>
       <c r="L271" s="17"/>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M271" s="17"/>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -6083,10 +6481,11 @@
       <c r="H272" s="5"/>
       <c r="I272" s="5"/>
       <c r="J272" s="5"/>
-      <c r="K272" s="17"/>
+      <c r="K272" s="5"/>
       <c r="L272" s="17"/>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M272" s="17"/>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -6097,10 +6496,11 @@
       <c r="H273" s="5"/>
       <c r="I273" s="5"/>
       <c r="J273" s="5"/>
-      <c r="K273" s="17"/>
+      <c r="K273" s="5"/>
       <c r="L273" s="17"/>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M273" s="17"/>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -6111,10 +6511,11 @@
       <c r="H274" s="5"/>
       <c r="I274" s="5"/>
       <c r="J274" s="5"/>
-      <c r="K274" s="17"/>
+      <c r="K274" s="5"/>
       <c r="L274" s="17"/>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M274" s="17"/>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -6125,10 +6526,11 @@
       <c r="H275" s="5"/>
       <c r="I275" s="5"/>
       <c r="J275" s="5"/>
-      <c r="K275" s="17"/>
+      <c r="K275" s="5"/>
       <c r="L275" s="17"/>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M275" s="17"/>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -6139,10 +6541,11 @@
       <c r="H276" s="5"/>
       <c r="I276" s="5"/>
       <c r="J276" s="5"/>
-      <c r="K276" s="17"/>
+      <c r="K276" s="5"/>
       <c r="L276" s="17"/>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M276" s="17"/>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -6153,10 +6556,11 @@
       <c r="H277" s="5"/>
       <c r="I277" s="5"/>
       <c r="J277" s="5"/>
-      <c r="K277" s="17"/>
+      <c r="K277" s="5"/>
       <c r="L277" s="17"/>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M277" s="17"/>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -6167,10 +6571,11 @@
       <c r="H278" s="5"/>
       <c r="I278" s="5"/>
       <c r="J278" s="5"/>
-      <c r="K278" s="17"/>
+      <c r="K278" s="5"/>
       <c r="L278" s="17"/>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M278" s="17"/>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -6181,10 +6586,11 @@
       <c r="H279" s="5"/>
       <c r="I279" s="5"/>
       <c r="J279" s="5"/>
-      <c r="K279" s="17"/>
+      <c r="K279" s="5"/>
       <c r="L279" s="17"/>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M279" s="17"/>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -6195,10 +6601,11 @@
       <c r="H280" s="5"/>
       <c r="I280" s="5"/>
       <c r="J280" s="5"/>
-      <c r="K280" s="17"/>
+      <c r="K280" s="5"/>
       <c r="L280" s="17"/>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M280" s="17"/>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -6209,10 +6616,11 @@
       <c r="H281" s="5"/>
       <c r="I281" s="5"/>
       <c r="J281" s="5"/>
-      <c r="K281" s="17"/>
+      <c r="K281" s="5"/>
       <c r="L281" s="17"/>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M281" s="17"/>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -6223,10 +6631,11 @@
       <c r="H282" s="5"/>
       <c r="I282" s="5"/>
       <c r="J282" s="5"/>
-      <c r="K282" s="17"/>
+      <c r="K282" s="5"/>
       <c r="L282" s="17"/>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M282" s="17"/>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -6237,10 +6646,11 @@
       <c r="H283" s="5"/>
       <c r="I283" s="5"/>
       <c r="J283" s="5"/>
-      <c r="K283" s="17"/>
+      <c r="K283" s="5"/>
       <c r="L283" s="17"/>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M283" s="17"/>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -6251,10 +6661,11 @@
       <c r="H284" s="5"/>
       <c r="I284" s="5"/>
       <c r="J284" s="5"/>
-      <c r="K284" s="17"/>
+      <c r="K284" s="5"/>
       <c r="L284" s="17"/>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M284" s="17"/>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -6265,10 +6676,11 @@
       <c r="H285" s="5"/>
       <c r="I285" s="5"/>
       <c r="J285" s="5"/>
-      <c r="K285" s="17"/>
+      <c r="K285" s="5"/>
       <c r="L285" s="17"/>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M285" s="17"/>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -6279,10 +6691,11 @@
       <c r="H286" s="5"/>
       <c r="I286" s="5"/>
       <c r="J286" s="5"/>
-      <c r="K286" s="17"/>
+      <c r="K286" s="5"/>
       <c r="L286" s="17"/>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M286" s="17"/>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -6293,10 +6706,11 @@
       <c r="H287" s="5"/>
       <c r="I287" s="5"/>
       <c r="J287" s="5"/>
-      <c r="K287" s="17"/>
+      <c r="K287" s="5"/>
       <c r="L287" s="17"/>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M287" s="17"/>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -6307,10 +6721,11 @@
       <c r="H288" s="5"/>
       <c r="I288" s="5"/>
       <c r="J288" s="5"/>
-      <c r="K288" s="17"/>
+      <c r="K288" s="5"/>
       <c r="L288" s="17"/>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M288" s="17"/>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -6321,10 +6736,11 @@
       <c r="H289" s="5"/>
       <c r="I289" s="5"/>
       <c r="J289" s="5"/>
-      <c r="K289" s="17"/>
+      <c r="K289" s="5"/>
       <c r="L289" s="17"/>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M289" s="17"/>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -6335,10 +6751,11 @@
       <c r="H290" s="5"/>
       <c r="I290" s="5"/>
       <c r="J290" s="5"/>
-      <c r="K290" s="17"/>
+      <c r="K290" s="5"/>
       <c r="L290" s="17"/>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M290" s="17"/>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -6349,10 +6766,11 @@
       <c r="H291" s="5"/>
       <c r="I291" s="5"/>
       <c r="J291" s="5"/>
-      <c r="K291" s="17"/>
+      <c r="K291" s="5"/>
       <c r="L291" s="17"/>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M291" s="17"/>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -6363,10 +6781,11 @@
       <c r="H292" s="5"/>
       <c r="I292" s="5"/>
       <c r="J292" s="5"/>
-      <c r="K292" s="17"/>
+      <c r="K292" s="5"/>
       <c r="L292" s="17"/>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M292" s="17"/>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -6377,10 +6796,11 @@
       <c r="H293" s="5"/>
       <c r="I293" s="5"/>
       <c r="J293" s="5"/>
-      <c r="K293" s="17"/>
+      <c r="K293" s="5"/>
       <c r="L293" s="17"/>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M293" s="17"/>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -6391,10 +6811,11 @@
       <c r="H294" s="5"/>
       <c r="I294" s="5"/>
       <c r="J294" s="5"/>
-      <c r="K294" s="17"/>
+      <c r="K294" s="5"/>
       <c r="L294" s="17"/>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M294" s="17"/>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -6405,10 +6826,11 @@
       <c r="H295" s="5"/>
       <c r="I295" s="5"/>
       <c r="J295" s="5"/>
-      <c r="K295" s="17"/>
+      <c r="K295" s="5"/>
       <c r="L295" s="17"/>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M295" s="17"/>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -6419,10 +6841,11 @@
       <c r="H296" s="5"/>
       <c r="I296" s="5"/>
       <c r="J296" s="5"/>
-      <c r="K296" s="17"/>
+      <c r="K296" s="5"/>
       <c r="L296" s="17"/>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M296" s="17"/>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -6433,10 +6856,11 @@
       <c r="H297" s="5"/>
       <c r="I297" s="5"/>
       <c r="J297" s="5"/>
-      <c r="K297" s="17"/>
+      <c r="K297" s="5"/>
       <c r="L297" s="17"/>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M297" s="17"/>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -6447,10 +6871,11 @@
       <c r="H298" s="5"/>
       <c r="I298" s="5"/>
       <c r="J298" s="5"/>
-      <c r="K298" s="17"/>
+      <c r="K298" s="5"/>
       <c r="L298" s="17"/>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M298" s="17"/>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -6461,10 +6886,11 @@
       <c r="H299" s="5"/>
       <c r="I299" s="5"/>
       <c r="J299" s="5"/>
-      <c r="K299" s="17"/>
+      <c r="K299" s="5"/>
       <c r="L299" s="17"/>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M299" s="17"/>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -6475,10 +6901,11 @@
       <c r="H300" s="5"/>
       <c r="I300" s="5"/>
       <c r="J300" s="5"/>
-      <c r="K300" s="17"/>
+      <c r="K300" s="5"/>
       <c r="L300" s="17"/>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M300" s="17"/>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -6489,10 +6916,11 @@
       <c r="H301" s="5"/>
       <c r="I301" s="5"/>
       <c r="J301" s="5"/>
-      <c r="K301" s="17"/>
+      <c r="K301" s="5"/>
       <c r="L301" s="17"/>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M301" s="17"/>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -6503,10 +6931,11 @@
       <c r="H302" s="5"/>
       <c r="I302" s="5"/>
       <c r="J302" s="5"/>
-      <c r="K302" s="17"/>
+      <c r="K302" s="5"/>
       <c r="L302" s="17"/>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M302" s="17"/>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -6517,10 +6946,11 @@
       <c r="H303" s="5"/>
       <c r="I303" s="5"/>
       <c r="J303" s="5"/>
-      <c r="K303" s="17"/>
+      <c r="K303" s="5"/>
       <c r="L303" s="17"/>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M303" s="17"/>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -6531,10 +6961,11 @@
       <c r="H304" s="5"/>
       <c r="I304" s="5"/>
       <c r="J304" s="5"/>
-      <c r="K304" s="17"/>
+      <c r="K304" s="5"/>
       <c r="L304" s="17"/>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M304" s="17"/>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -6545,10 +6976,11 @@
       <c r="H305" s="5"/>
       <c r="I305" s="5"/>
       <c r="J305" s="5"/>
-      <c r="K305" s="17"/>
+      <c r="K305" s="5"/>
       <c r="L305" s="17"/>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M305" s="17"/>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -6559,10 +6991,11 @@
       <c r="H306" s="5"/>
       <c r="I306" s="5"/>
       <c r="J306" s="5"/>
-      <c r="K306" s="17"/>
+      <c r="K306" s="5"/>
       <c r="L306" s="17"/>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M306" s="17"/>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -6573,10 +7006,11 @@
       <c r="H307" s="5"/>
       <c r="I307" s="5"/>
       <c r="J307" s="5"/>
-      <c r="K307" s="17"/>
+      <c r="K307" s="5"/>
       <c r="L307" s="17"/>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M307" s="17"/>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -6587,10 +7021,11 @@
       <c r="H308" s="5"/>
       <c r="I308" s="5"/>
       <c r="J308" s="5"/>
-      <c r="K308" s="17"/>
+      <c r="K308" s="5"/>
       <c r="L308" s="17"/>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M308" s="17"/>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -6601,10 +7036,11 @@
       <c r="H309" s="5"/>
       <c r="I309" s="5"/>
       <c r="J309" s="5"/>
-      <c r="K309" s="17"/>
+      <c r="K309" s="5"/>
       <c r="L309" s="17"/>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M309" s="17"/>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -6615,10 +7051,11 @@
       <c r="H310" s="5"/>
       <c r="I310" s="5"/>
       <c r="J310" s="5"/>
-      <c r="K310" s="17"/>
+      <c r="K310" s="5"/>
       <c r="L310" s="17"/>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M310" s="17"/>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -6629,10 +7066,11 @@
       <c r="H311" s="5"/>
       <c r="I311" s="5"/>
       <c r="J311" s="5"/>
-      <c r="K311" s="17"/>
+      <c r="K311" s="5"/>
       <c r="L311" s="17"/>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M311" s="17"/>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -6643,10 +7081,11 @@
       <c r="H312" s="5"/>
       <c r="I312" s="5"/>
       <c r="J312" s="5"/>
-      <c r="K312" s="17"/>
+      <c r="K312" s="5"/>
       <c r="L312" s="17"/>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M312" s="17"/>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -6657,10 +7096,11 @@
       <c r="H313" s="5"/>
       <c r="I313" s="5"/>
       <c r="J313" s="5"/>
-      <c r="K313" s="17"/>
+      <c r="K313" s="5"/>
       <c r="L313" s="17"/>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M313" s="17"/>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -6671,10 +7111,11 @@
       <c r="H314" s="5"/>
       <c r="I314" s="5"/>
       <c r="J314" s="5"/>
-      <c r="K314" s="17"/>
+      <c r="K314" s="5"/>
       <c r="L314" s="17"/>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M314" s="17"/>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -6685,10 +7126,11 @@
       <c r="H315" s="5"/>
       <c r="I315" s="5"/>
       <c r="J315" s="5"/>
-      <c r="K315" s="17"/>
+      <c r="K315" s="5"/>
       <c r="L315" s="17"/>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M315" s="17"/>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -6699,10 +7141,11 @@
       <c r="H316" s="5"/>
       <c r="I316" s="5"/>
       <c r="J316" s="5"/>
-      <c r="K316" s="17"/>
+      <c r="K316" s="5"/>
       <c r="L316" s="17"/>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M316" s="17"/>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -6713,10 +7156,11 @@
       <c r="H317" s="5"/>
       <c r="I317" s="5"/>
       <c r="J317" s="5"/>
-      <c r="K317" s="17"/>
+      <c r="K317" s="5"/>
       <c r="L317" s="17"/>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M317" s="17"/>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -6727,10 +7171,11 @@
       <c r="H318" s="5"/>
       <c r="I318" s="5"/>
       <c r="J318" s="5"/>
-      <c r="K318" s="17"/>
+      <c r="K318" s="5"/>
       <c r="L318" s="17"/>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M318" s="17"/>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -6741,10 +7186,11 @@
       <c r="H319" s="5"/>
       <c r="I319" s="5"/>
       <c r="J319" s="5"/>
-      <c r="K319" s="17"/>
+      <c r="K319" s="5"/>
       <c r="L319" s="17"/>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M319" s="17"/>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -6755,8 +7201,9 @@
       <c r="H320" s="5"/>
       <c r="I320" s="5"/>
       <c r="J320" s="5"/>
-      <c r="K320" s="17"/>
+      <c r="K320" s="5"/>
       <c r="L320" s="17"/>
+      <c r="M320" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -6774,13 +7221,13 @@
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!ThisWorkbook.openUI">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>14</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>324196</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>58189</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>16</xdr:col>
+                    <xdr:col>17</xdr:col>
                     <xdr:colOff>548640</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>

--- a/Data4.xlsx
+++ b/Data4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\# Bioelectronics\4th year\Indoor-Localiztion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3344237B-E6EC-4D29-A85C-5C8134E8AF5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1C0602-9BC7-4A67-9062-CE1B0C674EBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -751,8 +751,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D62"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
@@ -820,7 +820,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="6">
         <v>4</v>
@@ -861,7 +861,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="6">
         <v>4</v>
@@ -902,7 +902,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="6">
         <v>4</v>
@@ -943,7 +943,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="6">
         <v>4</v>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="6">
         <v>4</v>
@@ -1025,7 +1025,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="6">
         <v>4</v>
@@ -1066,7 +1066,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="6">
         <v>4</v>
@@ -1107,7 +1107,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="6">
         <v>4</v>
@@ -1148,7 +1148,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="6">
         <v>4</v>
@@ -1189,7 +1189,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="6">
         <v>4</v>
@@ -1230,7 +1230,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="6">
         <v>4</v>
@@ -1271,7 +1271,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="6">
         <v>4</v>
@@ -1312,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" s="6">
         <v>4</v>
@@ -1353,7 +1353,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" s="6">
         <v>4</v>
@@ -1394,7 +1394,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" s="6">
         <v>4</v>
@@ -1435,7 +1435,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" s="6">
         <v>4</v>
@@ -1476,7 +1476,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" s="6">
         <v>4</v>
@@ -1517,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" s="6">
         <v>4</v>
@@ -1558,7 +1558,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20" s="6">
         <v>4</v>
@@ -1599,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" s="6">
         <v>4</v>
@@ -1640,7 +1640,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" s="6">
         <v>4</v>
@@ -1681,7 +1681,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23" s="6">
         <v>4</v>
@@ -1722,7 +1722,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" s="6">
         <v>4</v>
@@ -1763,7 +1763,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" s="6">
         <v>4</v>
@@ -1804,7 +1804,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26" s="6">
         <v>4</v>
@@ -1845,7 +1845,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D27" s="6">
         <v>4</v>
@@ -1886,7 +1886,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D28" s="6">
         <v>4</v>
@@ -1927,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D29" s="6">
         <v>4</v>
@@ -1968,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D30" s="6">
         <v>4</v>
@@ -2009,7 +2009,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D31" s="6">
         <v>4</v>
@@ -2050,7 +2050,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D32" s="6">
         <v>4</v>
@@ -2091,7 +2091,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D33" s="6">
         <v>4</v>
@@ -2132,7 +2132,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D34" s="6">
         <v>4</v>
@@ -2173,7 +2173,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35" s="6">
         <v>4</v>
@@ -2214,7 +2214,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D36" s="6">
         <v>4</v>
@@ -2255,7 +2255,7 @@
         <v>5</v>
       </c>
       <c r="C37" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D37" s="6">
         <v>4</v>
@@ -2296,7 +2296,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D38" s="6">
         <v>4</v>
@@ -2337,7 +2337,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D39" s="6">
         <v>4</v>
@@ -2378,7 +2378,7 @@
         <v>5</v>
       </c>
       <c r="C40" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D40" s="6">
         <v>4</v>
@@ -2419,7 +2419,7 @@
         <v>5</v>
       </c>
       <c r="C41" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D41" s="6">
         <v>4</v>
@@ -2460,7 +2460,7 @@
         <v>5</v>
       </c>
       <c r="C42" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D42" s="6">
         <v>4</v>
@@ -2501,7 +2501,7 @@
         <v>5</v>
       </c>
       <c r="C43" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D43" s="6">
         <v>4</v>
@@ -2542,7 +2542,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D44" s="6">
         <v>4</v>
@@ -2583,7 +2583,7 @@
         <v>5</v>
       </c>
       <c r="C45" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D45" s="6">
         <v>4</v>
@@ -2624,7 +2624,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D46" s="6">
         <v>4</v>
@@ -2665,7 +2665,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D47" s="6">
         <v>4</v>
@@ -2706,7 +2706,7 @@
         <v>5</v>
       </c>
       <c r="C48" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D48" s="6">
         <v>4</v>
@@ -2747,7 +2747,7 @@
         <v>5</v>
       </c>
       <c r="C49" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D49" s="6">
         <v>4</v>
@@ -2788,7 +2788,7 @@
         <v>5</v>
       </c>
       <c r="C50" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D50" s="6">
         <v>4</v>
@@ -2829,7 +2829,7 @@
         <v>5</v>
       </c>
       <c r="C51" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D51" s="6">
         <v>4</v>
@@ -2870,7 +2870,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D52" s="6">
         <v>4</v>
@@ -2911,7 +2911,7 @@
         <v>5</v>
       </c>
       <c r="C53" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D53" s="6">
         <v>4</v>
@@ -2952,7 +2952,7 @@
         <v>5</v>
       </c>
       <c r="C54" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D54" s="6">
         <v>4</v>
@@ -2993,7 +2993,7 @@
         <v>5</v>
       </c>
       <c r="C55" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D55" s="6">
         <v>4</v>
@@ -3034,7 +3034,7 @@
         <v>5</v>
       </c>
       <c r="C56" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D56" s="6">
         <v>4</v>
@@ -3075,7 +3075,7 @@
         <v>5</v>
       </c>
       <c r="C57" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D57" s="6">
         <v>4</v>
@@ -3116,7 +3116,7 @@
         <v>5</v>
       </c>
       <c r="C58" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D58" s="6">
         <v>4</v>
@@ -3157,7 +3157,7 @@
         <v>5</v>
       </c>
       <c r="C59" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D59" s="6">
         <v>4</v>
@@ -3198,7 +3198,7 @@
         <v>5</v>
       </c>
       <c r="C60" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D60" s="6">
         <v>4</v>
@@ -3239,7 +3239,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D61" s="6">
         <v>4</v>
@@ -3280,7 +3280,7 @@
         <v>5</v>
       </c>
       <c r="C62" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D62" s="6">
         <v>4</v>
